--- a/AE_run_summary.xlsx
+++ b/AE_run_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Documents/Education/College/Research/PFURO_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB754D-2791-FE48-82D6-2330FBBB46C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B32241-4FB1-8A45-85A3-AB1F66669BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{6FE3EA94-DBAB-4A52-A106-F8314D052350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>case</t>
   </si>
@@ -171,13 +171,19 @@
     <t>perlmutter_7003.sh</t>
   </si>
   <si>
-    <t>7001_test</t>
-  </si>
-  <si>
-    <t>group_go_7001_test.py</t>
-  </si>
-  <si>
-    <t>I want to see what the marker distribution plots look like with the uniform distribution</t>
+    <t>group_go_2443.py</t>
+  </si>
+  <si>
+    <t>group_go_7004.py</t>
+  </si>
+  <si>
+    <t>WARNINGS</t>
+  </si>
+  <si>
+    <t>Uniform Distribution Tests</t>
+  </si>
+  <si>
+    <t>TEST, NOT WORING YET</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,12 +282,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,12 +294,7 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,482 +616,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BE43D-159D-4D30-A297-AE35C194293D}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="8.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.83203125" style="1"/>
-    <col min="10" max="12" width="8.83203125" style="12"/>
-    <col min="13" max="13" width="20.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="33.5" style="1" customWidth="1"/>
-    <col min="17" max="18" width="8.83203125" style="1"/>
-    <col min="19" max="19" width="18" style="1" customWidth="1"/>
-    <col min="20" max="20" width="95.83203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="19.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="13" width="8.83203125" style="10"/>
+    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="33.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="8.83203125" style="1"/>
+    <col min="20" max="20" width="18" style="1" customWidth="1"/>
+    <col min="21" max="21" width="95.83203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>2106</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>61963275</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>0.125</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="11">
         <v>10720</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="10">
         <v>1E-3</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="10">
         <v>9000</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="Q7" s="2"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>2107</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>61964628</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>0.125</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K8" s="11">
         <v>10720</v>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="10">
         <v>0.1</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="10">
         <v>9000</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>2108</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>61979478</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>0.125</v>
       </c>
-      <c r="J9" s="13">
+      <c r="K9" s="11">
         <v>10720</v>
       </c>
-      <c r="K9" s="12">
+      <c r="L9" s="10">
         <v>1E-3</v>
       </c>
-      <c r="L9" s="12">
+      <c r="M9" s="10">
         <v>9000</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>2109</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>61979479</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>0.125</v>
       </c>
-      <c r="J10" s="13">
+      <c r="K10" s="11">
         <v>10720</v>
       </c>
-      <c r="K10" s="12">
+      <c r="L10" s="10">
         <v>0.1</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="10">
         <v>9000</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="T10" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>7001</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>10229215</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="J14" s="13">
+      <c r="K14" s="11">
         <v>10720</v>
       </c>
-      <c r="K14" s="14">
+      <c r="L14" s="12">
         <v>2E-3</v>
       </c>
-      <c r="L14" s="12">
+      <c r="M14" s="10">
         <v>9000</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="2"/>
+      <c r="U14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
         <v>7002</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>10369924</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="J15" s="15">
+      <c r="K15" s="13">
         <v>1000</v>
       </c>
-      <c r="K15" s="14">
+      <c r="L15" s="12">
         <v>0.3</v>
       </c>
-      <c r="L15" s="12">
+      <c r="M15" s="10">
         <v>9000</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
         <v>7003</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="1">
+        <v>10457508</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>10</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="J16" s="15">
+      <c r="K16" s="13">
         <v>10720</v>
       </c>
-      <c r="K16" s="16">
+      <c r="L16" s="10">
         <v>0.3</v>
       </c>
-      <c r="L16" s="14">
+      <c r="M16" s="12">
         <v>5000</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7004</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="10">
-        <v>10</v>
-      </c>
-      <c r="H17" s="11">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="17">
-        <v>10720</v>
-      </c>
-      <c r="K17" s="16">
-        <v>2E-3</v>
-      </c>
-      <c r="L17" s="16">
-        <v>9000</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1" t="s">
-        <v>50</v>
+      <c r="I17" s="7"/>
+      <c r="K17" s="11"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/AE_run_summary.xlsx
+++ b/AE_run_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B32241-4FB1-8A45-85A3-AB1F66669BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E7DFE5-0230-394F-A8D8-BF606CA31671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{6FE3EA94-DBAB-4A52-A106-F8314D052350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="142">
   <si>
     <t>case</t>
   </si>
@@ -60,9 +60,6 @@
     <t>actual</t>
   </si>
   <si>
-    <t>Nmrk</t>
-  </si>
-  <si>
     <t>TF file</t>
   </si>
   <si>
@@ -87,12 +84,6 @@
     <t>outcome</t>
   </si>
   <si>
-    <t>misc-A</t>
-  </si>
-  <si>
-    <t>misc-B</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -183,7 +174,283 @@
     <t>Uniform Distribution Tests</t>
   </si>
   <si>
-    <t>TEST, NOT WORING YET</t>
+    <t>group_go_7005.py</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>Npitch</t>
+  </si>
+  <si>
+    <t>Nphi</t>
+  </si>
+  <si>
+    <t>Ngyro</t>
+  </si>
+  <si>
+    <t>max_scale_factor</t>
+  </si>
+  <si>
+    <t>real_Nmrk</t>
+  </si>
+  <si>
+    <t>MHD on/off</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>group_go_7006.py</t>
+  </si>
+  <si>
+    <t>CPU Time for one particle</t>
+  </si>
+  <si>
+    <t>perlmutter_7005.sh</t>
+  </si>
+  <si>
+    <t>perlmutter_7006.sh</t>
+  </si>
+  <si>
+    <t>Used for writing py files</t>
+  </si>
+  <si>
+    <t>group_go_7000.py</t>
+  </si>
+  <si>
+    <t>FOR DEBUGGING/updates freqeuntly</t>
+  </si>
+  <si>
+    <t>group_go_7007.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7007.sh</t>
+  </si>
+  <si>
+    <t>unexpected</t>
+  </si>
+  <si>
+    <t>not a run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminated Early </t>
+  </si>
+  <si>
+    <t>Bug fixes on vtot in marker_sets_hongyu.py</t>
+  </si>
+  <si>
+    <t>Second 7005 run did not come out with correct energy and vtot, redo the run with new id</t>
+  </si>
+  <si>
+    <t>second run the the same set</t>
+  </si>
+  <si>
+    <t>abandoned</t>
+  </si>
+  <si>
+    <t>group_go_7008.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7008.sh</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>forgot to init the py</t>
+  </si>
+  <si>
+    <t>group_go_7009.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7009.sh</t>
+  </si>
+  <si>
+    <t>outcomes:</t>
+  </si>
+  <si>
+    <t>good ran with expected results</t>
+  </si>
+  <si>
+    <t>did not plan to run. Used for py testing</t>
+  </si>
+  <si>
+    <t>ran with unexpected results</t>
+  </si>
+  <si>
+    <t>was going to run it but noticed something wrong with parent so did not run</t>
+  </si>
+  <si>
+    <t>ran with stupid bug and "to be expected" false results</t>
+  </si>
+  <si>
+    <t>Now for alexa input plotting</t>
+  </si>
+  <si>
+    <t>group_go_7010.py</t>
+  </si>
+  <si>
+    <t>test with updated weight (it was wrong before)</t>
+  </si>
+  <si>
+    <t>group_go_7011.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7010.sh</t>
+  </si>
+  <si>
+    <t>perlmutter_7011.sh</t>
+  </si>
+  <si>
+    <t>Nmrk (set =1)</t>
+  </si>
+  <si>
+    <t>full production run</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing if the mhd on works. </t>
+  </si>
+  <si>
+    <t>terminated</t>
+  </si>
+  <si>
+    <t>terminated because of cpu time</t>
+  </si>
+  <si>
+    <t>extend CPU nodes and time see if it finishes</t>
+  </si>
+  <si>
+    <t>perlmutter_7012.sh</t>
+  </si>
+  <si>
+    <t>group_go_7012.py</t>
+  </si>
+  <si>
+    <t>group_go_7013.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7013.sh</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Change in perlmutter.sh files</t>
+  </si>
+  <si>
+    <t>group_go_7014.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7014.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">running with more time and fewer markers </t>
+  </si>
+  <si>
+    <t>group_go_7015.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7015.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">running with more time and even fewer markers </t>
+  </si>
+  <si>
+    <t>group_go_7016.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7016.sh</t>
+  </si>
+  <si>
+    <t>increased cpu time and sim time for even even fewer fewer markers</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK, I turn collision on and redo the same run </t>
+  </si>
+  <si>
+    <t>group_go_7017.py</t>
+  </si>
+  <si>
+    <t>group_go_7018.py</t>
+  </si>
+  <si>
+    <t>group_go_7019.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7019.sh</t>
+  </si>
+  <si>
+    <t>perlmutter_7018.sh</t>
+  </si>
+  <si>
+    <t>perlmutter_7017.sh</t>
+  </si>
+  <si>
+    <t>did not init</t>
+  </si>
+  <si>
+    <t>init and rerun</t>
+  </si>
+  <si>
+    <t>set the wrong max simtime</t>
+  </si>
+  <si>
+    <t>perlmutter_7020.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">running with increased time </t>
+  </si>
+  <si>
+    <t>group_go_7021.py</t>
+  </si>
+  <si>
+    <t>group_go_7020.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7021.sh</t>
+  </si>
+  <si>
+    <t>running with fewer markers</t>
+  </si>
+  <si>
+    <t>group_go_7022.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7022.sh</t>
+  </si>
+  <si>
+    <t>running with even fewer markers</t>
+  </si>
+  <si>
+    <t>group_go_7023.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7023.sh</t>
+  </si>
+  <si>
+    <t>right below the hypothesis of 64 cores</t>
+  </si>
+  <si>
+    <t>group_go_7024.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7024.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limiting the cpu time? </t>
+  </si>
+  <si>
+    <t>group_go_7025.py</t>
   </si>
 </sst>
 </file>
@@ -214,7 +481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,19 +537,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -285,16 +549,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,47 +893,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BE43D-159D-4D30-A297-AE35C194293D}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="29" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="13" width="8.83203125" style="10"/>
-    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="7"/>
+    <col min="10" max="12" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="20.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="33.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="33.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1"/>
-    <col min="20" max="20" width="18" style="1" customWidth="1"/>
-    <col min="21" max="21" width="95.83203125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="3"/>
+    <col min="18" max="19" width="5.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" style="1"/>
+    <col min="25" max="25" width="12" style="1" customWidth="1"/>
+    <col min="26" max="26" width="95.83203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" style="3"/>
+    <col min="28" max="28" width="11" style="3" customWidth="1"/>
+    <col min="29" max="29" width="57.83203125" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>50</v>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -668,417 +961,2292 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>2106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1">
         <v>61963275</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="Y7" s="12">
         <v>10720</v>
       </c>
-      <c r="L7" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="M7" s="10">
-        <v>9000</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>2107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1">
         <v>61964628</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7">
         <v>10</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="15">
         <v>0.125</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="12">
         <v>10720</v>
       </c>
-      <c r="L8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M8" s="10">
-        <v>9000</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>2108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
         <v>61979478</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9000</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="O9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="12">
         <v>10720</v>
       </c>
-      <c r="L9" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="M9" s="10">
-        <v>9000</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>2109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>61979479</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="1">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="O10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" s="12">
         <v>10720</v>
       </c>
-      <c r="L10" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M10" s="10">
-        <v>9000</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>7001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1">
         <v>10229215</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="16">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="Y14" s="12">
         <v>10720</v>
       </c>
-      <c r="L14" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="M14" s="10">
-        <v>9000</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>7002</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="1">
         <v>10369924</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
+        <v>40</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
         <v>0.1111111111111111</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>9000</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="Y15" s="13">
         <v>1000</v>
       </c>
-      <c r="L15" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="M15" s="10">
-        <v>9000</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>7003</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1">
         <v>10457508</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="9">
+        <v>44</v>
+      </c>
+      <c r="H16" s="8">
         <v>10</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="16">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="Y16" s="13">
         <v>10720</v>
       </c>
-      <c r="L16" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="M16" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>52</v>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="1">
         <v>7004</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="K17" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="I17" s="15"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="1" t="s">
-        <v>51</v>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>7005</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10784210</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="2">
+        <v>50</v>
+      </c>
+      <c r="S18" s="2">
+        <v>100</v>
+      </c>
+      <c r="T18" s="2">
+        <v>10</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2">
+        <v>5</v>
+      </c>
+      <c r="X18" s="2">
+        <v>45420</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>7005</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10828879</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="2">
+        <v>50</v>
+      </c>
+      <c r="S19" s="2">
+        <v>100</v>
+      </c>
+      <c r="T19" s="2">
+        <v>10</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2">
+        <v>5</v>
+      </c>
+      <c r="X19" s="2">
+        <v>45420</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>7006</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="10">
+        <v>68</v>
+      </c>
+      <c r="S20" s="10">
+        <v>136</v>
+      </c>
+      <c r="T20" s="2">
+        <v>10</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="10">
+        <v>1</v>
+      </c>
+      <c r="X20" s="10">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>7007</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10829787</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="2">
+        <v>50</v>
+      </c>
+      <c r="S21" s="2">
+        <v>100</v>
+      </c>
+      <c r="T21" s="2">
+        <v>10</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="W21" s="2">
+        <v>5</v>
+      </c>
+      <c r="X21" s="2">
+        <v>45420</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>7007</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10834100</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="2">
+        <v>50</v>
+      </c>
+      <c r="S22" s="2">
+        <v>100</v>
+      </c>
+      <c r="T22" s="2">
+        <v>10</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
+        <v>5</v>
+      </c>
+      <c r="X22" s="2">
+        <v>45420</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>7008</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10835612</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="2">
+        <v>68</v>
+      </c>
+      <c r="S23" s="2">
+        <v>136</v>
+      </c>
+      <c r="T23" s="2">
+        <v>10</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>44680</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>7009</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10835744</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" s="2">
+        <v>68</v>
+      </c>
+      <c r="S24" s="2">
+        <v>136</v>
+      </c>
+      <c r="T24" s="2">
+        <v>10</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>7010</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11018346</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="2">
+        <v>50</v>
+      </c>
+      <c r="S25" s="2">
+        <v>100</v>
+      </c>
+      <c r="T25" s="2">
+        <v>10</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2">
+        <v>5</v>
+      </c>
+      <c r="X25" s="2">
+        <v>45420</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>7011</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1">
+        <v>11020653</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" s="2">
+        <v>50</v>
+      </c>
+      <c r="S26" s="2">
+        <v>100</v>
+      </c>
+      <c r="T26" s="2">
+        <v>10</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
+      <c r="W26" s="2">
+        <v>5</v>
+      </c>
+      <c r="X26" s="2">
+        <v>45420</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>7012</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="1">
+        <v>11022246</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="8">
+        <v>4</v>
+      </c>
+      <c r="I27" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="2">
+        <v>50</v>
+      </c>
+      <c r="S27" s="2">
+        <v>100</v>
+      </c>
+      <c r="T27" s="2">
+        <v>10</v>
+      </c>
+      <c r="U27" s="2">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2">
+        <v>5</v>
+      </c>
+      <c r="X27" s="2">
+        <v>45420</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>7013</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="1">
+        <v>11034682</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="8">
+        <v>10</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L28" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" s="2">
+        <v>30</v>
+      </c>
+      <c r="S28" s="2">
+        <v>60</v>
+      </c>
+      <c r="T28" s="2">
+        <v>7</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1</v>
+      </c>
+      <c r="V28" s="2">
+        <v>1</v>
+      </c>
+      <c r="W28" s="2">
+        <v>5</v>
+      </c>
+      <c r="X28" s="2">
+        <v>11172</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>7014</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="1">
+        <v>11064514</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="7">
+        <v>10</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L29" s="6">
+        <v>9000</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" s="10">
+        <v>25</v>
+      </c>
+      <c r="S29" s="10">
+        <v>50</v>
+      </c>
+      <c r="T29" s="2">
+        <v>7</v>
+      </c>
+      <c r="U29" s="2">
+        <v>1</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+      <c r="W29" s="2">
+        <v>5</v>
+      </c>
+      <c r="X29" s="10">
+        <v>7756</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>7015</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="1">
+        <v>11074267</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L30" s="6">
+        <v>9000</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="10">
+        <v>20</v>
+      </c>
+      <c r="S30" s="10">
+        <v>40</v>
+      </c>
+      <c r="T30" s="2">
+        <v>7</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1</v>
+      </c>
+      <c r="V30" s="2">
+        <v>1</v>
+      </c>
+      <c r="W30" s="2">
+        <v>5</v>
+      </c>
+      <c r="X30" s="10">
+        <v>4858</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>7015</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="1">
+        <v>11081832</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="7">
+        <v>10</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L31" s="6">
+        <v>9000</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="10">
+        <v>20</v>
+      </c>
+      <c r="S31" s="10">
+        <v>40</v>
+      </c>
+      <c r="T31" s="2">
+        <v>7</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+      <c r="W31" s="2">
+        <v>5</v>
+      </c>
+      <c r="X31" s="10">
+        <v>4858</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7016</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="1">
+        <v>11091756</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="7">
+        <v>10</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L32" s="6">
+        <v>20000</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="10">
+        <v>8</v>
+      </c>
+      <c r="S32" s="10">
+        <v>16</v>
+      </c>
+      <c r="T32" s="2">
+        <v>3</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2">
+        <v>5</v>
+      </c>
+      <c r="X32" s="10">
+        <v>294</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>7017</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="1">
+        <v>11119404</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="7">
+        <v>10</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L33" s="6">
+        <v>20000</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="10">
+        <v>8</v>
+      </c>
+      <c r="S33" s="10">
+        <v>16</v>
+      </c>
+      <c r="T33" s="2">
+        <v>3</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
+        <v>5</v>
+      </c>
+      <c r="X33" s="10">
+        <v>294</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>7018</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="1">
+        <v>11133882</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="16">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L34" s="6">
+        <v>20000</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" s="10">
+        <v>14</v>
+      </c>
+      <c r="S34" s="10">
+        <v>28</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="10">
+        <v>172</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>7019</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="1">
+        <v>11134397</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="16">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L35" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="10">
+        <v>14</v>
+      </c>
+      <c r="S35" s="10">
+        <v>28</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1</v>
+      </c>
+      <c r="U35" s="2">
+        <v>1</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="10">
+        <v>172</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>7019</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="1">
+        <v>11134607</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="16">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L36" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R36" s="10">
+        <v>14</v>
+      </c>
+      <c r="S36" s="10">
+        <v>28</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
+        <v>1</v>
+      </c>
+      <c r="X36" s="10">
+        <v>172</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>7020</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="1">
+        <v>11135131</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="16">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L37" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" s="10">
+        <v>14</v>
+      </c>
+      <c r="S37" s="10">
+        <v>28</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1</v>
+      </c>
+      <c r="U37" s="2">
+        <v>1</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1</v>
+      </c>
+      <c r="W37" s="2">
+        <v>1</v>
+      </c>
+      <c r="X37" s="10">
+        <v>172</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>7021</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="1">
+        <v>11136740</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="16">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L38" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R38" s="10">
+        <v>11</v>
+      </c>
+      <c r="S38" s="10">
+        <v>22</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1</v>
+      </c>
+      <c r="U38" s="2">
+        <v>1</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2">
+        <v>1</v>
+      </c>
+      <c r="X38" s="10">
+        <v>104</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>7022</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="1">
+        <v>11137919</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="16">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L39" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="10">
+        <v>8</v>
+      </c>
+      <c r="S39" s="10">
+        <v>16</v>
+      </c>
+      <c r="T39" s="2">
+        <v>1</v>
+      </c>
+      <c r="U39" s="2">
+        <v>1</v>
+      </c>
+      <c r="V39" s="2">
+        <v>1</v>
+      </c>
+      <c r="W39" s="2">
+        <v>1</v>
+      </c>
+      <c r="X39" s="10">
+        <v>54</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>7023</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="16">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L40" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R40" s="10">
+        <v>9</v>
+      </c>
+      <c r="S40" s="10">
+        <v>17</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2">
+        <v>1</v>
+      </c>
+      <c r="X40" s="10">
+        <v>63</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>7024</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="1">
+        <v>11140788</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L41" s="6">
+        <v>360</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R41" s="10">
+        <v>11</v>
+      </c>
+      <c r="S41" s="10">
+        <v>22</v>
+      </c>
+      <c r="T41" s="2">
+        <v>1</v>
+      </c>
+      <c r="U41" s="2">
+        <v>1</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2">
+        <v>1</v>
+      </c>
+      <c r="X41" s="10">
+        <v>104</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>7025</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="16">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L42" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R42" s="10">
+        <v>9</v>
+      </c>
+      <c r="S42" s="10">
+        <v>17</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1</v>
+      </c>
+      <c r="U42" s="2">
+        <v>1</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
+        <v>1</v>
+      </c>
+      <c r="X42" s="10">
+        <v>63</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/AE_run_summary.xlsx
+++ b/AE_run_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E7DFE5-0230-394F-A8D8-BF606CA31671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8581F6B3-C6FE-FC42-B3A4-DD03176D81C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{6FE3EA94-DBAB-4A52-A106-F8314D052350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="204">
   <si>
     <t>case</t>
   </si>
@@ -451,13 +451,209 @@
   </si>
   <si>
     <t>group_go_7025.py</t>
+  </si>
+  <si>
+    <t>right above the hypothesis of 64 cores</t>
+  </si>
+  <si>
+    <t>Determine Nuber of markers one node can run</t>
+  </si>
+  <si>
+    <t>Attempt to do full production run but the collision was not turned on</t>
+  </si>
+  <si>
+    <t>group_go_7028.py</t>
+  </si>
+  <si>
+    <t>test to see if the nmrk is correct: they are correct</t>
+  </si>
+  <si>
+    <t>group_go_7029.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7029.sh</t>
+  </si>
+  <si>
+    <r>
+      <t>right above the hypothesis of 64 cores with mhd off:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> changed the my_fixedstep_gyrodefined from 20 to 10</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>group_go_7030.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7030.sh</t>
+  </si>
+  <si>
+    <t>trying the same run again with more markers: again, changed the my_fixedstep_gyrodefined from 20 to 10</t>
+  </si>
+  <si>
+    <t>group_go_7026.py</t>
+  </si>
+  <si>
+    <t>group_go_7027.py</t>
+  </si>
+  <si>
+    <t>Comparing Stee's 2539 with mine and see what the difference is</t>
+  </si>
+  <si>
+    <t>group_go_7031.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7031.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double the omp numthreds and double the number of markers to do the same run </t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the number of markers to do the same run </t>
+  </si>
+  <si>
+    <t>group_go_7032.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7032.sh</t>
+  </si>
+  <si>
+    <t>group_go_7033.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7033.sh</t>
+  </si>
+  <si>
+    <t>Do not use a parent</t>
+  </si>
+  <si>
+    <t>Can be used as parent but there was bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used as parent with no problem </t>
+  </si>
+  <si>
+    <t>group_go_2539.py</t>
+  </si>
+  <si>
+    <t>goupr_go_7026.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7026.sh</t>
+  </si>
+  <si>
+    <t>identical to 2539</t>
+  </si>
+  <si>
+    <t>group_go_7034.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7034.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the number of markers further to do the same run </t>
+  </si>
+  <si>
+    <t>group_go_7035.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the number of markers even further to do the same run </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 node 504 markers (fully optimized) to thermalization </t>
+  </si>
+  <si>
+    <t>group_go_7036.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7036.sh</t>
+  </si>
+  <si>
+    <t>perlmutter_7035.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the number of markers even even further to do the same run </t>
+  </si>
+  <si>
+    <t>group_go_7037.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stupid </t>
+  </si>
+  <si>
+    <t>perlmutter_7037.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the number of markers even (a little even) further to do the same run </t>
+  </si>
+  <si>
+    <t>group_go_7038.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7038.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the number of markers even (a little even even) further to do the same run </t>
+  </si>
+  <si>
+    <t>group_go_7039.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7039.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the number of markers even ( alittle even even even) further to do the same run </t>
+  </si>
+  <si>
+    <t>group_go_7040.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7040.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the number of markers even ( alittle even even even even) further to do the same run </t>
+  </si>
+  <si>
+    <t>group_go_2541.py</t>
+  </si>
+  <si>
+    <t>group_go_7041.py</t>
+  </si>
+  <si>
+    <t>replicating steve's run with 128 threads</t>
+  </si>
+  <si>
+    <t>group_go_7042.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7042.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the number of markers even ( alittle even even even even even) further to do the same run </t>
+  </si>
+  <si>
+    <t>doing the exact same rune</t>
+  </si>
+  <si>
+    <t>???????????????</t>
+  </si>
+  <si>
+    <t>???????????????????????????? I am done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,8 +676,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +706,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -524,11 +748,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,6 +833,44 @@
     <xf numFmtId="21" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,6 +893,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>185402</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>18541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>652984</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C17BD48-B285-A02A-7609-435E15374C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5061460" y="12477519"/>
+          <a:ext cx="7772400" cy="337930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -893,593 +1241,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BE43D-159D-4D30-A297-AE35C194293D}">
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="137" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="7"/>
-    <col min="10" max="12" width="8.83203125" style="1"/>
-    <col min="13" max="13" width="20.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="33.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="5.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" style="1"/>
-    <col min="25" max="25" width="12" style="1" customWidth="1"/>
-    <col min="26" max="26" width="95.83203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.83203125" style="3"/>
-    <col min="28" max="28" width="11" style="3" customWidth="1"/>
-    <col min="29" max="29" width="57.83203125" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="16.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="7"/>
+    <col min="11" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="33.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="5.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="1"/>
+    <col min="26" max="26" width="12" style="1" customWidth="1"/>
+    <col min="27" max="27" width="95.83203125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" style="3"/>
+    <col min="29" max="29" width="11" style="3" customWidth="1"/>
+    <col min="30" max="30" width="57.83203125" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L2" s="1" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AC3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="F4" s="1" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="14" t="s">
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="14" t="s">
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AD5" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="14" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AD6" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
         <v>2106</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>61963275</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>10</v>
       </c>
-      <c r="I7" s="15">
+      <c r="J7" s="15">
         <v>0.125</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>9000</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="Y7" s="12">
+      <c r="W7" s="2"/>
+      <c r="Z7" s="12">
         <v>10720</v>
       </c>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="14" t="s">
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AD7" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
         <v>2107</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>61964628</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>10</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="15">
         <v>0.125</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.1</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>9000</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y8" s="12">
+      <c r="P8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="Z8" s="12">
         <v>10720</v>
       </c>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="14" t="s">
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="AC8" s="14" t="s">
+      <c r="AD8" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
         <v>2108</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>61979478</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>10</v>
       </c>
-      <c r="I9" s="15">
+      <c r="J9" s="15">
         <v>0.125</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>9000</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Q9" s="2"/>
+      <c r="Z9" s="12">
         <v>10720</v>
       </c>
-      <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
         <v>2109</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>61979479</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>10</v>
       </c>
-      <c r="I10" s="15">
+      <c r="J10" s="15">
         <v>0.125</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.1</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>9000</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Q10" s="2"/>
+      <c r="Z10" s="12">
         <v>10720</v>
       </c>
-      <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AA11" s="3" t="s">
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="2" t="s">
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="21">
         <v>7000</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C14" s="25">
         <v>7001</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>10229215</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>10</v>
       </c>
-      <c r="I14" s="16">
+      <c r="J14" s="16">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>2E-3</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>9000</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="Y14" s="12">
+      <c r="W14" s="2"/>
+      <c r="Z14" s="12">
         <v>10720</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C15" s="25">
         <v>7002</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>10369924</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="16">
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16">
         <v>0.1111111111111111</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>0.3</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>9000</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="Y15" s="13">
+      <c r="W15" s="2"/>
+      <c r="Z15" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C16" s="25">
         <v>7003</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>10457508</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>10</v>
       </c>
-      <c r="I16" s="16">
+      <c r="J16" s="16">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>0.3</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>5000</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="Y16" s="13">
+      <c r="W16" s="2"/>
+      <c r="Z16" s="13">
         <v>10720</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="21">
         <v>7004</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="O17" s="2"/>
+      <c r="J17" s="15"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1487,418 +1848,416 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="2" t="s">
+      <c r="W17" s="2"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C18" s="21">
         <v>7005</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>10784210</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>2</v>
       </c>
-      <c r="I18" s="15">
+      <c r="J18" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>1500</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="2">
+      <c r="S18" s="2">
         <v>50</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <v>100</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U18" s="2">
         <v>10</v>
       </c>
-      <c r="U18" s="2">
-        <v>1</v>
-      </c>
       <c r="V18" s="2">
         <v>1</v>
       </c>
       <c r="W18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
         <v>5</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Y18" s="2">
         <v>45420</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AA18" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C19" s="21">
         <v>7005</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>10828879</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>2</v>
       </c>
-      <c r="I19" s="15">
+      <c r="J19" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>1500</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R19" s="2">
+      <c r="S19" s="2">
         <v>50</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <v>100</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <v>10</v>
       </c>
-      <c r="U19" s="2">
-        <v>1</v>
-      </c>
       <c r="V19" s="2">
         <v>1</v>
       </c>
       <c r="W19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
         <v>5</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <v>45420</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="AA19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C20" s="21">
         <v>7006</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="I20" s="15">
+      <c r="J20" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>1500</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R20" s="10">
+      <c r="S20" s="10">
         <v>68</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="10">
         <v>136</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <v>10</v>
       </c>
-      <c r="U20" s="2">
-        <v>1</v>
-      </c>
       <c r="V20" s="2">
         <v>1</v>
       </c>
-      <c r="W20" s="10">
+      <c r="W20" s="2">
         <v>1</v>
       </c>
       <c r="X20" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="10">
         <v>44680</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C21" s="21">
         <v>7007</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>10829787</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>2</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J21" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>1500</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="2">
+      <c r="S21" s="2">
         <v>50</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <v>100</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U21" s="2">
         <v>10</v>
       </c>
-      <c r="U21" s="2">
-        <v>1</v>
-      </c>
       <c r="V21" s="2">
         <v>1</v>
       </c>
       <c r="W21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
         <v>5</v>
       </c>
-      <c r="X21" s="2">
+      <c r="Y21" s="2">
         <v>45420</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="AA21" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C22" s="21">
         <v>7007</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>10834100</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
         <v>2</v>
       </c>
-      <c r="I22" s="16">
+      <c r="J22" s="16">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>1500</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R22" s="2">
+      <c r="S22" s="2">
         <v>50</v>
       </c>
-      <c r="S22" s="2">
+      <c r="T22" s="2">
         <v>100</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="2">
         <v>10</v>
       </c>
-      <c r="U22" s="2">
-        <v>1</v>
-      </c>
       <c r="V22" s="2">
         <v>1</v>
       </c>
       <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
         <v>5</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
         <v>45420</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="AA22" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C23" s="21">
         <v>7008</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>10835612</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I23" s="7">
         <v>2</v>
       </c>
-      <c r="I23" s="16">
+      <c r="J23" s="16">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>1500</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R23" s="2">
+      <c r="S23" s="2">
         <v>68</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23" s="2">
         <v>136</v>
       </c>
-      <c r="T23" s="2">
+      <c r="U23" s="2">
         <v>10</v>
       </c>
-      <c r="U23" s="2">
-        <v>1</v>
-      </c>
       <c r="V23" s="2">
         <v>1</v>
       </c>
@@ -1906,70 +2265,70 @@
         <v>1</v>
       </c>
       <c r="X23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="2">
         <v>44680</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="AA23" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C24" s="21">
         <v>7009</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>10835744</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="7">
+      <c r="I24" s="7">
         <v>2</v>
       </c>
-      <c r="I24" s="15">
+      <c r="J24" s="15">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>1500</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R24" s="2">
+      <c r="S24" s="2">
         <v>68</v>
       </c>
-      <c r="S24" s="2">
+      <c r="T24" s="2">
         <v>136</v>
       </c>
-      <c r="T24" s="2">
+      <c r="U24" s="2">
         <v>10</v>
       </c>
-      <c r="U24" s="2">
-        <v>1</v>
-      </c>
       <c r="V24" s="2">
         <v>1</v>
       </c>
@@ -1977,706 +2336,720 @@
         <v>1</v>
       </c>
       <c r="X24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="2">
         <v>44680</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C25" s="21">
         <v>7010</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>11018346</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I25" s="7">
         <v>2</v>
       </c>
-      <c r="I25" s="15">
+      <c r="J25" s="15">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>1500</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R25" s="2">
+      <c r="S25" s="2">
         <v>50</v>
       </c>
-      <c r="S25" s="2">
+      <c r="T25" s="2">
         <v>100</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="2">
         <v>10</v>
       </c>
-      <c r="U25" s="2">
-        <v>1</v>
-      </c>
       <c r="V25" s="2">
         <v>1</v>
       </c>
       <c r="W25" s="2">
+        <v>1</v>
+      </c>
+      <c r="X25" s="2">
         <v>5</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Y25" s="2">
         <v>45420</v>
       </c>
-      <c r="Z25" s="2" t="s">
+      <c r="AA25" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B26" s="1">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C26" s="21">
         <v>7011</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>11020653</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="7">
+      <c r="I26" s="7">
         <v>2</v>
       </c>
-      <c r="I26" s="15">
+      <c r="J26" s="15">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>1500</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="O26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R26" s="2">
+      <c r="S26" s="2">
         <v>50</v>
       </c>
-      <c r="S26" s="2">
+      <c r="T26" s="2">
         <v>100</v>
       </c>
-      <c r="T26" s="2">
+      <c r="U26" s="2">
         <v>10</v>
       </c>
-      <c r="U26" s="2">
-        <v>1</v>
-      </c>
       <c r="V26" s="2">
         <v>1</v>
       </c>
       <c r="W26" s="2">
+        <v>1</v>
+      </c>
+      <c r="X26" s="2">
         <v>5</v>
       </c>
-      <c r="X26" s="2">
+      <c r="Y26" s="2">
         <v>45420</v>
       </c>
-      <c r="Z26" s="2" t="s">
+      <c r="AA26" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B27" s="1">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C27" s="21">
         <v>7012</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>11022246</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>4</v>
       </c>
-      <c r="I27" s="16">
+      <c r="J27" s="16">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>1500</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="O27" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R27" s="2">
+      <c r="S27" s="2">
         <v>50</v>
       </c>
-      <c r="S27" s="2">
+      <c r="T27" s="2">
         <v>100</v>
       </c>
-      <c r="T27" s="2">
+      <c r="U27" s="2">
         <v>10</v>
       </c>
-      <c r="U27" s="2">
-        <v>1</v>
-      </c>
       <c r="V27" s="2">
         <v>1</v>
       </c>
       <c r="W27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2">
         <v>5</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Y27" s="2">
         <v>45420</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="AA27" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B28" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="21">
         <v>7013</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>11034682</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="8">
         <v>10</v>
       </c>
-      <c r="I28" s="16">
+      <c r="J28" s="16">
         <v>0.125</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>0.3</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <v>5000</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R28" s="2">
-        <v>30</v>
-      </c>
       <c r="S28" s="2">
+        <v>30</v>
+      </c>
+      <c r="T28" s="2">
         <v>60</v>
       </c>
-      <c r="T28" s="2">
+      <c r="U28" s="2">
         <v>7</v>
       </c>
-      <c r="U28" s="2">
-        <v>1</v>
-      </c>
       <c r="V28" s="2">
         <v>1</v>
       </c>
       <c r="W28" s="2">
+        <v>1</v>
+      </c>
+      <c r="X28" s="2">
         <v>5</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Y28" s="2">
         <v>11172</v>
       </c>
-      <c r="Z28" s="2" t="s">
+      <c r="AA28" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B29" s="19"/>
+      <c r="C29" s="21">
         <v>7014</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>11064514</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I29" s="7">
         <v>10</v>
       </c>
-      <c r="I29" s="16">
+      <c r="J29" s="16">
         <v>0.16666666666666666</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>0.3</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <v>9000</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R29" s="10">
+      <c r="S29" s="10">
         <v>25</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T29" s="10">
         <v>50</v>
       </c>
-      <c r="T29" s="2">
+      <c r="U29" s="2">
         <v>7</v>
       </c>
-      <c r="U29" s="2">
-        <v>1</v>
-      </c>
       <c r="V29" s="2">
         <v>1</v>
       </c>
       <c r="W29" s="2">
+        <v>1</v>
+      </c>
+      <c r="X29" s="2">
         <v>5</v>
       </c>
-      <c r="X29" s="10">
+      <c r="Y29" s="10">
         <v>7756</v>
       </c>
-      <c r="Z29" s="2" t="s">
+      <c r="AA29" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B30" s="1">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+      <c r="C30" s="21">
         <v>7015</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>11074267</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I30" s="7">
         <v>10</v>
       </c>
-      <c r="I30" s="16">
+      <c r="J30" s="16">
         <v>0.20833333333333334</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>0.3</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <v>9000</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="10">
+      <c r="S30" s="10">
         <v>20</v>
       </c>
-      <c r="S30" s="10">
+      <c r="T30" s="10">
         <v>40</v>
       </c>
-      <c r="T30" s="2">
+      <c r="U30" s="2">
         <v>7</v>
       </c>
-      <c r="U30" s="2">
-        <v>1</v>
-      </c>
       <c r="V30" s="2">
         <v>1</v>
       </c>
       <c r="W30" s="2">
+        <v>1</v>
+      </c>
+      <c r="X30" s="2">
         <v>5</v>
       </c>
-      <c r="X30" s="10">
+      <c r="Y30" s="10">
         <v>4858</v>
       </c>
-      <c r="Z30" s="2" t="s">
+      <c r="AA30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B31" s="1">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="C31" s="21">
         <v>7015</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>11081832</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="7">
+      <c r="I31" s="7">
         <v>10</v>
       </c>
-      <c r="I31" s="16">
+      <c r="J31" s="16">
         <v>0.20833333333333334</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>0.3</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <v>9000</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R31" s="10">
+      <c r="S31" s="10">
         <v>20</v>
       </c>
-      <c r="S31" s="10">
+      <c r="T31" s="10">
         <v>40</v>
       </c>
-      <c r="T31" s="2">
+      <c r="U31" s="2">
         <v>7</v>
       </c>
-      <c r="U31" s="2">
-        <v>1</v>
-      </c>
       <c r="V31" s="2">
         <v>1</v>
       </c>
       <c r="W31" s="2">
+        <v>1</v>
+      </c>
+      <c r="X31" s="2">
         <v>5</v>
       </c>
-      <c r="X31" s="10">
+      <c r="Y31" s="10">
         <v>4858</v>
       </c>
-      <c r="Z31" s="2" t="s">
+      <c r="AA31" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="19"/>
+      <c r="C32" s="21">
         <v>7016</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>11091756</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="7">
+      <c r="I32" s="7">
         <v>10</v>
       </c>
-      <c r="I32" s="16">
+      <c r="J32" s="16">
         <v>0.125</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>0.8</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <v>20000</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R32" s="10">
+      <c r="S32" s="10">
         <v>8</v>
       </c>
-      <c r="S32" s="10">
+      <c r="T32" s="10">
         <v>16</v>
       </c>
-      <c r="T32" s="2">
+      <c r="U32" s="2">
         <v>3</v>
       </c>
-      <c r="U32" s="2">
-        <v>1</v>
-      </c>
       <c r="V32" s="2">
         <v>1</v>
       </c>
       <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
         <v>5</v>
       </c>
-      <c r="X32" s="10">
+      <c r="Y32" s="10">
         <v>294</v>
       </c>
-      <c r="Z32" s="2" t="s">
+      <c r="AA32" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B33" s="1">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21">
         <v>7017</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>11119404</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I33" s="7">
         <v>10</v>
       </c>
-      <c r="I33" s="16">
+      <c r="J33" s="16">
         <v>0.125</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L33" s="1">
         <v>0.8</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <v>20000</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R33" s="10">
+      <c r="S33" s="10">
         <v>8</v>
       </c>
-      <c r="S33" s="10">
+      <c r="T33" s="10">
         <v>16</v>
       </c>
-      <c r="T33" s="2">
+      <c r="U33" s="2">
         <v>3</v>
       </c>
-      <c r="U33" s="2">
-        <v>1</v>
-      </c>
       <c r="V33" s="2">
         <v>1</v>
       </c>
       <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
         <v>5</v>
       </c>
-      <c r="X33" s="10">
+      <c r="Y33" s="10">
         <v>294</v>
       </c>
-      <c r="Z33" s="2" t="s">
+      <c r="AA33" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B34" s="1">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B34" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="22">
         <v>7018</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>11133882</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="16">
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="16">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>0.8</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <v>20000</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R34" s="10">
+      <c r="S34" s="10">
         <v>14</v>
       </c>
-      <c r="S34" s="10">
+      <c r="T34" s="10">
         <v>28</v>
       </c>
-      <c r="T34" s="2">
-        <v>1</v>
-      </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
@@ -2686,68 +3059,69 @@
       <c r="W34" s="2">
         <v>1</v>
       </c>
-      <c r="X34" s="10">
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="10">
         <v>172</v>
       </c>
-      <c r="Z34" s="2" t="s">
+      <c r="AA34" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B35" s="1">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B35" s="19"/>
+      <c r="C35" s="22">
         <v>7019</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>11134397</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="I35" s="16">
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="16">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <v>0.01</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <v>5000</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="R35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R35" s="10">
+      <c r="S35" s="10">
         <v>14</v>
       </c>
-      <c r="S35" s="10">
+      <c r="T35" s="10">
         <v>28</v>
       </c>
-      <c r="T35" s="2">
-        <v>1</v>
-      </c>
       <c r="U35" s="2">
         <v>1</v>
       </c>
@@ -2757,68 +3131,69 @@
       <c r="W35" s="2">
         <v>1</v>
       </c>
-      <c r="X35" s="10">
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="10">
         <v>172</v>
       </c>
-      <c r="Z35" s="2" t="s">
+      <c r="AA35" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B36" s="1">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B36" s="19"/>
+      <c r="C36" s="22">
         <v>7019</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>11134607</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36" s="16">
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="16">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <v>0.01</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <v>5000</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R36" s="10">
+      <c r="S36" s="10">
         <v>14</v>
       </c>
-      <c r="S36" s="10">
+      <c r="T36" s="10">
         <v>28</v>
       </c>
-      <c r="T36" s="2">
-        <v>1</v>
-      </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
@@ -2828,68 +3203,69 @@
       <c r="W36" s="2">
         <v>1</v>
       </c>
-      <c r="X36" s="10">
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="10">
         <v>172</v>
       </c>
-      <c r="Z36" s="2" t="s">
+      <c r="AA36" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B37" s="1">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B37" s="19"/>
+      <c r="C37" s="22">
         <v>7020</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>11135131</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="16">
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="16">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <v>0.01</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <v>5000</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R37" s="10">
+      <c r="S37" s="10">
         <v>14</v>
       </c>
-      <c r="S37" s="10">
+      <c r="T37" s="10">
         <v>28</v>
       </c>
-      <c r="T37" s="2">
-        <v>1</v>
-      </c>
       <c r="U37" s="2">
         <v>1</v>
       </c>
@@ -2899,68 +3275,69 @@
       <c r="W37" s="2">
         <v>1</v>
       </c>
-      <c r="X37" s="10">
+      <c r="X37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="10">
         <v>172</v>
       </c>
-      <c r="Z37" s="2" t="s">
+      <c r="AA37" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B38" s="1">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B38" s="19"/>
+      <c r="C38" s="22">
         <v>7021</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>11136740</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="16">
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="16">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <v>0.01</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <v>5000</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="R38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="10">
+      <c r="S38" s="10">
         <v>11</v>
       </c>
-      <c r="S38" s="10">
+      <c r="T38" s="10">
         <v>22</v>
       </c>
-      <c r="T38" s="2">
-        <v>1</v>
-      </c>
       <c r="U38" s="2">
         <v>1</v>
       </c>
@@ -2970,68 +3347,69 @@
       <c r="W38" s="2">
         <v>1</v>
       </c>
-      <c r="X38" s="10">
+      <c r="X38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="10">
         <v>104</v>
       </c>
-      <c r="Z38" s="2" t="s">
+      <c r="AA38" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B39" s="1">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B39" s="19"/>
+      <c r="C39" s="25">
         <v>7022</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>11137919</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="I39" s="16">
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="16">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K39" s="6">
+      <c r="L39" s="6">
         <v>0.01</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <v>5000</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R39" s="10">
+      <c r="S39" s="10">
         <v>8</v>
       </c>
-      <c r="S39" s="10">
+      <c r="T39" s="10">
         <v>16</v>
       </c>
-      <c r="T39" s="2">
-        <v>1</v>
-      </c>
       <c r="U39" s="2">
         <v>1</v>
       </c>
@@ -3041,62 +3419,69 @@
       <c r="W39" s="2">
         <v>1</v>
       </c>
-      <c r="X39" s="10">
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="10">
         <v>54</v>
       </c>
-      <c r="Z39" s="2" t="s">
+      <c r="AA39" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B40" s="1">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B40" s="19"/>
+      <c r="C40" s="25">
         <v>7023</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="1">
+        <v>11142272</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H40" s="7">
-        <v>1</v>
-      </c>
-      <c r="I40" s="16">
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="16">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K40" s="6">
+      <c r="L40" s="6">
         <v>0.01</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <v>5000</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="R40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R40" s="10">
+      <c r="S40" s="10">
         <v>9</v>
       </c>
-      <c r="S40" s="10">
+      <c r="T40" s="10">
         <v>17</v>
       </c>
-      <c r="T40" s="2">
-        <v>1</v>
-      </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
@@ -3106,68 +3491,69 @@
       <c r="W40" s="2">
         <v>1</v>
       </c>
-      <c r="X40" s="10">
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="10">
         <v>63</v>
       </c>
-      <c r="Z40" s="2" t="s">
+      <c r="AA40" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B41" s="1">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B41" s="19"/>
+      <c r="C41" s="22">
         <v>7024</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>11140788</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H41" s="7">
-        <v>1</v>
-      </c>
-      <c r="I41" s="16">
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="16">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K41" s="6">
+      <c r="L41" s="6">
         <v>0.01</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <v>360</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O41" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="R41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R41" s="10">
+      <c r="S41" s="10">
         <v>11</v>
       </c>
-      <c r="S41" s="10">
+      <c r="T41" s="10">
         <v>22</v>
       </c>
-      <c r="T41" s="2">
-        <v>1</v>
-      </c>
       <c r="U41" s="2">
         <v>1</v>
       </c>
@@ -3177,61 +3563,68 @@
       <c r="W41" s="2">
         <v>1</v>
       </c>
-      <c r="X41" s="10">
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="10">
         <v>104</v>
       </c>
-      <c r="Z41" s="2" t="s">
+      <c r="AA41" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B42" s="1">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B42" s="20"/>
+      <c r="C42" s="22">
         <v>7025</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="1">
+        <v>11150661</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H42" s="7">
-        <v>1</v>
-      </c>
-      <c r="I42" s="16">
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="16">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <v>0.01</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <v>5000</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R42" s="10">
+      <c r="S42" s="10">
         <v>9</v>
       </c>
-      <c r="S42" s="10">
-        <v>17</v>
-      </c>
-      <c r="T42" s="2">
-        <v>1</v>
+      <c r="T42" s="10">
+        <v>18</v>
       </c>
       <c r="U42" s="2">
         <v>1</v>
@@ -3242,14 +3635,1367 @@
       <c r="W42" s="2">
         <v>1</v>
       </c>
-      <c r="X42" s="10">
-        <v>63</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>137</v>
+      <c r="X42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>66</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B43" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="25">
+        <v>7026</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="1">
+        <v>11192568</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B44" s="19"/>
+      <c r="C44" s="21">
+        <v>7027</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B45" s="19"/>
+      <c r="C45" s="21">
+        <v>7028</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
+      <c r="J45" s="16">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="M45" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S45" s="10">
+        <v>11</v>
+      </c>
+      <c r="T45" s="10">
+        <v>22</v>
+      </c>
+      <c r="U45" s="2">
+        <v>1</v>
+      </c>
+      <c r="V45" s="2">
+        <v>1</v>
+      </c>
+      <c r="W45" s="2">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>104</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="22">
+        <v>7029</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="1">
+        <v>11196599</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1</v>
+      </c>
+      <c r="J46" s="16">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="M46" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S46" s="10">
+        <v>9</v>
+      </c>
+      <c r="T46" s="10">
+        <v>18</v>
+      </c>
+      <c r="U46" s="2">
+        <v>1</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1</v>
+      </c>
+      <c r="W46" s="2">
+        <v>1</v>
+      </c>
+      <c r="X46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>66</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD46" s="27"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="25">
+        <v>7029</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="1">
+        <v>11198205</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1</v>
+      </c>
+      <c r="J47" s="16">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="M47" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S47" s="10">
+        <v>9</v>
+      </c>
+      <c r="T47" s="10">
+        <v>18</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>66</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B48" s="20"/>
+      <c r="C48" s="25">
+        <v>7030</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="1">
+        <v>11199260</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M48" s="29">
+        <v>360</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S48" s="10">
+        <v>11</v>
+      </c>
+      <c r="T48" s="10">
+        <v>22</v>
+      </c>
+      <c r="U48" s="2">
+        <v>1</v>
+      </c>
+      <c r="V48" s="2">
+        <v>1</v>
+      </c>
+      <c r="W48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>104</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C49" s="25">
+        <v>7031</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="1">
+        <v>11206307</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+      <c r="J49" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M49" s="29">
+        <v>360</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S49" s="10">
+        <v>13</v>
+      </c>
+      <c r="T49" s="10">
+        <v>26</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
+      <c r="W49" s="2">
+        <v>1</v>
+      </c>
+      <c r="X49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>148</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <v>7032</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="1">
+        <v>11206752</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M50" s="29">
+        <v>360</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S50" s="10">
+        <v>15</v>
+      </c>
+      <c r="T50" s="10">
+        <v>30</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1</v>
+      </c>
+      <c r="W50" s="2">
+        <v>1</v>
+      </c>
+      <c r="X50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>200</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <v>7033</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="1">
+        <v>11206924</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1</v>
+      </c>
+      <c r="J51" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M51" s="29">
+        <v>360</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S51" s="10">
+        <v>15</v>
+      </c>
+      <c r="T51" s="10">
+        <v>30</v>
+      </c>
+      <c r="U51" s="2">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
+      <c r="W51" s="2">
+        <v>1</v>
+      </c>
+      <c r="X51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>200</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <v>7033</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="1">
+        <v>11208170</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1</v>
+      </c>
+      <c r="J52" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M52" s="29">
+        <v>360</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S52" s="10">
+        <v>15</v>
+      </c>
+      <c r="T52" s="10">
+        <v>30</v>
+      </c>
+      <c r="U52" s="2">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1</v>
+      </c>
+      <c r="W52" s="2">
+        <v>1</v>
+      </c>
+      <c r="X52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>200</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>7034</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="1">
+        <v>11210255</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1</v>
+      </c>
+      <c r="J53" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M53" s="29">
+        <v>360</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S53" s="10">
+        <v>18</v>
+      </c>
+      <c r="T53" s="10">
+        <v>36</v>
+      </c>
+      <c r="U53" s="2">
+        <v>1</v>
+      </c>
+      <c r="V53" s="2">
+        <v>1</v>
+      </c>
+      <c r="W53" s="2">
+        <v>1</v>
+      </c>
+      <c r="X53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>290</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>7035</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" s="1">
+        <v>11212813</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1</v>
+      </c>
+      <c r="J54" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M54" s="29">
+        <v>360</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S54" s="10">
+        <v>22</v>
+      </c>
+      <c r="T54" s="10">
+        <v>44</v>
+      </c>
+      <c r="U54" s="2">
+        <v>1</v>
+      </c>
+      <c r="V54" s="2">
+        <v>1</v>
+      </c>
+      <c r="W54" s="2">
+        <v>1</v>
+      </c>
+      <c r="X54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>442</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>7035</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G55" s="1">
+        <v>11217495</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1</v>
+      </c>
+      <c r="J55" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M55" s="29">
+        <v>360</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S55" s="10">
+        <v>22</v>
+      </c>
+      <c r="T55" s="10">
+        <v>44</v>
+      </c>
+      <c r="U55" s="2">
+        <v>1</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2">
+        <v>1</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>442</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <v>7036</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="1">
+        <v>11218478</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1</v>
+      </c>
+      <c r="J56" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M56" s="29">
+        <v>360</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S56" s="10">
+        <v>30</v>
+      </c>
+      <c r="T56" s="10">
+        <v>60</v>
+      </c>
+      <c r="U56" s="2">
+        <v>1</v>
+      </c>
+      <c r="V56" s="2">
+        <v>1</v>
+      </c>
+      <c r="W56" s="2">
+        <v>1</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>836</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>7037</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="1">
+        <v>11225004</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1</v>
+      </c>
+      <c r="J57" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M57" s="29">
+        <v>360</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S57" s="10">
+        <v>23</v>
+      </c>
+      <c r="T57" s="10">
+        <v>46</v>
+      </c>
+      <c r="U57" s="2">
+        <v>1</v>
+      </c>
+      <c r="V57" s="2">
+        <v>1</v>
+      </c>
+      <c r="W57" s="2">
+        <v>1</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>490</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C58" s="1">
+        <v>7037</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="1">
+        <v>11227740</v>
+      </c>
+      <c r="J58" s="30"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="AB58" s="3">
+        <v>122818.112959623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C59" s="1">
+        <v>7038</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" s="1">
+        <v>11229078</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I59" s="7">
+        <v>1</v>
+      </c>
+      <c r="J59" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M59" s="29">
+        <v>360</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S59" s="10">
+        <v>23</v>
+      </c>
+      <c r="T59" s="10">
+        <v>47</v>
+      </c>
+      <c r="U59" s="2">
+        <v>1</v>
+      </c>
+      <c r="V59" s="2">
+        <v>1</v>
+      </c>
+      <c r="W59" s="2">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>505</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>124139.459569215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C60" s="1">
+        <v>7039</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60" s="1">
+        <v>11229780</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1</v>
+      </c>
+      <c r="J60" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M60" s="29">
+        <v>360</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S60" s="10">
+        <v>24</v>
+      </c>
+      <c r="T60" s="10">
+        <v>48</v>
+      </c>
+      <c r="U60" s="2">
+        <v>1</v>
+      </c>
+      <c r="V60" s="2">
+        <v>1</v>
+      </c>
+      <c r="W60" s="2">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>538</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>138585.454103469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C61" s="1">
+        <v>7040</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" s="1">
+        <v>11229821</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1</v>
+      </c>
+      <c r="J61" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M61" s="29">
+        <v>360</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S61" s="10">
+        <v>25</v>
+      </c>
+      <c r="T61" s="10">
+        <v>50</v>
+      </c>
+      <c r="U61" s="2">
+        <v>1</v>
+      </c>
+      <c r="V61" s="2">
+        <v>1</v>
+      </c>
+      <c r="W61" s="2">
+        <v>1</v>
+      </c>
+      <c r="X61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>584</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>153226.145851373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7041</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G62" s="1">
+        <v>11230287</v>
+      </c>
+      <c r="J62" s="30"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="AA62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="1">
+        <v>7042</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="1">
+        <v>11230803</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1</v>
+      </c>
+      <c r="J63" s="28">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="M63" s="29">
+        <v>360</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S63" s="10">
+        <v>27</v>
+      </c>
+      <c r="T63" s="10">
+        <v>54</v>
+      </c>
+      <c r="U63" s="2">
+        <v>1</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1</v>
+      </c>
+      <c r="W63" s="2">
+        <v>1</v>
+      </c>
+      <c r="X63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="10">
+        <v>686</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2537</v>
+      </c>
+      <c r="G64" s="1">
+        <v>11231067</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B43:B48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/AE_run_summary.xlsx
+++ b/AE_run_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB6154D-93EA-1046-9300-17438D15C660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE31189-7F76-E346-B578-47D75EC5FC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{77BEA265-74CB-F24A-890C-09C5DFE2D3CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="322">
   <si>
     <t>case</t>
   </si>
@@ -992,6 +992,15 @@
   </si>
   <si>
     <t>Rerun with correct max cputime; also with my_rhomax set to 0.999</t>
+  </si>
+  <si>
+    <t>group_go_7094.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7094.sh</t>
+  </si>
+  <si>
+    <t>First full run with center weighted = 1</t>
   </si>
 </sst>
 </file>
@@ -1774,13 +1783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BE43D-159D-4D30-A297-AE35C194293D}">
-  <dimension ref="A1:AS150"/>
+  <dimension ref="A1:AS151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H152" sqref="H152"/>
+      <selection pane="bottomRight" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9260,6 +9269,9 @@
       <c r="D150" s="1">
         <v>11490370</v>
       </c>
+      <c r="E150" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F150" s="14">
         <v>8.4224537037037028E-2</v>
       </c>
@@ -9321,6 +9333,87 @@
       <c r="AK150" s="14"/>
       <c r="AR150" s="71"/>
       <c r="AS150" s="72"/>
+    </row>
+    <row r="151" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="C151" s="1">
+        <v>7094</v>
+      </c>
+      <c r="D151" s="1">
+        <v>11559380</v>
+      </c>
+      <c r="F151" s="14"/>
+      <c r="H151" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K151" s="6">
+        <v>4</v>
+      </c>
+      <c r="L151" s="6">
+        <v>8</v>
+      </c>
+      <c r="M151" s="6">
+        <v>128</v>
+      </c>
+      <c r="N151" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="O151" s="6">
+        <v>512</v>
+      </c>
+      <c r="P151" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W151" s="1">
+        <v>28</v>
+      </c>
+      <c r="X151" s="1">
+        <v>55</v>
+      </c>
+      <c r="Y151" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC151" s="20">
+        <v>5040</v>
+      </c>
+      <c r="AE151" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK151" s="14"/>
+      <c r="AR151" s="71"/>
+      <c r="AS151" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="134">

--- a/AE_run_summary.xlsx
+++ b/AE_run_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE31189-7F76-E346-B578-47D75EC5FC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D0CC1E-CD7D-924C-A8E9-A4C050DF33C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{77BEA265-74CB-F24A-890C-09C5DFE2D3CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="333">
   <si>
     <t>case</t>
   </si>
@@ -1002,12 +1002,45 @@
   <si>
     <t>First full run with center weighted = 1</t>
   </si>
+  <si>
+    <t>group_go_7095.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7095.sh</t>
+  </si>
+  <si>
+    <t>Rerun with correct weight</t>
+  </si>
+  <si>
+    <t>group_go_7096.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7096.sh</t>
+  </si>
+  <si>
+    <t>First full run with center weighted = 6</t>
+  </si>
+  <si>
+    <t>group_go_7097.py</t>
+  </si>
+  <si>
+    <t>group_go_7098.py</t>
+  </si>
+  <si>
+    <t>group_go_2367.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7099.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rerun with longer time </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,6 +1072,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1223,7 +1263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1304,6 +1344,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1311,6 +1372,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,23 +1400,35 @@
     <xf numFmtId="21" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1378,15 +1469,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,65 +1484,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1783,13 +1817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BE43D-159D-4D30-A297-AE35C194293D}">
-  <dimension ref="A1:AS151"/>
+  <dimension ref="A1:AR156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D151" sqref="D151"/>
+      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1799,8 +1833,7 @@
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="8.83203125" style="73"/>
+    <col min="6" max="7" width="8.83203125" style="1"/>
     <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="1" customWidth="1"/>
@@ -1845,20 +1878,20 @@
       <c r="Q2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="42" t="s">
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="44"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="61"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -1873,7 +1906,7 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="1" t="s">
         <v>315</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -3145,7 +3178,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="56" t="s">
         <v>143</v>
       </c>
       <c r="C28" s="4">
@@ -3222,7 +3255,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B29" s="40"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="4">
         <v>7014</v>
       </c>
@@ -3295,7 +3328,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B30" s="40"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="4">
         <v>7015</v>
       </c>
@@ -3368,7 +3401,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="40"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="4">
         <v>7015</v>
       </c>
@@ -3444,7 +3477,7 @@
       <c r="A32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="4">
         <v>7016</v>
       </c>
@@ -3517,7 +3550,7 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="41"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="4">
         <v>7017</v>
       </c>
@@ -3593,7 +3626,7 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="56" t="s">
         <v>142</v>
       </c>
       <c r="C34" s="9">
@@ -3668,7 +3701,7 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B35" s="40"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="9">
         <v>7019</v>
       </c>
@@ -3741,7 +3774,7 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B36" s="40"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="9">
         <v>7019</v>
       </c>
@@ -3814,7 +3847,7 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B37" s="40"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="9">
         <v>7020</v>
       </c>
@@ -3887,7 +3920,7 @@
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B38" s="40"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="9">
         <v>7021</v>
       </c>
@@ -3960,7 +3993,7 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B39" s="40"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="10">
         <v>7022</v>
       </c>
@@ -4033,7 +4066,7 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B40" s="40"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="10">
         <v>7023</v>
       </c>
@@ -4106,7 +4139,7 @@
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B41" s="40"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="9">
         <v>7024</v>
       </c>
@@ -4179,7 +4212,7 @@
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B42" s="41"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="9">
         <v>7025</v>
       </c>
@@ -4252,7 +4285,7 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="56" t="s">
         <v>155</v>
       </c>
       <c r="C43" s="10">
@@ -4278,7 +4311,7 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B44" s="40"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="4">
         <v>7027</v>
       </c>
@@ -4296,7 +4329,7 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B45" s="40"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="4">
         <v>7028</v>
       </c>
@@ -4366,7 +4399,7 @@
       <c r="A46" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="40"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="9">
         <v>7029</v>
       </c>
@@ -4442,7 +4475,7 @@
       <c r="A47" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="40"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="10">
         <v>7029</v>
       </c>
@@ -4515,7 +4548,7 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B48" s="41"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="10">
         <v>7030</v>
       </c>
@@ -5591,7 +5624,7 @@
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="34" t="s">
         <v>292</v>
       </c>
       <c r="C64" s="15">
@@ -5608,7 +5641,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B65" s="28"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="15">
         <v>2537</v>
       </c>
@@ -5623,7 +5656,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B66" s="28"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="15">
         <v>2540</v>
       </c>
@@ -5638,7 +5671,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B67" s="29"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="15">
         <v>2544</v>
       </c>
@@ -5659,36 +5692,36 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="24">
+      <c r="C68" s="30">
         <v>7043</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="30">
         <v>11239990</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="74"/>
-      <c r="H68" s="24" t="s">
+      <c r="G68" s="27"/>
+      <c r="H68" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="J68" s="24" t="s">
+      <c r="J68" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="K68" s="36">
-        <v>1</v>
-      </c>
-      <c r="N68" s="30">
+      <c r="K68" s="32">
+        <v>1</v>
+      </c>
+      <c r="N68" s="43">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="O68" s="7"/>
-      <c r="P68" s="24">
+      <c r="P68" s="30">
         <v>0.01</v>
       </c>
-      <c r="Q68" s="24">
+      <c r="Q68" s="30">
         <v>360</v>
       </c>
       <c r="R68" s="1" t="s">
@@ -5727,7 +5760,7 @@
       <c r="AC68" s="5">
         <v>736</v>
       </c>
-      <c r="AE68" s="45" t="s">
+      <c r="AE68" s="62" t="s">
         <v>211</v>
       </c>
       <c r="AH68" s="1">
@@ -5735,18 +5768,18 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="38"/>
-      <c r="N69" s="32"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="AE69" s="46"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="33"/>
+      <c r="N69" s="45"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="AE69" s="63"/>
       <c r="AF69" s="1">
         <v>187870</v>
       </c>
@@ -5755,13 +5788,13 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C70" s="24">
+      <c r="C70" s="30">
         <v>7044</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="30">
         <v>11241702</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="30" t="s">
         <v>34</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -5770,17 +5803,17 @@
       <c r="I70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J70" s="24" t="s">
+      <c r="J70" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="K70" s="36">
-        <v>1</v>
-      </c>
-      <c r="N70" s="55">
+      <c r="K70" s="32">
+        <v>1</v>
+      </c>
+      <c r="N70" s="69">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="O70" s="11"/>
-      <c r="P70" s="24">
+      <c r="P70" s="30">
         <v>0.01</v>
       </c>
       <c r="Q70" s="1">
@@ -5822,17 +5855,17 @@
       <c r="AC70" s="5">
         <v>736</v>
       </c>
-      <c r="AE70" s="46"/>
+      <c r="AE70" s="63"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="38"/>
-      <c r="N71" s="56"/>
-      <c r="P71" s="26"/>
-      <c r="AE71" s="47"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="33"/>
+      <c r="N71" s="70"/>
+      <c r="P71" s="31"/>
+      <c r="AE71" s="64"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C72" s="1">
@@ -6087,10 +6120,10 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="52">
+      <c r="C77" s="47">
         <v>7042</v>
       </c>
       <c r="D77" s="1">
@@ -6104,8 +6137,8 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B78" s="40"/>
-      <c r="C78" s="53"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="48"/>
       <c r="D78" s="1">
         <v>11245536</v>
       </c>
@@ -6117,8 +6150,8 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B79" s="41"/>
-      <c r="C79" s="54"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="1">
         <v>11245555</v>
       </c>
@@ -6202,10 +6235,10 @@
       <c r="A81" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="49">
+      <c r="C81" s="66">
         <v>7055</v>
       </c>
       <c r="D81" s="1">
@@ -6214,14 +6247,14 @@
       <c r="E81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G81" s="74"/>
-      <c r="H81" s="52" t="s">
+      <c r="G81" s="27"/>
+      <c r="H81" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="I81" s="52" t="s">
+      <c r="I81" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="J81" s="52" t="s">
+      <c r="J81" s="47" t="s">
         <v>228</v>
       </c>
       <c r="K81" s="6">
@@ -6278,60 +6311,60 @@
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B82" s="40"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="67"/>
       <c r="D82" s="1">
         <v>11247390</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G82" s="76"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B83" s="40"/>
-      <c r="C83" s="50"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="67"/>
       <c r="D83" s="1">
         <v>11247392</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G83" s="76"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B84" s="40"/>
-      <c r="C84" s="50"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="1">
         <v>11247395</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G84" s="76"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B85" s="41"/>
-      <c r="C85" s="51"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="68"/>
       <c r="D85" s="1">
         <v>11247398</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G85" s="75"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C86" s="15">
@@ -6443,14 +6476,14 @@
       <c r="E89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G89" s="74"/>
-      <c r="H89" s="24" t="s">
+      <c r="G89" s="27"/>
+      <c r="H89" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I89" s="24" t="s">
+      <c r="I89" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="J89" s="24" t="s">
+      <c r="J89" s="30" t="s">
         <v>191</v>
       </c>
       <c r="K89" s="6">
@@ -6513,10 +6546,10 @@
       <c r="E90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G90" s="76"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D91" s="1">
@@ -6525,87 +6558,87 @@
       <c r="E91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G91" s="75"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="57">
+      <c r="C92" s="71">
         <v>7057</v>
       </c>
       <c r="D92" s="1">
         <v>11265989</v>
       </c>
-      <c r="E92" s="52" t="s">
+      <c r="E92" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F92" s="52"/>
-      <c r="G92" s="74"/>
-      <c r="H92" s="52" t="s">
+      <c r="F92" s="47"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="I92" s="52" t="s">
+      <c r="I92" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="J92" s="52" t="s">
+      <c r="J92" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="K92" s="60">
-        <v>1</v>
-      </c>
-      <c r="L92" s="60"/>
-      <c r="M92" s="60"/>
-      <c r="N92" s="63">
+      <c r="K92" s="50">
+        <v>1</v>
+      </c>
+      <c r="L92" s="50"/>
+      <c r="M92" s="50"/>
+      <c r="N92" s="53">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="O92" s="16"/>
-      <c r="P92" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="52">
+      <c r="P92" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="47">
         <v>360</v>
       </c>
-      <c r="R92" s="52" t="s">
+      <c r="R92" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="S92" s="52" t="s">
+      <c r="S92" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="T92" s="52" t="s">
+      <c r="T92" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="U92" s="52" t="s">
+      <c r="U92" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="52" t="s">
+      <c r="V92" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="W92" s="52">
+      <c r="W92" s="47">
         <v>18</v>
       </c>
-      <c r="X92" s="52">
+      <c r="X92" s="47">
         <v>36</v>
       </c>
-      <c r="Y92" s="52">
-        <v>1</v>
-      </c>
-      <c r="Z92" s="52">
-        <v>1</v>
-      </c>
-      <c r="AA92" s="52">
-        <v>1</v>
-      </c>
-      <c r="AB92" s="52">
-        <v>1</v>
-      </c>
-      <c r="AC92" s="52">
+      <c r="Y92" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="47">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="47">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="47">
         <v>290</v>
       </c>
-      <c r="AE92" s="52" t="s">
+      <c r="AE92" s="47" t="s">
         <v>247</v>
       </c>
       <c r="AF92" s="1">
@@ -6622,37 +6655,37 @@
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B93" s="28"/>
-      <c r="C93" s="58"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="72"/>
       <c r="D93" s="1">
         <v>11274790</v>
       </c>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="61"/>
-      <c r="L93" s="61"/>
-      <c r="M93" s="61"/>
-      <c r="N93" s="64"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="54"/>
       <c r="O93" s="17"/>
-      <c r="P93" s="53"/>
-      <c r="Q93" s="53"/>
-      <c r="R93" s="53"/>
-      <c r="S93" s="53"/>
-      <c r="T93" s="53"/>
-      <c r="U93" s="53"/>
-      <c r="V93" s="53"/>
-      <c r="W93" s="53"/>
-      <c r="X93" s="53"/>
-      <c r="Y93" s="53"/>
-      <c r="Z93" s="53"/>
-      <c r="AA93" s="53"/>
-      <c r="AB93" s="53"/>
-      <c r="AC93" s="53"/>
-      <c r="AE93" s="53"/>
+      <c r="P93" s="48"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="48"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="48"/>
+      <c r="Z93" s="48"/>
+      <c r="AA93" s="48"/>
+      <c r="AB93" s="48"/>
+      <c r="AC93" s="48"/>
+      <c r="AE93" s="48"/>
       <c r="AF93" s="1">
         <v>57526</v>
       </c>
@@ -6667,37 +6700,37 @@
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B94" s="28"/>
-      <c r="C94" s="58"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="72"/>
       <c r="D94" s="1">
         <v>11274796</v>
       </c>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="61"/>
-      <c r="L94" s="61"/>
-      <c r="M94" s="61"/>
-      <c r="N94" s="64"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="54"/>
       <c r="O94" s="17"/>
-      <c r="P94" s="53"/>
-      <c r="Q94" s="53"/>
-      <c r="R94" s="53"/>
-      <c r="S94" s="53"/>
-      <c r="T94" s="53"/>
-      <c r="U94" s="53"/>
-      <c r="V94" s="53"/>
-      <c r="W94" s="53"/>
-      <c r="X94" s="53"/>
-      <c r="Y94" s="53"/>
-      <c r="Z94" s="53"/>
-      <c r="AA94" s="53"/>
-      <c r="AB94" s="53"/>
-      <c r="AC94" s="53"/>
-      <c r="AE94" s="53"/>
+      <c r="P94" s="48"/>
+      <c r="Q94" s="48"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="48"/>
+      <c r="X94" s="48"/>
+      <c r="Y94" s="48"/>
+      <c r="Z94" s="48"/>
+      <c r="AA94" s="48"/>
+      <c r="AB94" s="48"/>
+      <c r="AC94" s="48"/>
+      <c r="AE94" s="48"/>
       <c r="AG94" s="1">
         <v>2.66</v>
       </c>
@@ -6709,37 +6742,37 @@
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B95" s="28"/>
-      <c r="C95" s="58"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="72"/>
       <c r="D95" s="1">
         <v>11275719</v>
       </c>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="61"/>
-      <c r="L95" s="61"/>
-      <c r="M95" s="61"/>
-      <c r="N95" s="64"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="54"/>
       <c r="O95" s="17"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="53"/>
-      <c r="R95" s="53"/>
-      <c r="S95" s="53"/>
-      <c r="T95" s="53"/>
-      <c r="U95" s="53"/>
-      <c r="V95" s="53"/>
-      <c r="W95" s="53"/>
-      <c r="X95" s="53"/>
-      <c r="Y95" s="53"/>
-      <c r="Z95" s="53"/>
-      <c r="AA95" s="53"/>
-      <c r="AB95" s="53"/>
-      <c r="AC95" s="53"/>
-      <c r="AE95" s="53"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="48"/>
+      <c r="X95" s="48"/>
+      <c r="Y95" s="48"/>
+      <c r="Z95" s="48"/>
+      <c r="AA95" s="48"/>
+      <c r="AB95" s="48"/>
+      <c r="AC95" s="48"/>
+      <c r="AE95" s="48"/>
       <c r="AH95" s="1">
         <v>81152</v>
       </c>
@@ -6748,37 +6781,37 @@
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B96" s="28"/>
-      <c r="C96" s="58"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="72"/>
       <c r="D96" s="1">
         <v>11275722</v>
       </c>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="61"/>
-      <c r="L96" s="61"/>
-      <c r="M96" s="61"/>
-      <c r="N96" s="64"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="54"/>
       <c r="O96" s="17"/>
-      <c r="P96" s="53"/>
-      <c r="Q96" s="53"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="53"/>
-      <c r="T96" s="53"/>
-      <c r="U96" s="53"/>
-      <c r="V96" s="53"/>
-      <c r="W96" s="53"/>
-      <c r="X96" s="53"/>
-      <c r="Y96" s="53"/>
-      <c r="Z96" s="53"/>
-      <c r="AA96" s="53"/>
-      <c r="AB96" s="53"/>
-      <c r="AC96" s="53"/>
-      <c r="AE96" s="53"/>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="48"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="48"/>
+      <c r="T96" s="48"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="48"/>
+      <c r="W96" s="48"/>
+      <c r="X96" s="48"/>
+      <c r="Y96" s="48"/>
+      <c r="Z96" s="48"/>
+      <c r="AA96" s="48"/>
+      <c r="AB96" s="48"/>
+      <c r="AC96" s="48"/>
+      <c r="AE96" s="48"/>
       <c r="AH96" s="1">
         <v>87296</v>
       </c>
@@ -6787,37 +6820,37 @@
       </c>
     </row>
     <row r="97" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B97" s="28"/>
-      <c r="C97" s="58"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="72"/>
       <c r="D97" s="1">
         <v>11275725</v>
       </c>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="61"/>
-      <c r="L97" s="61"/>
-      <c r="M97" s="61"/>
-      <c r="N97" s="64"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="48"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="54"/>
       <c r="O97" s="17"/>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="53"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="53"/>
-      <c r="T97" s="53"/>
-      <c r="U97" s="53"/>
-      <c r="V97" s="53"/>
-      <c r="W97" s="53"/>
-      <c r="X97" s="53"/>
-      <c r="Y97" s="53"/>
-      <c r="Z97" s="53"/>
-      <c r="AA97" s="53"/>
-      <c r="AB97" s="53"/>
-      <c r="AC97" s="53"/>
-      <c r="AE97" s="53"/>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="48"/>
+      <c r="R97" s="48"/>
+      <c r="S97" s="48"/>
+      <c r="T97" s="48"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="48"/>
+      <c r="W97" s="48"/>
+      <c r="X97" s="48"/>
+      <c r="Y97" s="48"/>
+      <c r="Z97" s="48"/>
+      <c r="AA97" s="48"/>
+      <c r="AB97" s="48"/>
+      <c r="AC97" s="48"/>
+      <c r="AE97" s="48"/>
       <c r="AH97" s="1">
         <v>80128</v>
       </c>
@@ -6826,37 +6859,37 @@
       </c>
     </row>
     <row r="98" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B98" s="28"/>
-      <c r="C98" s="58"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="72"/>
       <c r="D98" s="1">
         <v>11275729</v>
       </c>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="76"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="61"/>
-      <c r="L98" s="61"/>
-      <c r="M98" s="61"/>
-      <c r="N98" s="64"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="54"/>
       <c r="O98" s="17"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="53"/>
-      <c r="S98" s="53"/>
-      <c r="T98" s="53"/>
-      <c r="U98" s="53"/>
-      <c r="V98" s="53"/>
-      <c r="W98" s="53"/>
-      <c r="X98" s="53"/>
-      <c r="Y98" s="53"/>
-      <c r="Z98" s="53"/>
-      <c r="AA98" s="53"/>
-      <c r="AB98" s="53"/>
-      <c r="AC98" s="53"/>
-      <c r="AE98" s="53"/>
+      <c r="P98" s="48"/>
+      <c r="Q98" s="48"/>
+      <c r="R98" s="48"/>
+      <c r="S98" s="48"/>
+      <c r="T98" s="48"/>
+      <c r="U98" s="48"/>
+      <c r="V98" s="48"/>
+      <c r="W98" s="48"/>
+      <c r="X98" s="48"/>
+      <c r="Y98" s="48"/>
+      <c r="Z98" s="48"/>
+      <c r="AA98" s="48"/>
+      <c r="AB98" s="48"/>
+      <c r="AC98" s="48"/>
+      <c r="AE98" s="48"/>
       <c r="AH98" s="1">
         <v>77312</v>
       </c>
@@ -6865,37 +6898,37 @@
       </c>
     </row>
     <row r="99" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B99" s="29"/>
-      <c r="C99" s="59"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="73"/>
       <c r="D99" s="1">
         <v>11275731</v>
       </c>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="62"/>
-      <c r="M99" s="62"/>
-      <c r="N99" s="65"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="52"/>
+      <c r="L99" s="52"/>
+      <c r="M99" s="52"/>
+      <c r="N99" s="55"/>
       <c r="O99" s="18"/>
-      <c r="P99" s="54"/>
-      <c r="Q99" s="54"/>
-      <c r="R99" s="54"/>
-      <c r="S99" s="54"/>
-      <c r="T99" s="54"/>
-      <c r="U99" s="54"/>
-      <c r="V99" s="54"/>
-      <c r="W99" s="54"/>
-      <c r="X99" s="54"/>
-      <c r="Y99" s="54"/>
-      <c r="Z99" s="54"/>
-      <c r="AA99" s="54"/>
-      <c r="AB99" s="54"/>
-      <c r="AC99" s="54"/>
-      <c r="AE99" s="54"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="49"/>
+      <c r="R99" s="49"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="49"/>
+      <c r="U99" s="49"/>
+      <c r="V99" s="49"/>
+      <c r="W99" s="49"/>
+      <c r="X99" s="49"/>
+      <c r="Y99" s="49"/>
+      <c r="Z99" s="49"/>
+      <c r="AA99" s="49"/>
+      <c r="AB99" s="49"/>
+      <c r="AC99" s="49"/>
+      <c r="AE99" s="49"/>
       <c r="AH99" s="1">
         <v>78848</v>
       </c>
@@ -7013,7 +7046,7 @@
       </c>
     </row>
     <row r="105" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C105" s="52">
+      <c r="C105" s="47">
         <v>7062</v>
       </c>
       <c r="D105" s="1">
@@ -7033,13 +7066,13 @@
       </c>
     </row>
     <row r="106" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C106" s="54"/>
+      <c r="C106" s="49"/>
       <c r="D106" s="1">
         <v>11313957</v>
       </c>
     </row>
     <row r="107" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C107" s="24">
+      <c r="C107" s="30">
         <v>7063</v>
       </c>
       <c r="D107" s="1">
@@ -7048,32 +7081,32 @@
       <c r="E107" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K107" s="36">
-        <v>1</v>
-      </c>
-      <c r="L107" s="36">
+      <c r="K107" s="32">
+        <v>1</v>
+      </c>
+      <c r="L107" s="32">
         <v>2</v>
       </c>
-      <c r="M107" s="36">
+      <c r="M107" s="32">
         <v>128</v>
       </c>
-      <c r="N107" s="66">
+      <c r="N107" s="38">
         <v>1.0416666666666667</v>
       </c>
       <c r="O107" s="21"/>
     </row>
     <row r="108" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C108" s="26"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="1">
         <v>11314561</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K108" s="38"/>
-      <c r="L108" s="38"/>
-      <c r="M108" s="38"/>
-      <c r="N108" s="67"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="39"/>
       <c r="O108" s="22"/>
       <c r="AE108" s="19" t="s">
         <v>267</v>
@@ -7152,20 +7185,20 @@
       </c>
     </row>
     <row r="110" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C110" s="33">
+      <c r="C110" s="74">
         <v>7065</v>
       </c>
       <c r="D110" s="1">
         <v>11316014</v>
       </c>
-      <c r="G110" s="74"/>
-      <c r="H110" s="24" t="s">
+      <c r="G110" s="27"/>
+      <c r="H110" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="I110" s="24" t="s">
+      <c r="I110" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="J110" s="24" t="s">
+      <c r="J110" s="30" t="s">
         <v>249</v>
       </c>
       <c r="K110" s="6">
@@ -7220,10 +7253,10 @@
       <c r="AB110" s="1">
         <v>1</v>
       </c>
-      <c r="AC110" s="25">
+      <c r="AC110" s="37">
         <v>290</v>
       </c>
-      <c r="AE110" s="27" t="s">
+      <c r="AE110" s="34" t="s">
         <v>266</v>
       </c>
       <c r="AF110" s="1">
@@ -7234,61 +7267,61 @@
       </c>
     </row>
     <row r="111" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C111" s="34"/>
+      <c r="C111" s="75"/>
       <c r="D111" s="1">
         <v>11316015</v>
       </c>
-      <c r="G111" s="76"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
-      <c r="AC111" s="25"/>
-      <c r="AE111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="AC111" s="37"/>
+      <c r="AE111" s="35"/>
       <c r="AH111" s="1">
         <v>102656</v>
       </c>
     </row>
     <row r="112" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C112" s="34"/>
+      <c r="C112" s="75"/>
       <c r="D112" s="1">
         <v>11316019</v>
       </c>
-      <c r="G112" s="76"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25"/>
-      <c r="AC112" s="25"/>
-      <c r="AE112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="AC112" s="37"/>
+      <c r="AE112" s="35"/>
       <c r="AH112" s="1">
         <v>98048</v>
       </c>
     </row>
     <row r="113" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C113" s="34"/>
+      <c r="C113" s="75"/>
       <c r="D113" s="1">
         <v>11316020</v>
       </c>
-      <c r="G113" s="76"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="AC113" s="25"/>
-      <c r="AE113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="AC113" s="37"/>
+      <c r="AE113" s="35"/>
       <c r="AH113" s="1">
         <v>98048</v>
       </c>
     </row>
     <row r="114" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C114" s="35"/>
+      <c r="C114" s="76"/>
       <c r="D114" s="1">
         <v>11316021</v>
       </c>
-      <c r="G114" s="75"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
-      <c r="AC114" s="26"/>
-      <c r="AE114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="AC114" s="31"/>
+      <c r="AE114" s="36"/>
       <c r="AH114" s="1">
         <v>97536</v>
       </c>
@@ -7300,85 +7333,85 @@
       </c>
     </row>
     <row r="115" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C115" s="33">
+      <c r="C115" s="74">
         <v>7066</v>
       </c>
       <c r="D115" s="1">
         <v>11317009</v>
       </c>
-      <c r="E115" s="24" t="s">
+      <c r="E115" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F115" s="24"/>
-      <c r="G115" s="77"/>
-      <c r="H115" s="24" t="s">
+      <c r="F115" s="30"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="I115" s="24" t="s">
+      <c r="I115" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="J115" s="24" t="s">
+      <c r="J115" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="K115" s="36">
-        <v>1</v>
-      </c>
-      <c r="L115" s="36">
-        <v>1</v>
-      </c>
-      <c r="M115" s="36">
+      <c r="K115" s="32">
+        <v>1</v>
+      </c>
+      <c r="L115" s="32">
+        <v>1</v>
+      </c>
+      <c r="M115" s="32">
         <v>256</v>
       </c>
-      <c r="N115" s="30">
+      <c r="N115" s="43">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="O115" s="36">
+      <c r="O115" s="32">
         <v>256</v>
       </c>
-      <c r="P115" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="24">
+      <c r="P115" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="30">
         <v>360</v>
       </c>
-      <c r="R115" s="24" t="s">
+      <c r="R115" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="S115" s="24" t="s">
+      <c r="S115" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="T115" s="24" t="s">
+      <c r="T115" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U115" s="24" t="s">
+      <c r="U115" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="24" t="s">
+      <c r="V115" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="W115" s="24">
+      <c r="W115" s="30">
         <v>18</v>
       </c>
-      <c r="X115" s="24">
+      <c r="X115" s="30">
         <v>36</v>
       </c>
-      <c r="Y115" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z115" s="24">
-        <v>1</v>
-      </c>
-      <c r="AA115" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB115" s="24">
-        <v>1</v>
-      </c>
-      <c r="AC115" s="24">
+      <c r="Y115" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z115" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB115" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="30">
         <v>290</v>
       </c>
-      <c r="AD115" s="24"/>
-      <c r="AE115" s="68" t="s">
+      <c r="AD115" s="30"/>
+      <c r="AE115" s="40" t="s">
         <v>262</v>
       </c>
       <c r="AH115" s="1">
@@ -7389,37 +7422,37 @@
       </c>
     </row>
     <row r="116" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C116" s="34"/>
+      <c r="C116" s="75"/>
       <c r="D116" s="1">
         <v>11317979</v>
       </c>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="78"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="37"/>
-      <c r="L116" s="37"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="31"/>
-      <c r="O116" s="37"/>
-      <c r="P116" s="25"/>
-      <c r="Q116" s="25"/>
-      <c r="R116" s="25"/>
-      <c r="S116" s="25"/>
-      <c r="T116" s="25"/>
-      <c r="U116" s="25"/>
-      <c r="V116" s="25"/>
-      <c r="W116" s="25"/>
-      <c r="X116" s="25"/>
-      <c r="Y116" s="25"/>
-      <c r="Z116" s="25"/>
-      <c r="AA116" s="25"/>
-      <c r="AB116" s="25"/>
-      <c r="AC116" s="25"/>
-      <c r="AD116" s="25"/>
-      <c r="AE116" s="69"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="44"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="37"/>
+      <c r="Q116" s="37"/>
+      <c r="R116" s="37"/>
+      <c r="S116" s="37"/>
+      <c r="T116" s="37"/>
+      <c r="U116" s="37"/>
+      <c r="V116" s="37"/>
+      <c r="W116" s="37"/>
+      <c r="X116" s="37"/>
+      <c r="Y116" s="37"/>
+      <c r="Z116" s="37"/>
+      <c r="AA116" s="37"/>
+      <c r="AB116" s="37"/>
+      <c r="AC116" s="37"/>
+      <c r="AD116" s="37"/>
+      <c r="AE116" s="41"/>
       <c r="AH116" s="1">
         <v>101632</v>
       </c>
@@ -7428,37 +7461,37 @@
       </c>
     </row>
     <row r="117" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C117" s="34"/>
+      <c r="C117" s="75"/>
       <c r="D117" s="1">
         <v>11317981</v>
       </c>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="78"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="25"/>
-      <c r="K117" s="37"/>
-      <c r="L117" s="37"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="31"/>
-      <c r="O117" s="37"/>
-      <c r="P117" s="25"/>
-      <c r="Q117" s="25"/>
-      <c r="R117" s="25"/>
-      <c r="S117" s="25"/>
-      <c r="T117" s="25"/>
-      <c r="U117" s="25"/>
-      <c r="V117" s="25"/>
-      <c r="W117" s="25"/>
-      <c r="X117" s="25"/>
-      <c r="Y117" s="25"/>
-      <c r="Z117" s="25"/>
-      <c r="AA117" s="25"/>
-      <c r="AB117" s="25"/>
-      <c r="AC117" s="25"/>
-      <c r="AD117" s="25"/>
-      <c r="AE117" s="69"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="44"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="37"/>
+      <c r="Q117" s="37"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="37"/>
+      <c r="T117" s="37"/>
+      <c r="U117" s="37"/>
+      <c r="V117" s="37"/>
+      <c r="W117" s="37"/>
+      <c r="X117" s="37"/>
+      <c r="Y117" s="37"/>
+      <c r="Z117" s="37"/>
+      <c r="AA117" s="37"/>
+      <c r="AB117" s="37"/>
+      <c r="AC117" s="37"/>
+      <c r="AD117" s="37"/>
+      <c r="AE117" s="41"/>
       <c r="AH117" s="1">
         <v>103680</v>
       </c>
@@ -7467,37 +7500,37 @@
       </c>
     </row>
     <row r="118" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C118" s="34"/>
+      <c r="C118" s="75"/>
       <c r="D118" s="1">
         <v>11317982</v>
       </c>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="78"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="37"/>
-      <c r="L118" s="37"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="31"/>
-      <c r="O118" s="37"/>
-      <c r="P118" s="25"/>
-      <c r="Q118" s="25"/>
-      <c r="R118" s="25"/>
-      <c r="S118" s="25"/>
-      <c r="T118" s="25"/>
-      <c r="U118" s="25"/>
-      <c r="V118" s="25"/>
-      <c r="W118" s="25"/>
-      <c r="X118" s="25"/>
-      <c r="Y118" s="25"/>
-      <c r="Z118" s="25"/>
-      <c r="AA118" s="25"/>
-      <c r="AB118" s="25"/>
-      <c r="AC118" s="25"/>
-      <c r="AD118" s="25"/>
-      <c r="AE118" s="69"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="44"/>
+      <c r="O118" s="46"/>
+      <c r="P118" s="37"/>
+      <c r="Q118" s="37"/>
+      <c r="R118" s="37"/>
+      <c r="S118" s="37"/>
+      <c r="T118" s="37"/>
+      <c r="U118" s="37"/>
+      <c r="V118" s="37"/>
+      <c r="W118" s="37"/>
+      <c r="X118" s="37"/>
+      <c r="Y118" s="37"/>
+      <c r="Z118" s="37"/>
+      <c r="AA118" s="37"/>
+      <c r="AB118" s="37"/>
+      <c r="AC118" s="37"/>
+      <c r="AD118" s="37"/>
+      <c r="AE118" s="41"/>
       <c r="AH118" s="1">
         <v>105472</v>
       </c>
@@ -7506,37 +7539,37 @@
       </c>
     </row>
     <row r="119" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C119" s="34"/>
+      <c r="C119" s="75"/>
       <c r="D119" s="1">
         <v>11317983</v>
       </c>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="78"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="37"/>
-      <c r="L119" s="37"/>
-      <c r="M119" s="37"/>
-      <c r="N119" s="31"/>
-      <c r="O119" s="37"/>
-      <c r="P119" s="25"/>
-      <c r="Q119" s="25"/>
-      <c r="R119" s="25"/>
-      <c r="S119" s="25"/>
-      <c r="T119" s="25"/>
-      <c r="U119" s="25"/>
-      <c r="V119" s="25"/>
-      <c r="W119" s="25"/>
-      <c r="X119" s="25"/>
-      <c r="Y119" s="25"/>
-      <c r="Z119" s="25"/>
-      <c r="AA119" s="25"/>
-      <c r="AB119" s="25"/>
-      <c r="AC119" s="25"/>
-      <c r="AD119" s="25"/>
-      <c r="AE119" s="69"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="46"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="44"/>
+      <c r="O119" s="46"/>
+      <c r="P119" s="37"/>
+      <c r="Q119" s="37"/>
+      <c r="R119" s="37"/>
+      <c r="S119" s="37"/>
+      <c r="T119" s="37"/>
+      <c r="U119" s="37"/>
+      <c r="V119" s="37"/>
+      <c r="W119" s="37"/>
+      <c r="X119" s="37"/>
+      <c r="Y119" s="37"/>
+      <c r="Z119" s="37"/>
+      <c r="AA119" s="37"/>
+      <c r="AB119" s="37"/>
+      <c r="AC119" s="37"/>
+      <c r="AD119" s="37"/>
+      <c r="AE119" s="41"/>
       <c r="AH119" s="1">
         <v>98560</v>
       </c>
@@ -7545,37 +7578,37 @@
       </c>
     </row>
     <row r="120" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C120" s="35"/>
+      <c r="C120" s="76"/>
       <c r="D120" s="1">
         <v>11317984</v>
       </c>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="79"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="38"/>
-      <c r="M120" s="38"/>
-      <c r="N120" s="32"/>
-      <c r="O120" s="38"/>
-      <c r="P120" s="26"/>
-      <c r="Q120" s="26"/>
-      <c r="R120" s="26"/>
-      <c r="S120" s="26"/>
-      <c r="T120" s="26"/>
-      <c r="U120" s="26"/>
-      <c r="V120" s="26"/>
-      <c r="W120" s="26"/>
-      <c r="X120" s="26"/>
-      <c r="Y120" s="26"/>
-      <c r="Z120" s="26"/>
-      <c r="AA120" s="26"/>
-      <c r="AB120" s="26"/>
-      <c r="AC120" s="26"/>
-      <c r="AD120" s="26"/>
-      <c r="AE120" s="70"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="33"/>
+      <c r="L120" s="33"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="45"/>
+      <c r="O120" s="33"/>
+      <c r="P120" s="31"/>
+      <c r="Q120" s="31"/>
+      <c r="R120" s="31"/>
+      <c r="S120" s="31"/>
+      <c r="T120" s="31"/>
+      <c r="U120" s="31"/>
+      <c r="V120" s="31"/>
+      <c r="W120" s="31"/>
+      <c r="X120" s="31"/>
+      <c r="Y120" s="31"/>
+      <c r="Z120" s="31"/>
+      <c r="AA120" s="31"/>
+      <c r="AB120" s="31"/>
+      <c r="AC120" s="31"/>
+      <c r="AD120" s="31"/>
+      <c r="AE120" s="42"/>
       <c r="AH120" s="1">
         <v>112640</v>
       </c>
@@ -7653,22 +7686,22 @@
       <c r="D124" s="1">
         <v>11328249</v>
       </c>
-      <c r="E124" s="24" t="s">
+      <c r="E124" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G124" s="74"/>
-      <c r="H124" s="24" t="s">
+      <c r="G124" s="27"/>
+      <c r="H124" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="I124" s="24" t="s">
+      <c r="I124" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="J124" s="24" t="s">
+      <c r="J124" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="K124" s="36"/>
-      <c r="L124" s="36"/>
-      <c r="AE124" s="27" t="s">
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+      <c r="AE124" s="34" t="s">
         <v>260</v>
       </c>
       <c r="AH124" s="1">
@@ -7679,14 +7712,14 @@
       <c r="D125" s="1">
         <v>11329110</v>
       </c>
-      <c r="E125" s="26"/>
-      <c r="G125" s="75"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="38"/>
-      <c r="L125" s="38"/>
-      <c r="AE125" s="29"/>
+      <c r="E125" s="31"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="33"/>
+      <c r="L125" s="33"/>
+      <c r="AE125" s="36"/>
       <c r="AH125" s="1">
         <v>100608</v>
       </c>
@@ -7703,7 +7736,7 @@
       </c>
     </row>
     <row r="127" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="34" t="s">
         <v>295</v>
       </c>
       <c r="C127" s="1">
@@ -7712,11 +7745,11 @@
       <c r="D127" s="1">
         <v>11351804</v>
       </c>
-      <c r="G127" s="74"/>
-      <c r="H127" s="24" t="s">
+      <c r="G127" s="27"/>
+      <c r="H127" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="I127" s="24" t="s">
+      <c r="I127" s="30" t="s">
         <v>250</v>
       </c>
       <c r="J127" s="1" t="s">
@@ -7731,52 +7764,52 @@
       <c r="M127" s="6">
         <v>256</v>
       </c>
-      <c r="N127" s="30">
+      <c r="N127" s="43">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="O127" s="6">
         <v>1000</v>
       </c>
-      <c r="P127" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="24">
+      <c r="P127" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="30">
         <v>360</v>
       </c>
-      <c r="R127" s="24" t="s">
+      <c r="R127" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="S127" s="24" t="s">
+      <c r="S127" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="T127" s="24" t="s">
+      <c r="T127" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U127" s="24" t="s">
+      <c r="U127" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="24" t="s">
+      <c r="V127" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="W127" s="24">
+      <c r="W127" s="30">
         <v>18</v>
       </c>
-      <c r="X127" s="24">
+      <c r="X127" s="30">
         <v>36</v>
       </c>
-      <c r="Y127" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z127" s="24">
-        <v>1</v>
-      </c>
-      <c r="AA127" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB127" s="24">
-        <v>1</v>
-      </c>
-      <c r="AC127" s="24">
+      <c r="Y127" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA127" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB127" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC127" s="30">
         <v>290</v>
       </c>
       <c r="AE127" s="1" t="s">
@@ -7793,7 +7826,7 @@
       </c>
     </row>
     <row r="128" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B128" s="28"/>
+      <c r="B128" s="35"/>
       <c r="C128" s="1">
         <v>7072</v>
       </c>
@@ -7803,9 +7836,9 @@
       <c r="E128" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G128" s="76"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
       <c r="J128" s="1" t="s">
         <v>268</v>
       </c>
@@ -7818,27 +7851,27 @@
       <c r="M128" s="6">
         <v>256</v>
       </c>
-      <c r="N128" s="31"/>
+      <c r="N128" s="44"/>
       <c r="O128" s="6">
         <v>1000</v>
       </c>
-      <c r="P128" s="25"/>
-      <c r="Q128" s="25"/>
-      <c r="R128" s="25"/>
-      <c r="S128" s="25"/>
-      <c r="T128" s="25"/>
-      <c r="U128" s="25"/>
-      <c r="V128" s="25"/>
-      <c r="W128" s="25"/>
-      <c r="X128" s="25"/>
-      <c r="Y128" s="25"/>
-      <c r="Z128" s="25"/>
-      <c r="AA128" s="25"/>
-      <c r="AB128" s="25"/>
-      <c r="AC128" s="25"/>
-    </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B129" s="28"/>
+      <c r="P128" s="37"/>
+      <c r="Q128" s="37"/>
+      <c r="R128" s="37"/>
+      <c r="S128" s="37"/>
+      <c r="T128" s="37"/>
+      <c r="U128" s="37"/>
+      <c r="V128" s="37"/>
+      <c r="W128" s="37"/>
+      <c r="X128" s="37"/>
+      <c r="Y128" s="37"/>
+      <c r="Z128" s="37"/>
+      <c r="AA128" s="37"/>
+      <c r="AB128" s="37"/>
+      <c r="AC128" s="37"/>
+    </row>
+    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B129" s="35"/>
       <c r="C129" s="1">
         <v>7073</v>
       </c>
@@ -7848,9 +7881,9 @@
       <c r="E129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G129" s="76"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
       <c r="J129" s="1" t="s">
         <v>270</v>
       </c>
@@ -7863,24 +7896,24 @@
       <c r="M129" s="6">
         <v>128</v>
       </c>
-      <c r="N129" s="31"/>
+      <c r="N129" s="44"/>
       <c r="O129" s="6">
         <v>1000</v>
       </c>
-      <c r="P129" s="25"/>
-      <c r="Q129" s="25"/>
-      <c r="R129" s="25"/>
-      <c r="S129" s="25"/>
-      <c r="T129" s="25"/>
-      <c r="U129" s="25"/>
-      <c r="V129" s="25"/>
-      <c r="W129" s="25"/>
-      <c r="X129" s="25"/>
-      <c r="Y129" s="25"/>
-      <c r="Z129" s="25"/>
-      <c r="AA129" s="25"/>
-      <c r="AB129" s="25"/>
-      <c r="AC129" s="25"/>
+      <c r="P129" s="37"/>
+      <c r="Q129" s="37"/>
+      <c r="R129" s="37"/>
+      <c r="S129" s="37"/>
+      <c r="T129" s="37"/>
+      <c r="U129" s="37"/>
+      <c r="V129" s="37"/>
+      <c r="W129" s="37"/>
+      <c r="X129" s="37"/>
+      <c r="Y129" s="37"/>
+      <c r="Z129" s="37"/>
+      <c r="AA129" s="37"/>
+      <c r="AB129" s="37"/>
+      <c r="AC129" s="37"/>
       <c r="AG129" s="1">
         <v>3.3</v>
       </c>
@@ -7897,8 +7930,8 @@
         <v>4.6180555555555558E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B130" s="28"/>
+    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B130" s="35"/>
       <c r="C130" s="1">
         <v>7074</v>
       </c>
@@ -7908,9 +7941,9 @@
       <c r="E130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G130" s="76"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
       <c r="J130" s="1" t="s">
         <v>271</v>
       </c>
@@ -7923,24 +7956,24 @@
       <c r="M130" s="6">
         <v>64</v>
       </c>
-      <c r="N130" s="31"/>
+      <c r="N130" s="44"/>
       <c r="O130" s="6">
         <v>1000</v>
       </c>
-      <c r="P130" s="25"/>
-      <c r="Q130" s="25"/>
-      <c r="R130" s="25"/>
-      <c r="S130" s="25"/>
-      <c r="T130" s="25"/>
-      <c r="U130" s="25"/>
-      <c r="V130" s="25"/>
-      <c r="W130" s="25"/>
-      <c r="X130" s="25"/>
-      <c r="Y130" s="25"/>
-      <c r="Z130" s="25"/>
-      <c r="AA130" s="25"/>
-      <c r="AB130" s="25"/>
-      <c r="AC130" s="25"/>
+      <c r="P130" s="37"/>
+      <c r="Q130" s="37"/>
+      <c r="R130" s="37"/>
+      <c r="S130" s="37"/>
+      <c r="T130" s="37"/>
+      <c r="U130" s="37"/>
+      <c r="V130" s="37"/>
+      <c r="W130" s="37"/>
+      <c r="X130" s="37"/>
+      <c r="Y130" s="37"/>
+      <c r="Z130" s="37"/>
+      <c r="AA130" s="37"/>
+      <c r="AB130" s="37"/>
+      <c r="AC130" s="37"/>
       <c r="AG130" s="1">
         <v>2.4</v>
       </c>
@@ -7954,8 +7987,8 @@
         <v>4.6759259259259263E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B131" s="28"/>
+    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B131" s="35"/>
       <c r="C131" s="1">
         <v>7079</v>
       </c>
@@ -7965,9 +7998,9 @@
       <c r="E131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G131" s="76"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
       <c r="J131" s="1" t="s">
         <v>279</v>
       </c>
@@ -7980,24 +8013,24 @@
       <c r="M131" s="6">
         <v>32</v>
       </c>
-      <c r="N131" s="31"/>
+      <c r="N131" s="44"/>
       <c r="O131" s="6">
         <v>1000</v>
       </c>
-      <c r="P131" s="25"/>
-      <c r="Q131" s="25"/>
-      <c r="R131" s="25"/>
-      <c r="S131" s="25"/>
-      <c r="T131" s="25"/>
-      <c r="U131" s="25"/>
-      <c r="V131" s="25"/>
-      <c r="W131" s="25"/>
-      <c r="X131" s="25"/>
-      <c r="Y131" s="25"/>
-      <c r="Z131" s="25"/>
-      <c r="AA131" s="25"/>
-      <c r="AB131" s="25"/>
-      <c r="AC131" s="25"/>
+      <c r="P131" s="37"/>
+      <c r="Q131" s="37"/>
+      <c r="R131" s="37"/>
+      <c r="S131" s="37"/>
+      <c r="T131" s="37"/>
+      <c r="U131" s="37"/>
+      <c r="V131" s="37"/>
+      <c r="W131" s="37"/>
+      <c r="X131" s="37"/>
+      <c r="Y131" s="37"/>
+      <c r="Z131" s="37"/>
+      <c r="AA131" s="37"/>
+      <c r="AB131" s="37"/>
+      <c r="AC131" s="37"/>
       <c r="AG131" s="1">
         <v>1.1200000000000001</v>
       </c>
@@ -8011,8 +8044,8 @@
         <v>5.0925925925925921E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B132" s="28"/>
+    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B132" s="35"/>
       <c r="C132" s="1">
         <v>7077</v>
       </c>
@@ -8022,9 +8055,9 @@
       <c r="E132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G132" s="76"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
       <c r="J132" s="1" t="s">
         <v>276</v>
       </c>
@@ -8037,24 +8070,24 @@
       <c r="M132" s="6">
         <v>32</v>
       </c>
-      <c r="N132" s="31"/>
+      <c r="N132" s="44"/>
       <c r="O132" s="6">
         <v>1000</v>
       </c>
-      <c r="P132" s="26"/>
-      <c r="Q132" s="26"/>
-      <c r="R132" s="26"/>
-      <c r="S132" s="26"/>
-      <c r="T132" s="26"/>
-      <c r="U132" s="26"/>
-      <c r="V132" s="26"/>
-      <c r="W132" s="26"/>
-      <c r="X132" s="26"/>
-      <c r="Y132" s="26"/>
-      <c r="Z132" s="26"/>
-      <c r="AA132" s="26"/>
-      <c r="AB132" s="26"/>
-      <c r="AC132" s="26"/>
+      <c r="P132" s="31"/>
+      <c r="Q132" s="31"/>
+      <c r="R132" s="31"/>
+      <c r="S132" s="31"/>
+      <c r="T132" s="31"/>
+      <c r="U132" s="31"/>
+      <c r="V132" s="31"/>
+      <c r="W132" s="31"/>
+      <c r="X132" s="31"/>
+      <c r="Y132" s="31"/>
+      <c r="Z132" s="31"/>
+      <c r="AA132" s="31"/>
+      <c r="AB132" s="31"/>
+      <c r="AC132" s="31"/>
       <c r="AG132" s="1">
         <v>1.32</v>
       </c>
@@ -8068,8 +8101,8 @@
         <v>4.3749999999999995E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B133" s="29"/>
+    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B133" s="36"/>
       <c r="C133" s="1">
         <v>7080</v>
       </c>
@@ -8079,9 +8112,9 @@
       <c r="E133" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G133" s="75"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
       <c r="J133" s="1" t="s">
         <v>282</v>
       </c>
@@ -8094,7 +8127,7 @@
       <c r="M133" s="6">
         <v>16</v>
       </c>
-      <c r="N133" s="32"/>
+      <c r="N133" s="45"/>
       <c r="O133" s="6">
         <v>1000</v>
       </c>
@@ -8105,7 +8138,7 @@
         <v>5.2314814814814819E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C134" s="1">
         <v>7075</v>
       </c>
@@ -8140,7 +8173,7 @@
         <v>50432</v>
       </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C135" s="1">
         <v>7076</v>
       </c>
@@ -8229,7 +8262,7 @@
         <v>3.8530092592592595E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C136" s="1">
         <v>7081</v>
       </c>
@@ -8303,7 +8336,7 @@
         <v>3.9814814814814817E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C137" s="1">
         <v>7078</v>
       </c>
@@ -8392,7 +8425,7 @@
         <v>5.5868055555555553E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>2560</v>
       </c>
@@ -8469,7 +8502,7 @@
         <v>6.8159722222222219E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C139" s="1">
         <v>7083</v>
       </c>
@@ -8543,8 +8576,8 @@
         <v>5.5717592592592596E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B140" s="27" t="s">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B140" s="34" t="s">
         <v>300</v>
       </c>
       <c r="C140" s="1">
@@ -8553,7 +8586,7 @@
       <c r="D140" s="1">
         <v>11410677</v>
       </c>
-      <c r="E140" s="24" t="s">
+      <c r="E140" s="30" t="s">
         <v>34</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -8629,15 +8662,15 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B141" s="28"/>
+    <row r="141" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B141" s="35"/>
       <c r="C141" s="1">
         <v>7085</v>
       </c>
       <c r="D141" s="1">
         <v>11410928</v>
       </c>
-      <c r="E141" s="25"/>
+      <c r="E141" s="37"/>
       <c r="F141" s="14">
         <v>5.9895833333333336E-2</v>
       </c>
@@ -8714,15 +8747,15 @@
         <v>5.9895833333333336E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B142" s="28"/>
+    <row r="142" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B142" s="35"/>
       <c r="C142" s="1">
         <v>7086</v>
       </c>
       <c r="D142" s="1">
         <v>11422866</v>
       </c>
-      <c r="E142" s="25"/>
+      <c r="E142" s="37"/>
       <c r="F142" s="14">
         <v>9.2708333333333337E-2</v>
       </c>
@@ -8795,18 +8828,17 @@
       <c r="AG142" s="1">
         <v>77.790000000000006</v>
       </c>
-      <c r="AR142" s="71"/>
-      <c r="AS142" s="72"/>
-    </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B143" s="29"/>
+      <c r="AR142" s="20"/>
+    </row>
+    <row r="143" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B143" s="36"/>
       <c r="C143" s="1">
         <v>7087</v>
       </c>
       <c r="D143" s="1">
         <v>11423438</v>
       </c>
-      <c r="E143" s="26"/>
+      <c r="E143" s="31"/>
       <c r="F143" s="14">
         <v>0.10461805555555555</v>
       </c>
@@ -8879,10 +8911,9 @@
       <c r="AG143" s="1">
         <v>106</v>
       </c>
-      <c r="AR143" s="71"/>
-      <c r="AS143" s="72"/>
-    </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AR143" s="20"/>
+    </row>
+    <row r="144" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C144" s="1">
         <v>7088</v>
       </c>
@@ -8965,10 +8996,9 @@
         <v>31</v>
       </c>
       <c r="AK144" s="14"/>
-      <c r="AR144" s="71"/>
-      <c r="AS144" s="72"/>
-    </row>
-    <row r="145" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AR144" s="20"/>
+    </row>
+    <row r="145" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C145" s="1">
         <v>7089</v>
       </c>
@@ -9045,10 +9075,9 @@
         <v>303</v>
       </c>
       <c r="AK145" s="14"/>
-      <c r="AR145" s="71"/>
-      <c r="AS145" s="72"/>
-    </row>
-    <row r="146" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AR145" s="20"/>
+    </row>
+    <row r="146" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>310</v>
       </c>
@@ -9108,10 +9137,9 @@
         <v>308</v>
       </c>
       <c r="AK146" s="14"/>
-      <c r="AR146" s="71"/>
-      <c r="AS146" s="72"/>
-    </row>
-    <row r="147" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AR146" s="20"/>
+    </row>
+    <row r="147" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C147" s="1">
         <v>7091</v>
       </c>
@@ -9174,41 +9202,40 @@
         <v>311</v>
       </c>
       <c r="AK147" s="14"/>
-      <c r="AR147" s="71"/>
-      <c r="AS147" s="72"/>
-    </row>
-    <row r="148" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="C148" s="24">
+      <c r="AR147" s="20"/>
+    </row>
+    <row r="148" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C148" s="30">
         <v>7092</v>
       </c>
       <c r="D148" s="1">
         <v>11468681</v>
       </c>
-      <c r="E148" s="24" t="s">
+      <c r="E148" s="30" t="s">
         <v>34</v>
       </c>
       <c r="F148" s="14">
         <v>0.14557870370370371</v>
       </c>
-      <c r="G148" s="73">
+      <c r="G148" s="1">
         <v>7.64</v>
       </c>
-      <c r="H148" s="24" t="s">
+      <c r="H148" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="I148" s="24" t="s">
+      <c r="I148" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="J148" s="24" t="s">
+      <c r="J148" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="K148" s="36">
+      <c r="K148" s="32">
         <v>4</v>
       </c>
-      <c r="L148" s="36">
+      <c r="L148" s="32">
         <v>8</v>
       </c>
-      <c r="M148" s="36">
+      <c r="M148" s="32">
         <v>128</v>
       </c>
       <c r="N148" s="7">
@@ -9240,29 +9267,28 @@
       </c>
       <c r="AC148" s="20"/>
       <c r="AK148" s="14"/>
-      <c r="AR148" s="71"/>
-      <c r="AS148" s="72"/>
-    </row>
-    <row r="149" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="C149" s="26"/>
+      <c r="AR148" s="20"/>
+    </row>
+    <row r="149" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C149" s="31"/>
       <c r="D149" s="1">
         <v>11468670</v>
       </c>
-      <c r="E149" s="26"/>
+      <c r="E149" s="31"/>
       <c r="F149" s="14">
         <v>0.14689814814814814</v>
       </c>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="26"/>
-      <c r="K149" s="38"/>
-      <c r="L149" s="38"/>
-      <c r="M149" s="38"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="31"/>
+      <c r="K149" s="33"/>
+      <c r="L149" s="33"/>
+      <c r="M149" s="33"/>
       <c r="AG149" s="1">
         <v>385</v>
       </c>
     </row>
-    <row r="150" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C150" s="1">
         <v>7093</v>
       </c>
@@ -9275,7 +9301,7 @@
       <c r="F150" s="14">
         <v>8.4224537037037028E-2</v>
       </c>
-      <c r="G150" s="73">
+      <c r="G150" s="1">
         <v>8.65</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -9331,10 +9357,9 @@
         <v>374</v>
       </c>
       <c r="AK150" s="14"/>
-      <c r="AR150" s="71"/>
-      <c r="AS150" s="72"/>
-    </row>
-    <row r="151" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AR150" s="20"/>
+    </row>
+    <row r="151" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C151" s="1">
         <v>7094</v>
       </c>
@@ -9412,46 +9437,271 @@
         <v>321</v>
       </c>
       <c r="AK151" s="14"/>
-      <c r="AR151" s="71"/>
-      <c r="AS151" s="72"/>
+      <c r="AR151" s="20"/>
+    </row>
+    <row r="152" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C152" s="1">
+        <v>7095</v>
+      </c>
+      <c r="D152" s="1">
+        <v>11582432</v>
+      </c>
+      <c r="F152" s="14"/>
+      <c r="H152" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K152" s="6">
+        <v>4</v>
+      </c>
+      <c r="L152" s="6">
+        <v>8</v>
+      </c>
+      <c r="M152" s="6">
+        <v>128</v>
+      </c>
+      <c r="N152" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="O152" s="6">
+        <v>512</v>
+      </c>
+      <c r="P152" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC152" s="20"/>
+      <c r="AE152" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AK152" s="14"/>
+      <c r="AR152" s="20"/>
+    </row>
+    <row r="153" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C153" s="1">
+        <v>7096</v>
+      </c>
+      <c r="D153" s="1">
+        <v>11609014</v>
+      </c>
+      <c r="F153" s="14"/>
+      <c r="H153" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K153" s="6">
+        <v>4</v>
+      </c>
+      <c r="L153" s="6">
+        <v>8</v>
+      </c>
+      <c r="M153" s="6">
+        <v>128</v>
+      </c>
+      <c r="N153" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O153" s="6">
+        <v>512</v>
+      </c>
+      <c r="P153" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W153" s="1">
+        <v>19</v>
+      </c>
+      <c r="X153" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y153" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z153" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA153" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB153" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC153" s="20">
+        <v>5082</v>
+      </c>
+      <c r="AE153" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK153" s="14"/>
+      <c r="AR153" s="20"/>
+    </row>
+    <row r="154" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="D154" s="1">
+        <v>11627594</v>
+      </c>
+      <c r="F154" s="14"/>
+      <c r="J154" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K154" s="6">
+        <v>6</v>
+      </c>
+      <c r="L154" s="6">
+        <v>12</v>
+      </c>
+      <c r="M154" s="6">
+        <v>128</v>
+      </c>
+      <c r="N154" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="O154" s="6">
+        <v>512</v>
+      </c>
+      <c r="AC154" s="20"/>
+      <c r="AE154" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AK154" s="14"/>
+      <c r="AR154" s="20"/>
+    </row>
+    <row r="155" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="H155" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="156" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="H156" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="I156" s="77" t="s">
+        <v>329</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="M148:M149"/>
-    <mergeCell ref="L148:L149"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="AE110:AE114"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="AC110:AC114"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:L125"/>
-    <mergeCell ref="AE124:AE125"/>
-    <mergeCell ref="AE115:AE120"/>
-    <mergeCell ref="N115:N120"/>
-    <mergeCell ref="M115:M120"/>
-    <mergeCell ref="L115:L120"/>
-    <mergeCell ref="K115:K120"/>
-    <mergeCell ref="J115:J120"/>
-    <mergeCell ref="V115:V120"/>
-    <mergeCell ref="U115:U120"/>
-    <mergeCell ref="T115:T120"/>
-    <mergeCell ref="S115:S120"/>
-    <mergeCell ref="AD115:AD120"/>
-    <mergeCell ref="AC115:AC120"/>
+    <mergeCell ref="Z127:Z132"/>
+    <mergeCell ref="AA127:AA132"/>
+    <mergeCell ref="AB127:AB132"/>
+    <mergeCell ref="AC127:AC132"/>
+    <mergeCell ref="U127:U132"/>
+    <mergeCell ref="V127:V132"/>
+    <mergeCell ref="W127:W132"/>
+    <mergeCell ref="X127:X132"/>
+    <mergeCell ref="Y127:Y132"/>
+    <mergeCell ref="P127:P132"/>
+    <mergeCell ref="Q127:Q132"/>
+    <mergeCell ref="R127:R132"/>
+    <mergeCell ref="S127:S132"/>
+    <mergeCell ref="T127:T132"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="H127:H133"/>
+    <mergeCell ref="I127:I133"/>
+    <mergeCell ref="N127:N133"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="W115:W120"/>
+    <mergeCell ref="C115:C120"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="H110:H114"/>
+    <mergeCell ref="I110:I114"/>
+    <mergeCell ref="J110:J114"/>
+    <mergeCell ref="AB115:AB120"/>
+    <mergeCell ref="AA115:AA120"/>
+    <mergeCell ref="Z115:Z120"/>
+    <mergeCell ref="Y115:Y120"/>
+    <mergeCell ref="X115:X120"/>
+    <mergeCell ref="I115:I120"/>
+    <mergeCell ref="H115:H120"/>
+    <mergeCell ref="E115:E120"/>
+    <mergeCell ref="R115:R120"/>
+    <mergeCell ref="Q115:Q120"/>
+    <mergeCell ref="P115:P120"/>
+    <mergeCell ref="F115:F120"/>
+    <mergeCell ref="O115:O120"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="N92:N99"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="AE68:AE71"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="J81:J85"/>
+    <mergeCell ref="I81:I85"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="H81:H85"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
     <mergeCell ref="AA92:AA99"/>
     <mergeCell ref="AB92:AB99"/>
     <mergeCell ref="AC92:AC99"/>
@@ -9476,81 +9726,41 @@
     <mergeCell ref="K92:K99"/>
     <mergeCell ref="L92:L99"/>
     <mergeCell ref="M92:M99"/>
-    <mergeCell ref="N92:N99"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AE68:AE71"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="J81:J85"/>
-    <mergeCell ref="I81:I85"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="H81:H85"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="W115:W120"/>
-    <mergeCell ref="C115:C120"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="H110:H114"/>
-    <mergeCell ref="I110:I114"/>
-    <mergeCell ref="J110:J114"/>
-    <mergeCell ref="AB115:AB120"/>
-    <mergeCell ref="AA115:AA120"/>
-    <mergeCell ref="Z115:Z120"/>
-    <mergeCell ref="Y115:Y120"/>
-    <mergeCell ref="X115:X120"/>
-    <mergeCell ref="I115:I120"/>
-    <mergeCell ref="H115:H120"/>
-    <mergeCell ref="E115:E120"/>
-    <mergeCell ref="R115:R120"/>
-    <mergeCell ref="Q115:Q120"/>
-    <mergeCell ref="P115:P120"/>
-    <mergeCell ref="F115:F120"/>
-    <mergeCell ref="O115:O120"/>
-    <mergeCell ref="P127:P132"/>
-    <mergeCell ref="Q127:Q132"/>
-    <mergeCell ref="R127:R132"/>
-    <mergeCell ref="S127:S132"/>
-    <mergeCell ref="T127:T132"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="H127:H133"/>
-    <mergeCell ref="I127:I133"/>
-    <mergeCell ref="N127:N133"/>
-    <mergeCell ref="Z127:Z132"/>
-    <mergeCell ref="AA127:AA132"/>
-    <mergeCell ref="AB127:AB132"/>
-    <mergeCell ref="AC127:AC132"/>
-    <mergeCell ref="U127:U132"/>
-    <mergeCell ref="V127:V132"/>
-    <mergeCell ref="W127:W132"/>
-    <mergeCell ref="X127:X132"/>
-    <mergeCell ref="Y127:Y132"/>
+    <mergeCell ref="AE110:AE114"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="AC110:AC114"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:L125"/>
+    <mergeCell ref="AE124:AE125"/>
+    <mergeCell ref="AE115:AE120"/>
+    <mergeCell ref="N115:N120"/>
+    <mergeCell ref="M115:M120"/>
+    <mergeCell ref="L115:L120"/>
+    <mergeCell ref="K115:K120"/>
+    <mergeCell ref="J115:J120"/>
+    <mergeCell ref="V115:V120"/>
+    <mergeCell ref="U115:U120"/>
+    <mergeCell ref="T115:T120"/>
+    <mergeCell ref="S115:S120"/>
+    <mergeCell ref="AD115:AD120"/>
+    <mergeCell ref="AC115:AC120"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="M148:M149"/>
+    <mergeCell ref="L148:L149"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/AE_run_summary.xlsx
+++ b/AE_run_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D0CC1E-CD7D-924C-A8E9-A4C050DF33C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17069C28-994F-7C4F-9B05-ADEC34DD40FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{77BEA265-74CB-F24A-890C-09C5DFE2D3CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="365">
   <si>
     <t>case</t>
   </si>
@@ -1033,7 +1033,103 @@
     <t>perlmutter_7099.sh</t>
   </si>
   <si>
-    <t xml:space="preserve">rerun with longer time </t>
+    <t>perlmutter_7097.sh</t>
+  </si>
+  <si>
+    <t>group_go_7099.py</t>
+  </si>
+  <si>
+    <t>First test with orbit recording. This one had the wrong mode of recording, it should have been go but it was GC</t>
+  </si>
+  <si>
+    <t>group_go_7100.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7100.sh</t>
+  </si>
+  <si>
+    <t>Now running with MHD off</t>
+  </si>
+  <si>
+    <t>group_go_7101.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7101.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More NR. Did not run due to segmentation fault. </t>
+  </si>
+  <si>
+    <t>Retry with 2 nodes. Did not work</t>
+  </si>
+  <si>
+    <t>group_go_7102.py</t>
+  </si>
+  <si>
+    <t>Slight increase of Nmrk</t>
+  </si>
+  <si>
+    <t>More NR. Incorrect setup</t>
+  </si>
+  <si>
+    <t>Correct setup</t>
+  </si>
+  <si>
+    <t>perlmutter_7102.sh</t>
+  </si>
+  <si>
+    <t>group_go_7103.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7103.sh</t>
+  </si>
+  <si>
+    <t>group_go_7104.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7104.sh</t>
+  </si>
+  <si>
+    <t>Increased Nmrk to 10. Reduced the size of orbit_write_points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased Nmrk to 10. It terminated, could it because I used the debug queue? </t>
+  </si>
+  <si>
+    <t>No, the regular queue still coud not run</t>
+  </si>
+  <si>
+    <t>group_go_7105.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7105.sh</t>
+  </si>
+  <si>
+    <t>Launching 20 markers at the same place. It is a little baffling how this one took about the same time as 7102 and same memory size</t>
+  </si>
+  <si>
+    <t>Record Orbit</t>
+  </si>
+  <si>
+    <t>rerun with longer time. Note, I think this perlmutter.sh file was accidentally removed by me</t>
+  </si>
+  <si>
+    <t>group_go_7106.py</t>
+  </si>
+  <si>
+    <t>perlmutter_7106.sh</t>
+  </si>
+  <si>
+    <t>Running Alexa's 6600 Nmrk set sent on 07/17/23</t>
+  </si>
+  <si>
+    <t>group_go_7107.py</t>
+  </si>
+  <si>
+    <t>group_go_7108.py</t>
+  </si>
+  <si>
+    <t>Flat profile to test the pivot's true existence</t>
   </si>
 </sst>
 </file>
@@ -1352,16 +1448,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1373,24 +1469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,8 +1478,14 @@
     <xf numFmtId="21" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1412,14 +1496,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1475,26 +1568,29 @@
     <xf numFmtId="21" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,13 +1913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BE43D-159D-4D30-A297-AE35C194293D}">
-  <dimension ref="A1:AR156"/>
+  <dimension ref="A1:AR170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
+      <selection pane="bottomRight" activeCell="N173" sqref="N173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1878,20 +1974,20 @@
       <c r="Q2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="59" t="s">
+      <c r="S2" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="59" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="61"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="60"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -3178,7 +3274,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="55" t="s">
         <v>143</v>
       </c>
       <c r="C28" s="4">
@@ -3255,7 +3351,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B29" s="57"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="4">
         <v>7014</v>
       </c>
@@ -3328,7 +3424,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B30" s="57"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="4">
         <v>7015</v>
       </c>
@@ -3401,7 +3497,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="57"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="4">
         <v>7015</v>
       </c>
@@ -3477,7 +3573,7 @@
       <c r="A32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="4">
         <v>7016</v>
       </c>
@@ -3550,7 +3646,7 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="58"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="4">
         <v>7017</v>
       </c>
@@ -3626,7 +3722,7 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="55" t="s">
         <v>142</v>
       </c>
       <c r="C34" s="9">
@@ -3701,7 +3797,7 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B35" s="57"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="9">
         <v>7019</v>
       </c>
@@ -3774,7 +3870,7 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B36" s="57"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="9">
         <v>7019</v>
       </c>
@@ -3847,7 +3943,7 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B37" s="57"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="9">
         <v>7020</v>
       </c>
@@ -3920,7 +4016,7 @@
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B38" s="57"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="9">
         <v>7021</v>
       </c>
@@ -3993,7 +4089,7 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B39" s="57"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="10">
         <v>7022</v>
       </c>
@@ -4066,7 +4162,7 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B40" s="57"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="10">
         <v>7023</v>
       </c>
@@ -4139,7 +4235,7 @@
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B41" s="57"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="9">
         <v>7024</v>
       </c>
@@ -4212,7 +4308,7 @@
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B42" s="58"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="9">
         <v>7025</v>
       </c>
@@ -4285,7 +4381,7 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="55" t="s">
         <v>155</v>
       </c>
       <c r="C43" s="10">
@@ -4311,7 +4407,7 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="4">
         <v>7027</v>
       </c>
@@ -4329,7 +4425,7 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B45" s="57"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="4">
         <v>7028</v>
       </c>
@@ -4399,7 +4495,7 @@
       <c r="A46" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="9">
         <v>7029</v>
       </c>
@@ -4475,7 +4571,7 @@
       <c r="A47" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="10">
         <v>7029</v>
       </c>
@@ -4548,7 +4644,7 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B48" s="58"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="10">
         <v>7030</v>
       </c>
@@ -5692,36 +5788,36 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="30">
+      <c r="C68" s="31">
         <v>7043</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="31">
         <v>11239990</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="31" t="s">
         <v>96</v>
       </c>
       <c r="G68" s="27"/>
-      <c r="H68" s="30" t="s">
+      <c r="H68" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="I68" s="30" t="s">
+      <c r="I68" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J68" s="30" t="s">
+      <c r="J68" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="K68" s="32">
-        <v>1</v>
-      </c>
-      <c r="N68" s="43">
+      <c r="K68" s="49">
+        <v>1</v>
+      </c>
+      <c r="N68" s="37">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="O68" s="7"/>
-      <c r="P68" s="30">
+      <c r="P68" s="31">
         <v>0.01</v>
       </c>
-      <c r="Q68" s="30">
+      <c r="Q68" s="31">
         <v>360</v>
       </c>
       <c r="R68" s="1" t="s">
@@ -5760,7 +5856,7 @@
       <c r="AC68" s="5">
         <v>736</v>
       </c>
-      <c r="AE68" s="62" t="s">
+      <c r="AE68" s="61" t="s">
         <v>211</v>
       </c>
       <c r="AH68" s="1">
@@ -5768,18 +5864,18 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="33"/>
-      <c r="N69" s="45"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="AE69" s="63"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="51"/>
+      <c r="N69" s="39"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="AE69" s="62"/>
       <c r="AF69" s="1">
         <v>187870</v>
       </c>
@@ -5788,13 +5884,13 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C70" s="30">
+      <c r="C70" s="31">
         <v>7044</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="31">
         <v>11241702</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -5803,17 +5899,17 @@
       <c r="I70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J70" s="30" t="s">
+      <c r="J70" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="K70" s="32">
-        <v>1</v>
-      </c>
-      <c r="N70" s="69">
+      <c r="K70" s="49">
+        <v>1</v>
+      </c>
+      <c r="N70" s="68">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="O70" s="11"/>
-      <c r="P70" s="30">
+      <c r="P70" s="31">
         <v>0.01</v>
       </c>
       <c r="Q70" s="1">
@@ -5855,17 +5951,17 @@
       <c r="AC70" s="5">
         <v>736</v>
       </c>
-      <c r="AE70" s="63"/>
+      <c r="AE70" s="62"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="33"/>
-      <c r="N71" s="70"/>
-      <c r="P71" s="31"/>
-      <c r="AE71" s="64"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="51"/>
+      <c r="N71" s="69"/>
+      <c r="P71" s="33"/>
+      <c r="AE71" s="63"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C72" s="1">
@@ -6120,10 +6216,10 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B77" s="65" t="s">
+      <c r="B77" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="47">
+      <c r="C77" s="43">
         <v>7042</v>
       </c>
       <c r="D77" s="1">
@@ -6137,8 +6233,8 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B78" s="57"/>
-      <c r="C78" s="48"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="44"/>
       <c r="D78" s="1">
         <v>11245536</v>
       </c>
@@ -6150,8 +6246,8 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B79" s="58"/>
-      <c r="C79" s="49"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="1">
         <v>11245555</v>
       </c>
@@ -6235,10 +6331,10 @@
       <c r="A81" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="66">
+      <c r="C81" s="65">
         <v>7055</v>
       </c>
       <c r="D81" s="1">
@@ -6248,13 +6344,13 @@
         <v>96</v>
       </c>
       <c r="G81" s="27"/>
-      <c r="H81" s="47" t="s">
+      <c r="H81" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="I81" s="47" t="s">
+      <c r="I81" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="J81" s="47" t="s">
+      <c r="J81" s="43" t="s">
         <v>228</v>
       </c>
       <c r="K81" s="6">
@@ -6311,8 +6407,8 @@
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B82" s="57"/>
-      <c r="C82" s="67"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="1">
         <v>11247390</v>
       </c>
@@ -6320,13 +6416,13 @@
         <v>96</v>
       </c>
       <c r="G82" s="28"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B83" s="57"/>
-      <c r="C83" s="67"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="1">
         <v>11247392</v>
       </c>
@@ -6334,13 +6430,13 @@
         <v>96</v>
       </c>
       <c r="G83" s="28"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B84" s="57"/>
-      <c r="C84" s="67"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="1">
         <v>11247395</v>
       </c>
@@ -6348,13 +6444,13 @@
         <v>96</v>
       </c>
       <c r="G84" s="28"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B85" s="58"/>
-      <c r="C85" s="68"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="67"/>
       <c r="D85" s="1">
         <v>11247398</v>
       </c>
@@ -6362,9 +6458,9 @@
         <v>96</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C86" s="15">
@@ -6477,13 +6573,13 @@
         <v>34</v>
       </c>
       <c r="G89" s="27"/>
-      <c r="H89" s="30" t="s">
+      <c r="H89" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="I89" s="30" t="s">
+      <c r="I89" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="J89" s="30" t="s">
+      <c r="J89" s="31" t="s">
         <v>191</v>
       </c>
       <c r="K89" s="6">
@@ -6547,9 +6643,9 @@
         <v>96</v>
       </c>
       <c r="G90" s="28"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D91" s="1">
@@ -6559,86 +6655,86 @@
         <v>34</v>
       </c>
       <c r="G91" s="29"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B92" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="71">
+      <c r="C92" s="40">
         <v>7057</v>
       </c>
       <c r="D92" s="1">
         <v>11265989</v>
       </c>
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F92" s="47"/>
+      <c r="F92" s="43"/>
       <c r="G92" s="27"/>
-      <c r="H92" s="47" t="s">
+      <c r="H92" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="I92" s="47" t="s">
+      <c r="I92" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="J92" s="47" t="s">
+      <c r="J92" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="K92" s="50">
-        <v>1</v>
-      </c>
-      <c r="L92" s="50"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="53">
+      <c r="K92" s="70">
+        <v>1</v>
+      </c>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
+      <c r="N92" s="52">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="O92" s="16"/>
-      <c r="P92" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="47">
+      <c r="P92" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="43">
         <v>360</v>
       </c>
-      <c r="R92" s="47" t="s">
+      <c r="R92" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="S92" s="47" t="s">
+      <c r="S92" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="T92" s="47" t="s">
+      <c r="T92" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="U92" s="47" t="s">
+      <c r="U92" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="47" t="s">
+      <c r="V92" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="W92" s="47">
+      <c r="W92" s="43">
         <v>18</v>
       </c>
-      <c r="X92" s="47">
+      <c r="X92" s="43">
         <v>36</v>
       </c>
-      <c r="Y92" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z92" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA92" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB92" s="47">
-        <v>1</v>
-      </c>
-      <c r="AC92" s="47">
+      <c r="Y92" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="43">
         <v>290</v>
       </c>
-      <c r="AE92" s="47" t="s">
+      <c r="AE92" s="43" t="s">
         <v>247</v>
       </c>
       <c r="AF92" s="1">
@@ -6656,36 +6752,36 @@
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B93" s="35"/>
-      <c r="C93" s="72"/>
+      <c r="C93" s="41"/>
       <c r="D93" s="1">
         <v>11274790</v>
       </c>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
       <c r="G93" s="28"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="51"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="54"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="71"/>
+      <c r="N93" s="53"/>
       <c r="O93" s="17"/>
-      <c r="P93" s="48"/>
-      <c r="Q93" s="48"/>
-      <c r="R93" s="48"/>
-      <c r="S93" s="48"/>
-      <c r="T93" s="48"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="48"/>
-      <c r="W93" s="48"/>
-      <c r="X93" s="48"/>
-      <c r="Y93" s="48"/>
-      <c r="Z93" s="48"/>
-      <c r="AA93" s="48"/>
-      <c r="AB93" s="48"/>
-      <c r="AC93" s="48"/>
-      <c r="AE93" s="48"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="44"/>
+      <c r="S93" s="44"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="44"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="44"/>
+      <c r="Z93" s="44"/>
+      <c r="AA93" s="44"/>
+      <c r="AB93" s="44"/>
+      <c r="AC93" s="44"/>
+      <c r="AE93" s="44"/>
       <c r="AF93" s="1">
         <v>57526</v>
       </c>
@@ -6701,36 +6797,36 @@
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B94" s="35"/>
-      <c r="C94" s="72"/>
+      <c r="C94" s="41"/>
       <c r="D94" s="1">
         <v>11274796</v>
       </c>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
       <c r="G94" s="28"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="51"/>
-      <c r="M94" s="51"/>
-      <c r="N94" s="54"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="71"/>
+      <c r="M94" s="71"/>
+      <c r="N94" s="53"/>
       <c r="O94" s="17"/>
-      <c r="P94" s="48"/>
-      <c r="Q94" s="48"/>
-      <c r="R94" s="48"/>
-      <c r="S94" s="48"/>
-      <c r="T94" s="48"/>
-      <c r="U94" s="48"/>
-      <c r="V94" s="48"/>
-      <c r="W94" s="48"/>
-      <c r="X94" s="48"/>
-      <c r="Y94" s="48"/>
-      <c r="Z94" s="48"/>
-      <c r="AA94" s="48"/>
-      <c r="AB94" s="48"/>
-      <c r="AC94" s="48"/>
-      <c r="AE94" s="48"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="44"/>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="44"/>
+      <c r="Z94" s="44"/>
+      <c r="AA94" s="44"/>
+      <c r="AB94" s="44"/>
+      <c r="AC94" s="44"/>
+      <c r="AE94" s="44"/>
       <c r="AG94" s="1">
         <v>2.66</v>
       </c>
@@ -6743,36 +6839,36 @@
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B95" s="35"/>
-      <c r="C95" s="72"/>
+      <c r="C95" s="41"/>
       <c r="D95" s="1">
         <v>11275719</v>
       </c>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
       <c r="G95" s="28"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="51"/>
-      <c r="L95" s="51"/>
-      <c r="M95" s="51"/>
-      <c r="N95" s="54"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71"/>
+      <c r="M95" s="71"/>
+      <c r="N95" s="53"/>
       <c r="O95" s="17"/>
-      <c r="P95" s="48"/>
-      <c r="Q95" s="48"/>
-      <c r="R95" s="48"/>
-      <c r="S95" s="48"/>
-      <c r="T95" s="48"/>
-      <c r="U95" s="48"/>
-      <c r="V95" s="48"/>
-      <c r="W95" s="48"/>
-      <c r="X95" s="48"/>
-      <c r="Y95" s="48"/>
-      <c r="Z95" s="48"/>
-      <c r="AA95" s="48"/>
-      <c r="AB95" s="48"/>
-      <c r="AC95" s="48"/>
-      <c r="AE95" s="48"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="44"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="44"/>
+      <c r="X95" s="44"/>
+      <c r="Y95" s="44"/>
+      <c r="Z95" s="44"/>
+      <c r="AA95" s="44"/>
+      <c r="AB95" s="44"/>
+      <c r="AC95" s="44"/>
+      <c r="AE95" s="44"/>
       <c r="AH95" s="1">
         <v>81152</v>
       </c>
@@ -6782,36 +6878,36 @@
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B96" s="35"/>
-      <c r="C96" s="72"/>
+      <c r="C96" s="41"/>
       <c r="D96" s="1">
         <v>11275722</v>
       </c>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
       <c r="G96" s="28"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="54"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="53"/>
       <c r="O96" s="17"/>
-      <c r="P96" s="48"/>
-      <c r="Q96" s="48"/>
-      <c r="R96" s="48"/>
-      <c r="S96" s="48"/>
-      <c r="T96" s="48"/>
-      <c r="U96" s="48"/>
-      <c r="V96" s="48"/>
-      <c r="W96" s="48"/>
-      <c r="X96" s="48"/>
-      <c r="Y96" s="48"/>
-      <c r="Z96" s="48"/>
-      <c r="AA96" s="48"/>
-      <c r="AB96" s="48"/>
-      <c r="AC96" s="48"/>
-      <c r="AE96" s="48"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
+      <c r="S96" s="44"/>
+      <c r="T96" s="44"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="44"/>
+      <c r="W96" s="44"/>
+      <c r="X96" s="44"/>
+      <c r="Y96" s="44"/>
+      <c r="Z96" s="44"/>
+      <c r="AA96" s="44"/>
+      <c r="AB96" s="44"/>
+      <c r="AC96" s="44"/>
+      <c r="AE96" s="44"/>
       <c r="AH96" s="1">
         <v>87296</v>
       </c>
@@ -6821,36 +6917,36 @@
     </row>
     <row r="97" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B97" s="35"/>
-      <c r="C97" s="72"/>
+      <c r="C97" s="41"/>
       <c r="D97" s="1">
         <v>11275725</v>
       </c>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
       <c r="G97" s="28"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="48"/>
-      <c r="K97" s="51"/>
-      <c r="L97" s="51"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="54"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="53"/>
       <c r="O97" s="17"/>
-      <c r="P97" s="48"/>
-      <c r="Q97" s="48"/>
-      <c r="R97" s="48"/>
-      <c r="S97" s="48"/>
-      <c r="T97" s="48"/>
-      <c r="U97" s="48"/>
-      <c r="V97" s="48"/>
-      <c r="W97" s="48"/>
-      <c r="X97" s="48"/>
-      <c r="Y97" s="48"/>
-      <c r="Z97" s="48"/>
-      <c r="AA97" s="48"/>
-      <c r="AB97" s="48"/>
-      <c r="AC97" s="48"/>
-      <c r="AE97" s="48"/>
+      <c r="P97" s="44"/>
+      <c r="Q97" s="44"/>
+      <c r="R97" s="44"/>
+      <c r="S97" s="44"/>
+      <c r="T97" s="44"/>
+      <c r="U97" s="44"/>
+      <c r="V97" s="44"/>
+      <c r="W97" s="44"/>
+      <c r="X97" s="44"/>
+      <c r="Y97" s="44"/>
+      <c r="Z97" s="44"/>
+      <c r="AA97" s="44"/>
+      <c r="AB97" s="44"/>
+      <c r="AC97" s="44"/>
+      <c r="AE97" s="44"/>
       <c r="AH97" s="1">
         <v>80128</v>
       </c>
@@ -6860,36 +6956,36 @@
     </row>
     <row r="98" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B98" s="35"/>
-      <c r="C98" s="72"/>
+      <c r="C98" s="41"/>
       <c r="D98" s="1">
         <v>11275729</v>
       </c>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
       <c r="G98" s="28"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="54"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="71"/>
+      <c r="M98" s="71"/>
+      <c r="N98" s="53"/>
       <c r="O98" s="17"/>
-      <c r="P98" s="48"/>
-      <c r="Q98" s="48"/>
-      <c r="R98" s="48"/>
-      <c r="S98" s="48"/>
-      <c r="T98" s="48"/>
-      <c r="U98" s="48"/>
-      <c r="V98" s="48"/>
-      <c r="W98" s="48"/>
-      <c r="X98" s="48"/>
-      <c r="Y98" s="48"/>
-      <c r="Z98" s="48"/>
-      <c r="AA98" s="48"/>
-      <c r="AB98" s="48"/>
-      <c r="AC98" s="48"/>
-      <c r="AE98" s="48"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="44"/>
+      <c r="S98" s="44"/>
+      <c r="T98" s="44"/>
+      <c r="U98" s="44"/>
+      <c r="V98" s="44"/>
+      <c r="W98" s="44"/>
+      <c r="X98" s="44"/>
+      <c r="Y98" s="44"/>
+      <c r="Z98" s="44"/>
+      <c r="AA98" s="44"/>
+      <c r="AB98" s="44"/>
+      <c r="AC98" s="44"/>
+      <c r="AE98" s="44"/>
       <c r="AH98" s="1">
         <v>77312</v>
       </c>
@@ -6899,36 +6995,36 @@
     </row>
     <row r="99" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B99" s="36"/>
-      <c r="C99" s="73"/>
+      <c r="C99" s="42"/>
       <c r="D99" s="1">
         <v>11275731</v>
       </c>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
       <c r="G99" s="29"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="55"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="54"/>
       <c r="O99" s="18"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="49"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="49"/>
-      <c r="T99" s="49"/>
-      <c r="U99" s="49"/>
-      <c r="V99" s="49"/>
-      <c r="W99" s="49"/>
-      <c r="X99" s="49"/>
-      <c r="Y99" s="49"/>
-      <c r="Z99" s="49"/>
-      <c r="AA99" s="49"/>
-      <c r="AB99" s="49"/>
-      <c r="AC99" s="49"/>
-      <c r="AE99" s="49"/>
+      <c r="P99" s="45"/>
+      <c r="Q99" s="45"/>
+      <c r="R99" s="45"/>
+      <c r="S99" s="45"/>
+      <c r="T99" s="45"/>
+      <c r="U99" s="45"/>
+      <c r="V99" s="45"/>
+      <c r="W99" s="45"/>
+      <c r="X99" s="45"/>
+      <c r="Y99" s="45"/>
+      <c r="Z99" s="45"/>
+      <c r="AA99" s="45"/>
+      <c r="AB99" s="45"/>
+      <c r="AC99" s="45"/>
+      <c r="AE99" s="45"/>
       <c r="AH99" s="1">
         <v>78848</v>
       </c>
@@ -7046,7 +7142,7 @@
       </c>
     </row>
     <row r="105" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C105" s="47">
+      <c r="C105" s="43">
         <v>7062</v>
       </c>
       <c r="D105" s="1">
@@ -7066,13 +7162,13 @@
       </c>
     </row>
     <row r="106" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C106" s="49"/>
+      <c r="C106" s="45"/>
       <c r="D106" s="1">
         <v>11313957</v>
       </c>
     </row>
     <row r="107" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C107" s="30">
+      <c r="C107" s="31">
         <v>7063</v>
       </c>
       <c r="D107" s="1">
@@ -7081,32 +7177,32 @@
       <c r="E107" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K107" s="32">
-        <v>1</v>
-      </c>
-      <c r="L107" s="32">
+      <c r="K107" s="49">
+        <v>1</v>
+      </c>
+      <c r="L107" s="49">
         <v>2</v>
       </c>
-      <c r="M107" s="32">
+      <c r="M107" s="49">
         <v>128</v>
       </c>
-      <c r="N107" s="38">
+      <c r="N107" s="73">
         <v>1.0416666666666667</v>
       </c>
       <c r="O107" s="21"/>
     </row>
     <row r="108" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C108" s="31"/>
+      <c r="C108" s="33"/>
       <c r="D108" s="1">
         <v>11314561</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="33"/>
-      <c r="N108" s="39"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="74"/>
       <c r="O108" s="22"/>
       <c r="AE108" s="19" t="s">
         <v>267</v>
@@ -7185,20 +7281,20 @@
       </c>
     </row>
     <row r="110" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C110" s="74">
+      <c r="C110" s="46">
         <v>7065</v>
       </c>
       <c r="D110" s="1">
         <v>11316014</v>
       </c>
       <c r="G110" s="27"/>
-      <c r="H110" s="30" t="s">
+      <c r="H110" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="I110" s="30" t="s">
+      <c r="I110" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J110" s="30" t="s">
+      <c r="J110" s="31" t="s">
         <v>249</v>
       </c>
       <c r="K110" s="6">
@@ -7253,7 +7349,7 @@
       <c r="AB110" s="1">
         <v>1</v>
       </c>
-      <c r="AC110" s="37">
+      <c r="AC110" s="32">
         <v>290</v>
       </c>
       <c r="AE110" s="34" t="s">
@@ -7267,60 +7363,60 @@
       </c>
     </row>
     <row r="111" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C111" s="75"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="1">
         <v>11316015</v>
       </c>
       <c r="G111" s="28"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
-      <c r="AC111" s="37"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="AC111" s="32"/>
       <c r="AE111" s="35"/>
       <c r="AH111" s="1">
         <v>102656</v>
       </c>
     </row>
     <row r="112" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C112" s="75"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="1">
         <v>11316019</v>
       </c>
       <c r="G112" s="28"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
-      <c r="AC112" s="37"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="AC112" s="32"/>
       <c r="AE112" s="35"/>
       <c r="AH112" s="1">
         <v>98048</v>
       </c>
     </row>
     <row r="113" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C113" s="75"/>
+      <c r="C113" s="47"/>
       <c r="D113" s="1">
         <v>11316020</v>
       </c>
       <c r="G113" s="28"/>
-      <c r="H113" s="37"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
-      <c r="AC113" s="37"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="AC113" s="32"/>
       <c r="AE113" s="35"/>
       <c r="AH113" s="1">
         <v>98048</v>
       </c>
     </row>
     <row r="114" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C114" s="76"/>
+      <c r="C114" s="48"/>
       <c r="D114" s="1">
         <v>11316021</v>
       </c>
       <c r="G114" s="29"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
-      <c r="AC114" s="31"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="AC114" s="33"/>
       <c r="AE114" s="36"/>
       <c r="AH114" s="1">
         <v>97536</v>
@@ -7333,85 +7429,85 @@
       </c>
     </row>
     <row r="115" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C115" s="74">
+      <c r="C115" s="46">
         <v>7066</v>
       </c>
       <c r="D115" s="1">
         <v>11317009</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F115" s="30"/>
+      <c r="F115" s="31"/>
       <c r="G115" s="24"/>
-      <c r="H115" s="30" t="s">
+      <c r="H115" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="I115" s="30" t="s">
+      <c r="I115" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="J115" s="30" t="s">
+      <c r="J115" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="K115" s="32">
-        <v>1</v>
-      </c>
-      <c r="L115" s="32">
-        <v>1</v>
-      </c>
-      <c r="M115" s="32">
+      <c r="K115" s="49">
+        <v>1</v>
+      </c>
+      <c r="L115" s="49">
+        <v>1</v>
+      </c>
+      <c r="M115" s="49">
         <v>256</v>
       </c>
-      <c r="N115" s="43">
+      <c r="N115" s="37">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="O115" s="32">
+      <c r="O115" s="49">
         <v>256</v>
       </c>
-      <c r="P115" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="30">
+      <c r="P115" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="31">
         <v>360</v>
       </c>
-      <c r="R115" s="30" t="s">
+      <c r="R115" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="S115" s="30" t="s">
+      <c r="S115" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="T115" s="30" t="s">
+      <c r="T115" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U115" s="30" t="s">
+      <c r="U115" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="30" t="s">
+      <c r="V115" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="W115" s="30">
+      <c r="W115" s="31">
         <v>18</v>
       </c>
-      <c r="X115" s="30">
+      <c r="X115" s="31">
         <v>36</v>
       </c>
-      <c r="Y115" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z115" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA115" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB115" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC115" s="30">
+      <c r="Y115" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z115" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB115" s="31">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="31">
         <v>290</v>
       </c>
-      <c r="AD115" s="30"/>
-      <c r="AE115" s="40" t="s">
+      <c r="AD115" s="31"/>
+      <c r="AE115" s="75" t="s">
         <v>262</v>
       </c>
       <c r="AH115" s="1">
@@ -7422,37 +7518,37 @@
       </c>
     </row>
     <row r="116" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C116" s="75"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="1">
         <v>11317979</v>
       </c>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
       <c r="G116" s="25"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="N116" s="44"/>
-      <c r="O116" s="46"/>
-      <c r="P116" s="37"/>
-      <c r="Q116" s="37"/>
-      <c r="R116" s="37"/>
-      <c r="S116" s="37"/>
-      <c r="T116" s="37"/>
-      <c r="U116" s="37"/>
-      <c r="V116" s="37"/>
-      <c r="W116" s="37"/>
-      <c r="X116" s="37"/>
-      <c r="Y116" s="37"/>
-      <c r="Z116" s="37"/>
-      <c r="AA116" s="37"/>
-      <c r="AB116" s="37"/>
-      <c r="AC116" s="37"/>
-      <c r="AD116" s="37"/>
-      <c r="AE116" s="41"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="50"/>
+      <c r="M116" s="50"/>
+      <c r="N116" s="38"/>
+      <c r="O116" s="50"/>
+      <c r="P116" s="32"/>
+      <c r="Q116" s="32"/>
+      <c r="R116" s="32"/>
+      <c r="S116" s="32"/>
+      <c r="T116" s="32"/>
+      <c r="U116" s="32"/>
+      <c r="V116" s="32"/>
+      <c r="W116" s="32"/>
+      <c r="X116" s="32"/>
+      <c r="Y116" s="32"/>
+      <c r="Z116" s="32"/>
+      <c r="AA116" s="32"/>
+      <c r="AB116" s="32"/>
+      <c r="AC116" s="32"/>
+      <c r="AD116" s="32"/>
+      <c r="AE116" s="76"/>
       <c r="AH116" s="1">
         <v>101632</v>
       </c>
@@ -7461,37 +7557,37 @@
       </c>
     </row>
     <row r="117" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C117" s="75"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="1">
         <v>11317981</v>
       </c>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
       <c r="G117" s="25"/>
-      <c r="H117" s="37"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="46"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="46"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="46"/>
-      <c r="P117" s="37"/>
-      <c r="Q117" s="37"/>
-      <c r="R117" s="37"/>
-      <c r="S117" s="37"/>
-      <c r="T117" s="37"/>
-      <c r="U117" s="37"/>
-      <c r="V117" s="37"/>
-      <c r="W117" s="37"/>
-      <c r="X117" s="37"/>
-      <c r="Y117" s="37"/>
-      <c r="Z117" s="37"/>
-      <c r="AA117" s="37"/>
-      <c r="AB117" s="37"/>
-      <c r="AC117" s="37"/>
-      <c r="AD117" s="37"/>
-      <c r="AE117" s="41"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="50"/>
+      <c r="L117" s="50"/>
+      <c r="M117" s="50"/>
+      <c r="N117" s="38"/>
+      <c r="O117" s="50"/>
+      <c r="P117" s="32"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="32"/>
+      <c r="T117" s="32"/>
+      <c r="U117" s="32"/>
+      <c r="V117" s="32"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
+      <c r="AA117" s="32"/>
+      <c r="AB117" s="32"/>
+      <c r="AC117" s="32"/>
+      <c r="AD117" s="32"/>
+      <c r="AE117" s="76"/>
       <c r="AH117" s="1">
         <v>103680</v>
       </c>
@@ -7500,37 +7596,37 @@
       </c>
     </row>
     <row r="118" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C118" s="75"/>
+      <c r="C118" s="47"/>
       <c r="D118" s="1">
         <v>11317982</v>
       </c>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
       <c r="G118" s="25"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="46"/>
-      <c r="L118" s="46"/>
-      <c r="M118" s="46"/>
-      <c r="N118" s="44"/>
-      <c r="O118" s="46"/>
-      <c r="P118" s="37"/>
-      <c r="Q118" s="37"/>
-      <c r="R118" s="37"/>
-      <c r="S118" s="37"/>
-      <c r="T118" s="37"/>
-      <c r="U118" s="37"/>
-      <c r="V118" s="37"/>
-      <c r="W118" s="37"/>
-      <c r="X118" s="37"/>
-      <c r="Y118" s="37"/>
-      <c r="Z118" s="37"/>
-      <c r="AA118" s="37"/>
-      <c r="AB118" s="37"/>
-      <c r="AC118" s="37"/>
-      <c r="AD118" s="37"/>
-      <c r="AE118" s="41"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="50"/>
+      <c r="L118" s="50"/>
+      <c r="M118" s="50"/>
+      <c r="N118" s="38"/>
+      <c r="O118" s="50"/>
+      <c r="P118" s="32"/>
+      <c r="Q118" s="32"/>
+      <c r="R118" s="32"/>
+      <c r="S118" s="32"/>
+      <c r="T118" s="32"/>
+      <c r="U118" s="32"/>
+      <c r="V118" s="32"/>
+      <c r="W118" s="32"/>
+      <c r="X118" s="32"/>
+      <c r="Y118" s="32"/>
+      <c r="Z118" s="32"/>
+      <c r="AA118" s="32"/>
+      <c r="AB118" s="32"/>
+      <c r="AC118" s="32"/>
+      <c r="AD118" s="32"/>
+      <c r="AE118" s="76"/>
       <c r="AH118" s="1">
         <v>105472</v>
       </c>
@@ -7539,37 +7635,37 @@
       </c>
     </row>
     <row r="119" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C119" s="75"/>
+      <c r="C119" s="47"/>
       <c r="D119" s="1">
         <v>11317983</v>
       </c>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
       <c r="G119" s="25"/>
-      <c r="H119" s="37"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="N119" s="44"/>
-      <c r="O119" s="46"/>
-      <c r="P119" s="37"/>
-      <c r="Q119" s="37"/>
-      <c r="R119" s="37"/>
-      <c r="S119" s="37"/>
-      <c r="T119" s="37"/>
-      <c r="U119" s="37"/>
-      <c r="V119" s="37"/>
-      <c r="W119" s="37"/>
-      <c r="X119" s="37"/>
-      <c r="Y119" s="37"/>
-      <c r="Z119" s="37"/>
-      <c r="AA119" s="37"/>
-      <c r="AB119" s="37"/>
-      <c r="AC119" s="37"/>
-      <c r="AD119" s="37"/>
-      <c r="AE119" s="41"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="50"/>
+      <c r="L119" s="50"/>
+      <c r="M119" s="50"/>
+      <c r="N119" s="38"/>
+      <c r="O119" s="50"/>
+      <c r="P119" s="32"/>
+      <c r="Q119" s="32"/>
+      <c r="R119" s="32"/>
+      <c r="S119" s="32"/>
+      <c r="T119" s="32"/>
+      <c r="U119" s="32"/>
+      <c r="V119" s="32"/>
+      <c r="W119" s="32"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
+      <c r="AA119" s="32"/>
+      <c r="AB119" s="32"/>
+      <c r="AC119" s="32"/>
+      <c r="AD119" s="32"/>
+      <c r="AE119" s="76"/>
       <c r="AH119" s="1">
         <v>98560</v>
       </c>
@@ -7578,37 +7674,37 @@
       </c>
     </row>
     <row r="120" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C120" s="76"/>
+      <c r="C120" s="48"/>
       <c r="D120" s="1">
         <v>11317984</v>
       </c>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
       <c r="G120" s="26"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
-      <c r="K120" s="33"/>
-      <c r="L120" s="33"/>
-      <c r="M120" s="33"/>
-      <c r="N120" s="45"/>
-      <c r="O120" s="33"/>
-      <c r="P120" s="31"/>
-      <c r="Q120" s="31"/>
-      <c r="R120" s="31"/>
-      <c r="S120" s="31"/>
-      <c r="T120" s="31"/>
-      <c r="U120" s="31"/>
-      <c r="V120" s="31"/>
-      <c r="W120" s="31"/>
-      <c r="X120" s="31"/>
-      <c r="Y120" s="31"/>
-      <c r="Z120" s="31"/>
-      <c r="AA120" s="31"/>
-      <c r="AB120" s="31"/>
-      <c r="AC120" s="31"/>
-      <c r="AD120" s="31"/>
-      <c r="AE120" s="42"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="39"/>
+      <c r="O120" s="51"/>
+      <c r="P120" s="33"/>
+      <c r="Q120" s="33"/>
+      <c r="R120" s="33"/>
+      <c r="S120" s="33"/>
+      <c r="T120" s="33"/>
+      <c r="U120" s="33"/>
+      <c r="V120" s="33"/>
+      <c r="W120" s="33"/>
+      <c r="X120" s="33"/>
+      <c r="Y120" s="33"/>
+      <c r="Z120" s="33"/>
+      <c r="AA120" s="33"/>
+      <c r="AB120" s="33"/>
+      <c r="AC120" s="33"/>
+      <c r="AD120" s="33"/>
+      <c r="AE120" s="77"/>
       <c r="AH120" s="1">
         <v>112640</v>
       </c>
@@ -7686,21 +7782,21 @@
       <c r="D124" s="1">
         <v>11328249</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="31" t="s">
         <v>34</v>
       </c>
       <c r="G124" s="27"/>
-      <c r="H124" s="30" t="s">
+      <c r="H124" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="I124" s="30" t="s">
+      <c r="I124" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J124" s="30" t="s">
+      <c r="J124" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="K124" s="32"/>
-      <c r="L124" s="32"/>
+      <c r="K124" s="49"/>
+      <c r="L124" s="49"/>
       <c r="AE124" s="34" t="s">
         <v>260</v>
       </c>
@@ -7712,13 +7808,13 @@
       <c r="D125" s="1">
         <v>11329110</v>
       </c>
-      <c r="E125" s="31"/>
+      <c r="E125" s="33"/>
       <c r="G125" s="29"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
-      <c r="K125" s="33"/>
-      <c r="L125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="51"/>
+      <c r="L125" s="51"/>
       <c r="AE125" s="36"/>
       <c r="AH125" s="1">
         <v>100608</v>
@@ -7746,10 +7842,10 @@
         <v>11351804</v>
       </c>
       <c r="G127" s="27"/>
-      <c r="H127" s="30" t="s">
+      <c r="H127" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="I127" s="30" t="s">
+      <c r="I127" s="31" t="s">
         <v>250</v>
       </c>
       <c r="J127" s="1" t="s">
@@ -7764,52 +7860,52 @@
       <c r="M127" s="6">
         <v>256</v>
       </c>
-      <c r="N127" s="43">
+      <c r="N127" s="37">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="O127" s="6">
         <v>1000</v>
       </c>
-      <c r="P127" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="30">
+      <c r="P127" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="31">
         <v>360</v>
       </c>
-      <c r="R127" s="30" t="s">
+      <c r="R127" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="S127" s="30" t="s">
+      <c r="S127" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="T127" s="30" t="s">
+      <c r="T127" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U127" s="30" t="s">
+      <c r="U127" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="30" t="s">
+      <c r="V127" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="W127" s="30">
+      <c r="W127" s="31">
         <v>18</v>
       </c>
-      <c r="X127" s="30">
+      <c r="X127" s="31">
         <v>36</v>
       </c>
-      <c r="Y127" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z127" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA127" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB127" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC127" s="30">
+      <c r="Y127" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA127" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB127" s="31">
+        <v>1</v>
+      </c>
+      <c r="AC127" s="31">
         <v>290</v>
       </c>
       <c r="AE127" s="1" t="s">
@@ -7837,8 +7933,8 @@
         <v>255</v>
       </c>
       <c r="G128" s="28"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
       <c r="J128" s="1" t="s">
         <v>268</v>
       </c>
@@ -7851,24 +7947,24 @@
       <c r="M128" s="6">
         <v>256</v>
       </c>
-      <c r="N128" s="44"/>
+      <c r="N128" s="38"/>
       <c r="O128" s="6">
         <v>1000</v>
       </c>
-      <c r="P128" s="37"/>
-      <c r="Q128" s="37"/>
-      <c r="R128" s="37"/>
-      <c r="S128" s="37"/>
-      <c r="T128" s="37"/>
-      <c r="U128" s="37"/>
-      <c r="V128" s="37"/>
-      <c r="W128" s="37"/>
-      <c r="X128" s="37"/>
-      <c r="Y128" s="37"/>
-      <c r="Z128" s="37"/>
-      <c r="AA128" s="37"/>
-      <c r="AB128" s="37"/>
-      <c r="AC128" s="37"/>
+      <c r="P128" s="32"/>
+      <c r="Q128" s="32"/>
+      <c r="R128" s="32"/>
+      <c r="S128" s="32"/>
+      <c r="T128" s="32"/>
+      <c r="U128" s="32"/>
+      <c r="V128" s="32"/>
+      <c r="W128" s="32"/>
+      <c r="X128" s="32"/>
+      <c r="Y128" s="32"/>
+      <c r="Z128" s="32"/>
+      <c r="AA128" s="32"/>
+      <c r="AB128" s="32"/>
+      <c r="AC128" s="32"/>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B129" s="35"/>
@@ -7882,8 +7978,8 @@
         <v>34</v>
       </c>
       <c r="G129" s="28"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
       <c r="J129" s="1" t="s">
         <v>270</v>
       </c>
@@ -7896,24 +7992,24 @@
       <c r="M129" s="6">
         <v>128</v>
       </c>
-      <c r="N129" s="44"/>
+      <c r="N129" s="38"/>
       <c r="O129" s="6">
         <v>1000</v>
       </c>
-      <c r="P129" s="37"/>
-      <c r="Q129" s="37"/>
-      <c r="R129" s="37"/>
-      <c r="S129" s="37"/>
-      <c r="T129" s="37"/>
-      <c r="U129" s="37"/>
-      <c r="V129" s="37"/>
-      <c r="W129" s="37"/>
-      <c r="X129" s="37"/>
-      <c r="Y129" s="37"/>
-      <c r="Z129" s="37"/>
-      <c r="AA129" s="37"/>
-      <c r="AB129" s="37"/>
-      <c r="AC129" s="37"/>
+      <c r="P129" s="32"/>
+      <c r="Q129" s="32"/>
+      <c r="R129" s="32"/>
+      <c r="S129" s="32"/>
+      <c r="T129" s="32"/>
+      <c r="U129" s="32"/>
+      <c r="V129" s="32"/>
+      <c r="W129" s="32"/>
+      <c r="X129" s="32"/>
+      <c r="Y129" s="32"/>
+      <c r="Z129" s="32"/>
+      <c r="AA129" s="32"/>
+      <c r="AB129" s="32"/>
+      <c r="AC129" s="32"/>
       <c r="AG129" s="1">
         <v>3.3</v>
       </c>
@@ -7942,8 +8038,8 @@
         <v>34</v>
       </c>
       <c r="G130" s="28"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
       <c r="J130" s="1" t="s">
         <v>271</v>
       </c>
@@ -7956,24 +8052,24 @@
       <c r="M130" s="6">
         <v>64</v>
       </c>
-      <c r="N130" s="44"/>
+      <c r="N130" s="38"/>
       <c r="O130" s="6">
         <v>1000</v>
       </c>
-      <c r="P130" s="37"/>
-      <c r="Q130" s="37"/>
-      <c r="R130" s="37"/>
-      <c r="S130" s="37"/>
-      <c r="T130" s="37"/>
-      <c r="U130" s="37"/>
-      <c r="V130" s="37"/>
-      <c r="W130" s="37"/>
-      <c r="X130" s="37"/>
-      <c r="Y130" s="37"/>
-      <c r="Z130" s="37"/>
-      <c r="AA130" s="37"/>
-      <c r="AB130" s="37"/>
-      <c r="AC130" s="37"/>
+      <c r="P130" s="32"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="32"/>
+      <c r="S130" s="32"/>
+      <c r="T130" s="32"/>
+      <c r="U130" s="32"/>
+      <c r="V130" s="32"/>
+      <c r="W130" s="32"/>
+      <c r="X130" s="32"/>
+      <c r="Y130" s="32"/>
+      <c r="Z130" s="32"/>
+      <c r="AA130" s="32"/>
+      <c r="AB130" s="32"/>
+      <c r="AC130" s="32"/>
       <c r="AG130" s="1">
         <v>2.4</v>
       </c>
@@ -7999,8 +8095,8 @@
         <v>34</v>
       </c>
       <c r="G131" s="28"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
       <c r="J131" s="1" t="s">
         <v>279</v>
       </c>
@@ -8013,24 +8109,24 @@
       <c r="M131" s="6">
         <v>32</v>
       </c>
-      <c r="N131" s="44"/>
+      <c r="N131" s="38"/>
       <c r="O131" s="6">
         <v>1000</v>
       </c>
-      <c r="P131" s="37"/>
-      <c r="Q131" s="37"/>
-      <c r="R131" s="37"/>
-      <c r="S131" s="37"/>
-      <c r="T131" s="37"/>
-      <c r="U131" s="37"/>
-      <c r="V131" s="37"/>
-      <c r="W131" s="37"/>
-      <c r="X131" s="37"/>
-      <c r="Y131" s="37"/>
-      <c r="Z131" s="37"/>
-      <c r="AA131" s="37"/>
-      <c r="AB131" s="37"/>
-      <c r="AC131" s="37"/>
+      <c r="P131" s="32"/>
+      <c r="Q131" s="32"/>
+      <c r="R131" s="32"/>
+      <c r="S131" s="32"/>
+      <c r="T131" s="32"/>
+      <c r="U131" s="32"/>
+      <c r="V131" s="32"/>
+      <c r="W131" s="32"/>
+      <c r="X131" s="32"/>
+      <c r="Y131" s="32"/>
+      <c r="Z131" s="32"/>
+      <c r="AA131" s="32"/>
+      <c r="AB131" s="32"/>
+      <c r="AC131" s="32"/>
       <c r="AG131" s="1">
         <v>1.1200000000000001</v>
       </c>
@@ -8056,8 +8152,8 @@
         <v>34</v>
       </c>
       <c r="G132" s="28"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
       <c r="J132" s="1" t="s">
         <v>276</v>
       </c>
@@ -8070,24 +8166,24 @@
       <c r="M132" s="6">
         <v>32</v>
       </c>
-      <c r="N132" s="44"/>
+      <c r="N132" s="38"/>
       <c r="O132" s="6">
         <v>1000</v>
       </c>
-      <c r="P132" s="31"/>
-      <c r="Q132" s="31"/>
-      <c r="R132" s="31"/>
-      <c r="S132" s="31"/>
-      <c r="T132" s="31"/>
-      <c r="U132" s="31"/>
-      <c r="V132" s="31"/>
-      <c r="W132" s="31"/>
-      <c r="X132" s="31"/>
-      <c r="Y132" s="31"/>
-      <c r="Z132" s="31"/>
-      <c r="AA132" s="31"/>
-      <c r="AB132" s="31"/>
-      <c r="AC132" s="31"/>
+      <c r="P132" s="33"/>
+      <c r="Q132" s="33"/>
+      <c r="R132" s="33"/>
+      <c r="S132" s="33"/>
+      <c r="T132" s="33"/>
+      <c r="U132" s="33"/>
+      <c r="V132" s="33"/>
+      <c r="W132" s="33"/>
+      <c r="X132" s="33"/>
+      <c r="Y132" s="33"/>
+      <c r="Z132" s="33"/>
+      <c r="AA132" s="33"/>
+      <c r="AB132" s="33"/>
+      <c r="AC132" s="33"/>
       <c r="AG132" s="1">
         <v>1.32</v>
       </c>
@@ -8113,8 +8209,8 @@
         <v>34</v>
       </c>
       <c r="G133" s="29"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
       <c r="J133" s="1" t="s">
         <v>282</v>
       </c>
@@ -8127,7 +8223,7 @@
       <c r="M133" s="6">
         <v>16</v>
       </c>
-      <c r="N133" s="45"/>
+      <c r="N133" s="39"/>
       <c r="O133" s="6">
         <v>1000</v>
       </c>
@@ -8586,7 +8682,7 @@
       <c r="D140" s="1">
         <v>11410677</v>
       </c>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -8670,7 +8766,7 @@
       <c r="D141" s="1">
         <v>11410928</v>
       </c>
-      <c r="E141" s="37"/>
+      <c r="E141" s="32"/>
       <c r="F141" s="14">
         <v>5.9895833333333336E-2</v>
       </c>
@@ -8755,7 +8851,7 @@
       <c r="D142" s="1">
         <v>11422866</v>
       </c>
-      <c r="E142" s="37"/>
+      <c r="E142" s="32"/>
       <c r="F142" s="14">
         <v>9.2708333333333337E-2</v>
       </c>
@@ -8838,7 +8934,7 @@
       <c r="D143" s="1">
         <v>11423438</v>
       </c>
-      <c r="E143" s="31"/>
+      <c r="E143" s="33"/>
       <c r="F143" s="14">
         <v>0.10461805555555555</v>
       </c>
@@ -9205,13 +9301,13 @@
       <c r="AR147" s="20"/>
     </row>
     <row r="148" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="C148" s="30">
+      <c r="C148" s="31">
         <v>7092</v>
       </c>
       <c r="D148" s="1">
         <v>11468681</v>
       </c>
-      <c r="E148" s="30" t="s">
+      <c r="E148" s="31" t="s">
         <v>34</v>
       </c>
       <c r="F148" s="14">
@@ -9220,22 +9316,22 @@
       <c r="G148" s="1">
         <v>7.64</v>
       </c>
-      <c r="H148" s="30" t="s">
+      <c r="H148" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="I148" s="30" t="s">
+      <c r="I148" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="J148" s="30" t="s">
+      <c r="J148" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="K148" s="32">
+      <c r="K148" s="49">
         <v>4</v>
       </c>
-      <c r="L148" s="32">
+      <c r="L148" s="49">
         <v>8</v>
       </c>
-      <c r="M148" s="32">
+      <c r="M148" s="49">
         <v>128</v>
       </c>
       <c r="N148" s="7">
@@ -9270,20 +9366,20 @@
       <c r="AR148" s="20"/>
     </row>
     <row r="149" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="C149" s="31"/>
+      <c r="C149" s="33"/>
       <c r="D149" s="1">
         <v>11468670</v>
       </c>
-      <c r="E149" s="31"/>
+      <c r="E149" s="33"/>
       <c r="F149" s="14">
         <v>0.14689814814814814</v>
       </c>
-      <c r="H149" s="31"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
-      <c r="K149" s="33"/>
-      <c r="L149" s="33"/>
-      <c r="M149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="51"/>
+      <c r="L149" s="51"/>
+      <c r="M149" s="51"/>
       <c r="AG149" s="1">
         <v>385</v>
       </c>
@@ -9366,6 +9462,9 @@
       <c r="D151" s="1">
         <v>11559380</v>
       </c>
+      <c r="E151" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F151" s="14"/>
       <c r="H151" s="1" t="s">
         <v>304</v>
@@ -9441,20 +9540,23 @@
     </row>
     <row r="152" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C152" s="1">
-        <v>7095</v>
+        <v>7096</v>
       </c>
       <c r="D152" s="1">
-        <v>11582432</v>
+        <v>11609014</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F152" s="14"/>
       <c r="H152" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K152" s="6">
         <v>4</v>
@@ -9466,13 +9568,13 @@
         <v>128</v>
       </c>
       <c r="N152" s="7">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O152" s="6">
         <v>512</v>
       </c>
       <c r="P152" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q152" s="1">
         <v>15000</v>
@@ -9492,213 +9594,1069 @@
       <c r="V152" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC152" s="20"/>
+      <c r="W152" s="1">
+        <v>19</v>
+      </c>
+      <c r="X152" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y152" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z152" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA152" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB152" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC152" s="20">
+        <v>5082</v>
+      </c>
       <c r="AE152" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AK152" s="14"/>
       <c r="AR152" s="20"/>
     </row>
     <row r="153" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="C153" s="1">
-        <v>7096</v>
-      </c>
       <c r="D153" s="1">
-        <v>11609014</v>
+        <v>11627594</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F153" s="14"/>
-      <c r="H153" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="J153" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K153" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L153" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M153" s="6">
         <v>128</v>
       </c>
       <c r="N153" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O153" s="6">
         <v>512</v>
       </c>
-      <c r="P153" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q153" s="1">
-        <v>15000</v>
-      </c>
-      <c r="R153" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S153" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T153" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U153" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V153" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W153" s="1">
-        <v>19</v>
-      </c>
-      <c r="X153" s="1">
-        <v>38</v>
-      </c>
-      <c r="Y153" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z153" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA153" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB153" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC153" s="20">
-        <v>5082</v>
-      </c>
+      <c r="AC153" s="20"/>
       <c r="AE153" s="1" t="s">
-        <v>327</v>
+        <v>358</v>
+      </c>
+      <c r="AG153" s="1">
+        <v>566</v>
       </c>
       <c r="AK153" s="14"/>
       <c r="AR153" s="20"/>
     </row>
     <row r="154" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C154" s="1">
+        <v>7095</v>
+      </c>
       <c r="D154" s="1">
-        <v>11627594</v>
+        <v>11582432</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F154" s="14"/>
+      <c r="H154" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="J154" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K154" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L154" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M154" s="6">
         <v>128</v>
       </c>
       <c r="N154" s="7">
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="O154" s="6">
         <v>512</v>
       </c>
+      <c r="P154" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U154" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V154" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="AC154" s="20"/>
       <c r="AE154" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AK154" s="14"/>
       <c r="AR154" s="20"/>
     </row>
     <row r="155" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H155" s="77" t="s">
+      <c r="B155" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C155" s="1">
+        <v>7097</v>
+      </c>
+      <c r="D155" s="1">
+        <v>11679402</v>
+      </c>
+      <c r="F155" s="14">
+        <v>1.283564814814815E-2</v>
+      </c>
+      <c r="H155" s="30" t="s">
         <v>325</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="J155" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K155" s="6">
+        <v>1</v>
+      </c>
+      <c r="L155" s="6">
+        <v>1</v>
+      </c>
+      <c r="M155" s="6">
+        <v>128</v>
+      </c>
+      <c r="N155" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O155" s="6">
+        <v>512</v>
+      </c>
+      <c r="P155" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W155" s="1">
+        <v>6</v>
+      </c>
+      <c r="X155" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y155" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z155" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA155" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB155" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC155" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE155" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="156" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H156" s="77" t="s">
+      <c r="B156" s="32"/>
+      <c r="H156" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="I156" s="77" t="s">
+      <c r="I156" s="30" t="s">
         <v>329</v>
       </c>
     </row>
+    <row r="157" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B157" s="32"/>
+      <c r="C157" s="1">
+        <v>7099</v>
+      </c>
+      <c r="D157" s="1">
+        <v>11759780</v>
+      </c>
+      <c r="F157" s="14"/>
+      <c r="H157" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K157" s="6">
+        <v>1</v>
+      </c>
+      <c r="L157" s="6">
+        <v>1</v>
+      </c>
+      <c r="M157" s="6">
+        <v>128</v>
+      </c>
+      <c r="N157" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O157" s="6">
+        <v>512</v>
+      </c>
+      <c r="P157" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S157" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V157" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W157" s="1">
+        <v>6</v>
+      </c>
+      <c r="X157" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z157" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA157" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB157" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC157" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE157" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="158" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B158" s="32"/>
+      <c r="C158" s="1">
+        <v>7100</v>
+      </c>
+      <c r="D158" s="1">
+        <v>11802403</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F158" s="14"/>
+      <c r="H158" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K158" s="6">
+        <v>1</v>
+      </c>
+      <c r="L158" s="6">
+        <v>1</v>
+      </c>
+      <c r="M158" s="6">
+        <v>128</v>
+      </c>
+      <c r="N158" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O158" s="6">
+        <v>512</v>
+      </c>
+      <c r="P158" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S158" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W158" s="1">
+        <v>11</v>
+      </c>
+      <c r="X158" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y158" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z158" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA158" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB158" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC158" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE158" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="159" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B159" s="32"/>
+      <c r="E159" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F159" s="14"/>
+      <c r="H159" s="30"/>
+      <c r="N159" s="7"/>
+      <c r="S159" s="5"/>
+      <c r="AE159" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="160" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B160" s="32"/>
+      <c r="C160" s="1">
+        <v>7101</v>
+      </c>
+      <c r="D160" s="1">
+        <v>11804836</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F160" s="14"/>
+      <c r="H160" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K160" s="6">
+        <v>1</v>
+      </c>
+      <c r="L160" s="6">
+        <v>1</v>
+      </c>
+      <c r="M160" s="6">
+        <v>128</v>
+      </c>
+      <c r="N160" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O160" s="6">
+        <v>512</v>
+      </c>
+      <c r="P160" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S160" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V160" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W160" s="1">
+        <v>1</v>
+      </c>
+      <c r="X160" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y160" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC160" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE160" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="161" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B161" s="32"/>
+      <c r="D161" s="1">
+        <v>11805502</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE161" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="162" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B162" s="32"/>
+      <c r="C162" s="1">
+        <v>7102</v>
+      </c>
+      <c r="D162" s="1">
+        <v>11808158</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F162" s="14"/>
+      <c r="H162" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K162" s="6">
+        <v>1</v>
+      </c>
+      <c r="L162" s="6">
+        <v>1</v>
+      </c>
+      <c r="M162" s="6">
+        <v>128</v>
+      </c>
+      <c r="N162" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O162" s="6">
+        <v>512</v>
+      </c>
+      <c r="P162" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S162" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W162" s="1">
+        <v>8</v>
+      </c>
+      <c r="X162" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z162" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA162" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB162" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC162" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE162" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="163" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B163" s="32"/>
+      <c r="C163" s="1">
+        <v>7103</v>
+      </c>
+      <c r="D163" s="1">
+        <v>11834789</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F163" s="14"/>
+      <c r="H163" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K163" s="6">
+        <v>1</v>
+      </c>
+      <c r="L163" s="6">
+        <v>1</v>
+      </c>
+      <c r="M163" s="6">
+        <v>128</v>
+      </c>
+      <c r="N163" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O163" s="6">
+        <v>512</v>
+      </c>
+      <c r="P163" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S163" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W163" s="1">
+        <v>10</v>
+      </c>
+      <c r="X163" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC163" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE163" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B164" s="32"/>
+      <c r="D164" s="1">
+        <v>11836445</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F164" s="14"/>
+      <c r="H164" s="30"/>
+      <c r="N164" s="7"/>
+      <c r="S164" s="5"/>
+      <c r="AE164" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="165" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B165" s="32"/>
+      <c r="C165" s="1">
+        <v>7104</v>
+      </c>
+      <c r="D165" s="1">
+        <v>11837687</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F165" s="14"/>
+      <c r="H165" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K165" s="6">
+        <v>1</v>
+      </c>
+      <c r="L165" s="6">
+        <v>1</v>
+      </c>
+      <c r="M165" s="6">
+        <v>128</v>
+      </c>
+      <c r="N165" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O165" s="6">
+        <v>512</v>
+      </c>
+      <c r="P165" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q165" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S165" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W165" s="1">
+        <v>10</v>
+      </c>
+      <c r="X165" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y165" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z165" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA165" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB165" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC165" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE165" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="166" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B166" s="33"/>
+      <c r="C166" s="1">
+        <v>7105</v>
+      </c>
+      <c r="D166" s="1">
+        <v>11840316</v>
+      </c>
+      <c r="F166" s="14"/>
+      <c r="H166" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K166" s="6">
+        <v>1</v>
+      </c>
+      <c r="L166" s="6">
+        <v>1</v>
+      </c>
+      <c r="M166" s="6">
+        <v>128</v>
+      </c>
+      <c r="N166" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O166" s="6">
+        <v>512</v>
+      </c>
+      <c r="P166" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S166" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W166" s="1">
+        <v>1</v>
+      </c>
+      <c r="X166" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y166" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z166" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA166" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB166" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC166" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE166" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="167" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C167" s="1">
+        <v>7106</v>
+      </c>
+      <c r="D167" s="1">
+        <v>11845922</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F167" s="14"/>
+      <c r="H167" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K167" s="6">
+        <v>6</v>
+      </c>
+      <c r="L167" s="6">
+        <v>12</v>
+      </c>
+      <c r="M167" s="6">
+        <v>128</v>
+      </c>
+      <c r="N167" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O167" s="6">
+        <v>512</v>
+      </c>
+      <c r="P167" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC167" s="20"/>
+      <c r="AE167" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG167" s="1">
+        <v>374</v>
+      </c>
+      <c r="AK167" s="14"/>
+      <c r="AR167" s="20"/>
+    </row>
+    <row r="168" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="D168" s="1">
+        <v>11860062</v>
+      </c>
+    </row>
+    <row r="169" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C169" s="1">
+        <v>7107</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F169" s="14"/>
+      <c r="H169" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N169" s="7"/>
+      <c r="S169" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W169" s="1">
+        <v>19</v>
+      </c>
+      <c r="X169" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y169" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z169" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA169" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB169" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC169" s="20"/>
+      <c r="AE169" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK169" s="14"/>
+      <c r="AR169" s="20"/>
+    </row>
+    <row r="170" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C170" s="1">
+        <v>7108</v>
+      </c>
+      <c r="F170" s="14"/>
+      <c r="H170" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K170" s="6">
+        <v>8</v>
+      </c>
+      <c r="L170" s="6">
+        <v>16</v>
+      </c>
+      <c r="M170" s="6">
+        <v>128</v>
+      </c>
+      <c r="N170" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O170" s="6">
+        <v>512</v>
+      </c>
+      <c r="P170" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W170" s="1">
+        <v>28</v>
+      </c>
+      <c r="X170" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y170" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z170" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA170" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB170" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC170" s="20">
+        <v>9947</v>
+      </c>
+      <c r="AE170" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK170" s="14"/>
+      <c r="AR170" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="Z127:Z132"/>
-    <mergeCell ref="AA127:AA132"/>
-    <mergeCell ref="AB127:AB132"/>
-    <mergeCell ref="AC127:AC132"/>
-    <mergeCell ref="U127:U132"/>
-    <mergeCell ref="V127:V132"/>
-    <mergeCell ref="W127:W132"/>
-    <mergeCell ref="X127:X132"/>
-    <mergeCell ref="Y127:Y132"/>
-    <mergeCell ref="P127:P132"/>
-    <mergeCell ref="Q127:Q132"/>
-    <mergeCell ref="R127:R132"/>
-    <mergeCell ref="S127:S132"/>
-    <mergeCell ref="T127:T132"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="H127:H133"/>
-    <mergeCell ref="I127:I133"/>
-    <mergeCell ref="N127:N133"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="W115:W120"/>
-    <mergeCell ref="C115:C120"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="H110:H114"/>
-    <mergeCell ref="I110:I114"/>
-    <mergeCell ref="J110:J114"/>
-    <mergeCell ref="AB115:AB120"/>
-    <mergeCell ref="AA115:AA120"/>
-    <mergeCell ref="Z115:Z120"/>
-    <mergeCell ref="Y115:Y120"/>
-    <mergeCell ref="X115:X120"/>
-    <mergeCell ref="I115:I120"/>
-    <mergeCell ref="H115:H120"/>
-    <mergeCell ref="E115:E120"/>
-    <mergeCell ref="R115:R120"/>
-    <mergeCell ref="Q115:Q120"/>
-    <mergeCell ref="P115:P120"/>
-    <mergeCell ref="F115:F120"/>
-    <mergeCell ref="O115:O120"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="N92:N99"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AE68:AE71"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="J81:J85"/>
-    <mergeCell ref="I81:I85"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="H81:H85"/>
+  <mergeCells count="135">
+    <mergeCell ref="B155:B166"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="M148:M149"/>
+    <mergeCell ref="L148:L149"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="M92:M99"/>
+    <mergeCell ref="AE110:AE114"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="AC110:AC114"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:L125"/>
+    <mergeCell ref="AE124:AE125"/>
+    <mergeCell ref="AE115:AE120"/>
+    <mergeCell ref="N115:N120"/>
+    <mergeCell ref="M115:M120"/>
+    <mergeCell ref="L115:L120"/>
+    <mergeCell ref="K115:K120"/>
+    <mergeCell ref="J115:J120"/>
+    <mergeCell ref="V115:V120"/>
+    <mergeCell ref="U115:U120"/>
+    <mergeCell ref="T115:T120"/>
+    <mergeCell ref="S115:S120"/>
+    <mergeCell ref="AD115:AD120"/>
+    <mergeCell ref="AC115:AC120"/>
     <mergeCell ref="B92:B99"/>
     <mergeCell ref="H89:H91"/>
     <mergeCell ref="I89:I91"/>
@@ -9723,44 +10681,80 @@
     <mergeCell ref="T92:T99"/>
     <mergeCell ref="I92:I99"/>
     <mergeCell ref="J92:J99"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="AE68:AE71"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="J81:J85"/>
+    <mergeCell ref="I81:I85"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="H81:H85"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="W115:W120"/>
+    <mergeCell ref="C115:C120"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="H110:H114"/>
+    <mergeCell ref="I110:I114"/>
+    <mergeCell ref="J110:J114"/>
+    <mergeCell ref="AB115:AB120"/>
+    <mergeCell ref="AA115:AA120"/>
+    <mergeCell ref="Z115:Z120"/>
+    <mergeCell ref="Y115:Y120"/>
+    <mergeCell ref="X115:X120"/>
+    <mergeCell ref="I115:I120"/>
+    <mergeCell ref="H115:H120"/>
+    <mergeCell ref="E115:E120"/>
+    <mergeCell ref="R115:R120"/>
+    <mergeCell ref="Q115:Q120"/>
+    <mergeCell ref="P115:P120"/>
+    <mergeCell ref="F115:F120"/>
+    <mergeCell ref="O115:O120"/>
+    <mergeCell ref="N92:N99"/>
     <mergeCell ref="K92:K99"/>
     <mergeCell ref="L92:L99"/>
-    <mergeCell ref="M92:M99"/>
-    <mergeCell ref="AE110:AE114"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="AC110:AC114"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:L125"/>
-    <mergeCell ref="AE124:AE125"/>
-    <mergeCell ref="AE115:AE120"/>
-    <mergeCell ref="N115:N120"/>
-    <mergeCell ref="M115:M120"/>
-    <mergeCell ref="L115:L120"/>
-    <mergeCell ref="K115:K120"/>
-    <mergeCell ref="J115:J120"/>
-    <mergeCell ref="V115:V120"/>
-    <mergeCell ref="U115:U120"/>
-    <mergeCell ref="T115:T120"/>
-    <mergeCell ref="S115:S120"/>
-    <mergeCell ref="AD115:AD120"/>
-    <mergeCell ref="AC115:AC120"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="M148:M149"/>
-    <mergeCell ref="L148:L149"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="P127:P132"/>
+    <mergeCell ref="Q127:Q132"/>
+    <mergeCell ref="R127:R132"/>
+    <mergeCell ref="S127:S132"/>
+    <mergeCell ref="T127:T132"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="H127:H133"/>
+    <mergeCell ref="I127:I133"/>
+    <mergeCell ref="N127:N133"/>
+    <mergeCell ref="Z127:Z132"/>
+    <mergeCell ref="AA127:AA132"/>
+    <mergeCell ref="AB127:AB132"/>
+    <mergeCell ref="AC127:AC132"/>
+    <mergeCell ref="U127:U132"/>
+    <mergeCell ref="V127:V132"/>
+    <mergeCell ref="W127:W132"/>
+    <mergeCell ref="X127:X132"/>
+    <mergeCell ref="Y127:Y132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/AE_run_summary.xlsx
+++ b/AE_run_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17069C28-994F-7C4F-9B05-ADEC34DD40FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F050D-030A-324E-A609-DA79D594B2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{77BEA265-74CB-F24A-890C-09C5DFE2D3CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="372">
   <si>
     <t>case</t>
   </si>
@@ -1130,6 +1130,27 @@
   </si>
   <si>
     <t>Flat profile to test the pivot's true existence</t>
+  </si>
+  <si>
+    <t>perlmutter_7109.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test to see if the new bash script is working properly. Damn it I wrote the wrong time, but it should still run </t>
+  </si>
+  <si>
+    <t>group_go_7110.py</t>
+  </si>
+  <si>
+    <t>Flat profile to test the pivot's true existence. Correct the profile to be actually flat</t>
+  </si>
+  <si>
+    <t>group_go_7111.py</t>
+  </si>
+  <si>
+    <t>Flat profile to test the pivot's true existence. With fewer makers</t>
+  </si>
+  <si>
+    <t>Flat profile to test the pivot's true existence. With fewer makers. Now with 20 my_fixedstep_gyrodefined</t>
   </si>
 </sst>
 </file>
@@ -1913,13 +1934,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BE43D-159D-4D30-A297-AE35C194293D}">
-  <dimension ref="A1:AR170"/>
+  <dimension ref="A1:AR174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="AE159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N173" sqref="N173"/>
+      <selection pane="bottomRight" activeCell="AE175" sqref="AE175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9598,7 +9619,7 @@
         <v>19</v>
       </c>
       <c r="X152" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y152" s="1">
         <v>7</v>
@@ -9610,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="AB152" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC152" s="20">
         <v>5082</v>
@@ -10538,15 +10559,15 @@
         <v>6</v>
       </c>
       <c r="AC169" s="20"/>
-      <c r="AE169" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="AK169" s="14"/>
       <c r="AR169" s="20"/>
     </row>
-    <row r="170" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:44" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="1">
         <v>7108</v>
+      </c>
+      <c r="D170" s="1">
+        <v>11907317</v>
       </c>
       <c r="F170" s="14"/>
       <c r="H170" s="1" t="s">
@@ -10617,6 +10638,248 @@
       </c>
       <c r="AK170" s="14"/>
       <c r="AR170" s="20"/>
+    </row>
+    <row r="171" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C171" s="1">
+        <v>7109</v>
+      </c>
+      <c r="D171" s="1">
+        <v>11942607</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE171" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172" spans="2:44" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="1">
+        <v>7110</v>
+      </c>
+      <c r="D172" s="1">
+        <v>11949063</v>
+      </c>
+      <c r="F172" s="14"/>
+      <c r="H172" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K172" s="6">
+        <v>8</v>
+      </c>
+      <c r="L172" s="6">
+        <v>16</v>
+      </c>
+      <c r="M172" s="6">
+        <v>128</v>
+      </c>
+      <c r="N172" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O172" s="6">
+        <v>512</v>
+      </c>
+      <c r="P172" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q172" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W172" s="1">
+        <v>28</v>
+      </c>
+      <c r="X172" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y172" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z172" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA172" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB172" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC172" s="20">
+        <v>9947</v>
+      </c>
+      <c r="AE172" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK172" s="14"/>
+      <c r="AR172" s="20"/>
+    </row>
+    <row r="173" spans="2:44" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="1">
+        <v>7111</v>
+      </c>
+      <c r="D173" s="1">
+        <v>12010151</v>
+      </c>
+      <c r="F173" s="14"/>
+      <c r="H173" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K173" s="6">
+        <v>8</v>
+      </c>
+      <c r="L173" s="6">
+        <v>16</v>
+      </c>
+      <c r="M173" s="6">
+        <v>128</v>
+      </c>
+      <c r="N173" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O173" s="6">
+        <v>512</v>
+      </c>
+      <c r="P173" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q173" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W173" s="1">
+        <v>19</v>
+      </c>
+      <c r="X173" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y173" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z173" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA173" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB173" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC173" s="20">
+        <v>5082</v>
+      </c>
+      <c r="AE173" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK173" s="14"/>
+      <c r="AR173" s="20"/>
+    </row>
+    <row r="174" spans="2:44" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="1">
+        <v>7112</v>
+      </c>
+      <c r="D174" s="1">
+        <v>12018731</v>
+      </c>
+      <c r="F174" s="14"/>
+      <c r="K174" s="6">
+        <v>8</v>
+      </c>
+      <c r="L174" s="6">
+        <v>16</v>
+      </c>
+      <c r="M174" s="6">
+        <v>128</v>
+      </c>
+      <c r="N174" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O174" s="6">
+        <v>512</v>
+      </c>
+      <c r="P174" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q174" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W174" s="1">
+        <v>19</v>
+      </c>
+      <c r="X174" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y174" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z174" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA174" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB174" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC174" s="20">
+        <v>5082</v>
+      </c>
+      <c r="AE174" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK174" s="14"/>
+      <c r="AR174" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="135">

--- a/AE_run_summary.xlsx
+++ b/AE_run_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Library/Mobile Documents/com~apple~CloudDocs/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F050D-030A-324E-A609-DA79D594B2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3077F8-76E3-004C-B260-35495CD64A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{77BEA265-74CB-F24A-890C-09C5DFE2D3CA}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{77BEA265-74CB-F24A-890C-09C5DFE2D3CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="372">
   <si>
     <t>case</t>
   </si>
@@ -1481,6 +1481,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1489,6 +1495,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,14 +1529,8 @@
     <xf numFmtId="21" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1515,33 +1539,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1589,29 +1586,32 @@
     <xf numFmtId="21" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1937,10 +1937,10 @@
   <dimension ref="A1:AR174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="AE159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="AB158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AE175" sqref="AE175"/>
+      <selection pane="bottomRight" activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1995,20 +1995,20 @@
       <c r="Q2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="58" t="s">
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="60"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="59"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -3295,7 +3295,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="54" t="s">
         <v>143</v>
       </c>
       <c r="C28" s="4">
@@ -3372,7 +3372,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B29" s="56"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="4">
         <v>7014</v>
       </c>
@@ -3445,7 +3445,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B30" s="56"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="4">
         <v>7015</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="56"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="4">
         <v>7015</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="A32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="4">
         <v>7016</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="57"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="4">
         <v>7017</v>
       </c>
@@ -3743,7 +3743,7 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>142</v>
       </c>
       <c r="C34" s="9">
@@ -3818,7 +3818,7 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B35" s="56"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="9">
         <v>7019</v>
       </c>
@@ -3891,7 +3891,7 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B36" s="56"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9">
         <v>7019</v>
       </c>
@@ -3964,7 +3964,7 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B37" s="56"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="9">
         <v>7020</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B38" s="56"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="9">
         <v>7021</v>
       </c>
@@ -4110,7 +4110,7 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B39" s="56"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="10">
         <v>7022</v>
       </c>
@@ -4183,7 +4183,7 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B40" s="56"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="10">
         <v>7023</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B41" s="56"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="9">
         <v>7024</v>
       </c>
@@ -4329,7 +4329,7 @@
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B42" s="57"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="9">
         <v>7025</v>
       </c>
@@ -4402,7 +4402,7 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="54" t="s">
         <v>155</v>
       </c>
       <c r="C43" s="10">
@@ -4428,7 +4428,7 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B44" s="56"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="4">
         <v>7027</v>
       </c>
@@ -4446,7 +4446,7 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B45" s="56"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="4">
         <v>7028</v>
       </c>
@@ -4516,7 +4516,7 @@
       <c r="A46" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="56"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="9">
         <v>7029</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="A47" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="56"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="10">
         <v>7029</v>
       </c>
@@ -4665,7 +4665,7 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="10">
         <v>7030</v>
       </c>
@@ -5741,7 +5741,7 @@
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="36" t="s">
         <v>292</v>
       </c>
       <c r="C64" s="15">
@@ -5758,7 +5758,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B65" s="35"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="15">
         <v>2537</v>
       </c>
@@ -5773,7 +5773,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B66" s="35"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="15">
         <v>2540</v>
       </c>
@@ -5788,7 +5788,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B67" s="36"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="15">
         <v>2544</v>
       </c>
@@ -5828,10 +5828,10 @@
       <c r="J68" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="K68" s="49">
-        <v>1</v>
-      </c>
-      <c r="N68" s="37">
+      <c r="K68" s="34">
+        <v>1</v>
+      </c>
+      <c r="N68" s="47">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="O68" s="7"/>
@@ -5877,7 +5877,7 @@
       <c r="AC68" s="5">
         <v>736</v>
       </c>
-      <c r="AE68" s="61" t="s">
+      <c r="AE68" s="60" t="s">
         <v>211</v>
       </c>
       <c r="AH68" s="1">
@@ -5892,11 +5892,11 @@
       <c r="H69" s="33"/>
       <c r="I69" s="33"/>
       <c r="J69" s="33"/>
-      <c r="K69" s="51"/>
-      <c r="N69" s="39"/>
+      <c r="K69" s="35"/>
+      <c r="N69" s="49"/>
       <c r="P69" s="33"/>
       <c r="Q69" s="33"/>
-      <c r="AE69" s="62"/>
+      <c r="AE69" s="61"/>
       <c r="AF69" s="1">
         <v>187870</v>
       </c>
@@ -5923,10 +5923,10 @@
       <c r="J70" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="K70" s="49">
-        <v>1</v>
-      </c>
-      <c r="N70" s="68">
+      <c r="K70" s="34">
+        <v>1</v>
+      </c>
+      <c r="N70" s="67">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="O70" s="11"/>
@@ -5972,17 +5972,17 @@
       <c r="AC70" s="5">
         <v>736</v>
       </c>
-      <c r="AE70" s="62"/>
+      <c r="AE70" s="61"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="J71" s="33"/>
-      <c r="K71" s="51"/>
-      <c r="N71" s="69"/>
+      <c r="K71" s="35"/>
+      <c r="N71" s="68"/>
       <c r="P71" s="33"/>
-      <c r="AE71" s="63"/>
+      <c r="AE71" s="62"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C72" s="1">
@@ -6237,10 +6237,10 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="43">
+      <c r="C77" s="51">
         <v>7042</v>
       </c>
       <c r="D77" s="1">
@@ -6254,8 +6254,8 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B78" s="56"/>
-      <c r="C78" s="44"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="1">
         <v>11245536</v>
       </c>
@@ -6267,8 +6267,8 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B79" s="57"/>
-      <c r="C79" s="45"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="1">
         <v>11245555</v>
       </c>
@@ -6352,10 +6352,10 @@
       <c r="A81" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B81" s="64" t="s">
+      <c r="B81" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="65">
+      <c r="C81" s="64">
         <v>7055</v>
       </c>
       <c r="D81" s="1">
@@ -6365,13 +6365,13 @@
         <v>96</v>
       </c>
       <c r="G81" s="27"/>
-      <c r="H81" s="43" t="s">
+      <c r="H81" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="I81" s="43" t="s">
+      <c r="I81" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="J81" s="43" t="s">
+      <c r="J81" s="51" t="s">
         <v>228</v>
       </c>
       <c r="K81" s="6">
@@ -6428,8 +6428,8 @@
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B82" s="56"/>
-      <c r="C82" s="66"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="1">
         <v>11247390</v>
       </c>
@@ -6437,13 +6437,13 @@
         <v>96</v>
       </c>
       <c r="G82" s="28"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B83" s="56"/>
-      <c r="C83" s="66"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="1">
         <v>11247392</v>
       </c>
@@ -6451,13 +6451,13 @@
         <v>96</v>
       </c>
       <c r="G83" s="28"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B84" s="56"/>
-      <c r="C84" s="66"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="65"/>
       <c r="D84" s="1">
         <v>11247395</v>
       </c>
@@ -6465,13 +6465,13 @@
         <v>96</v>
       </c>
       <c r="G84" s="28"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B85" s="57"/>
-      <c r="C85" s="67"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="1">
         <v>11247398</v>
       </c>
@@ -6479,9 +6479,9 @@
         <v>96</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C86" s="15">
@@ -6681,81 +6681,81 @@
       <c r="J91" s="33"/>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="69">
         <v>7057</v>
       </c>
       <c r="D92" s="1">
         <v>11265989</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E92" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F92" s="43"/>
+      <c r="F92" s="51"/>
       <c r="G92" s="27"/>
-      <c r="H92" s="43" t="s">
+      <c r="H92" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="I92" s="43" t="s">
+      <c r="I92" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="J92" s="43" t="s">
+      <c r="J92" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="K92" s="70">
-        <v>1</v>
-      </c>
-      <c r="L92" s="70"/>
-      <c r="M92" s="70"/>
-      <c r="N92" s="52">
+      <c r="K92" s="39">
+        <v>1</v>
+      </c>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="75">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="O92" s="16"/>
-      <c r="P92" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="43">
+      <c r="P92" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="51">
         <v>360</v>
       </c>
-      <c r="R92" s="43" t="s">
+      <c r="R92" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="S92" s="43" t="s">
+      <c r="S92" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="T92" s="43" t="s">
+      <c r="T92" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="U92" s="43" t="s">
+      <c r="U92" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="43" t="s">
+      <c r="V92" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="W92" s="43">
+      <c r="W92" s="51">
         <v>18</v>
       </c>
-      <c r="X92" s="43">
+      <c r="X92" s="51">
         <v>36</v>
       </c>
-      <c r="Y92" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z92" s="43">
-        <v>1</v>
-      </c>
-      <c r="AA92" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB92" s="43">
-        <v>1</v>
-      </c>
-      <c r="AC92" s="43">
+      <c r="Y92" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="51">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="51">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="51">
         <v>290</v>
       </c>
-      <c r="AE92" s="43" t="s">
+      <c r="AE92" s="51" t="s">
         <v>247</v>
       </c>
       <c r="AF92" s="1">
@@ -6772,37 +6772,37 @@
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B93" s="35"/>
-      <c r="C93" s="41"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="70"/>
       <c r="D93" s="1">
         <v>11274790</v>
       </c>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
       <c r="G93" s="28"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="53"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="76"/>
       <c r="O93" s="17"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
-      <c r="S93" s="44"/>
-      <c r="T93" s="44"/>
-      <c r="U93" s="44"/>
-      <c r="V93" s="44"/>
-      <c r="W93" s="44"/>
-      <c r="X93" s="44"/>
-      <c r="Y93" s="44"/>
-      <c r="Z93" s="44"/>
-      <c r="AA93" s="44"/>
-      <c r="AB93" s="44"/>
-      <c r="AC93" s="44"/>
-      <c r="AE93" s="44"/>
+      <c r="P93" s="52"/>
+      <c r="Q93" s="52"/>
+      <c r="R93" s="52"/>
+      <c r="S93" s="52"/>
+      <c r="T93" s="52"/>
+      <c r="U93" s="52"/>
+      <c r="V93" s="52"/>
+      <c r="W93" s="52"/>
+      <c r="X93" s="52"/>
+      <c r="Y93" s="52"/>
+      <c r="Z93" s="52"/>
+      <c r="AA93" s="52"/>
+      <c r="AB93" s="52"/>
+      <c r="AC93" s="52"/>
+      <c r="AE93" s="52"/>
       <c r="AF93" s="1">
         <v>57526</v>
       </c>
@@ -6817,37 +6817,37 @@
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B94" s="35"/>
-      <c r="C94" s="41"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="70"/>
       <c r="D94" s="1">
         <v>11274796</v>
       </c>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
       <c r="G94" s="28"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="71"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="53"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="76"/>
       <c r="O94" s="17"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="44"/>
-      <c r="S94" s="44"/>
-      <c r="T94" s="44"/>
-      <c r="U94" s="44"/>
-      <c r="V94" s="44"/>
-      <c r="W94" s="44"/>
-      <c r="X94" s="44"/>
-      <c r="Y94" s="44"/>
-      <c r="Z94" s="44"/>
-      <c r="AA94" s="44"/>
-      <c r="AB94" s="44"/>
-      <c r="AC94" s="44"/>
-      <c r="AE94" s="44"/>
+      <c r="P94" s="52"/>
+      <c r="Q94" s="52"/>
+      <c r="R94" s="52"/>
+      <c r="S94" s="52"/>
+      <c r="T94" s="52"/>
+      <c r="U94" s="52"/>
+      <c r="V94" s="52"/>
+      <c r="W94" s="52"/>
+      <c r="X94" s="52"/>
+      <c r="Y94" s="52"/>
+      <c r="Z94" s="52"/>
+      <c r="AA94" s="52"/>
+      <c r="AB94" s="52"/>
+      <c r="AC94" s="52"/>
+      <c r="AE94" s="52"/>
       <c r="AG94" s="1">
         <v>2.66</v>
       </c>
@@ -6859,37 +6859,37 @@
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B95" s="35"/>
-      <c r="C95" s="41"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="70"/>
       <c r="D95" s="1">
         <v>11275719</v>
       </c>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="52"/>
       <c r="G95" s="28"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="71"/>
-      <c r="L95" s="71"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="53"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="52"/>
+      <c r="J95" s="52"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="76"/>
       <c r="O95" s="17"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="44"/>
-      <c r="S95" s="44"/>
-      <c r="T95" s="44"/>
-      <c r="U95" s="44"/>
-      <c r="V95" s="44"/>
-      <c r="W95" s="44"/>
-      <c r="X95" s="44"/>
-      <c r="Y95" s="44"/>
-      <c r="Z95" s="44"/>
-      <c r="AA95" s="44"/>
-      <c r="AB95" s="44"/>
-      <c r="AC95" s="44"/>
-      <c r="AE95" s="44"/>
+      <c r="P95" s="52"/>
+      <c r="Q95" s="52"/>
+      <c r="R95" s="52"/>
+      <c r="S95" s="52"/>
+      <c r="T95" s="52"/>
+      <c r="U95" s="52"/>
+      <c r="V95" s="52"/>
+      <c r="W95" s="52"/>
+      <c r="X95" s="52"/>
+      <c r="Y95" s="52"/>
+      <c r="Z95" s="52"/>
+      <c r="AA95" s="52"/>
+      <c r="AB95" s="52"/>
+      <c r="AC95" s="52"/>
+      <c r="AE95" s="52"/>
       <c r="AH95" s="1">
         <v>81152</v>
       </c>
@@ -6898,37 +6898,37 @@
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B96" s="35"/>
-      <c r="C96" s="41"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="70"/>
       <c r="D96" s="1">
         <v>11275722</v>
       </c>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
       <c r="G96" s="28"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="71"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="71"/>
-      <c r="N96" s="53"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="76"/>
       <c r="O96" s="17"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
-      <c r="S96" s="44"/>
-      <c r="T96" s="44"/>
-      <c r="U96" s="44"/>
-      <c r="V96" s="44"/>
-      <c r="W96" s="44"/>
-      <c r="X96" s="44"/>
-      <c r="Y96" s="44"/>
-      <c r="Z96" s="44"/>
-      <c r="AA96" s="44"/>
-      <c r="AB96" s="44"/>
-      <c r="AC96" s="44"/>
-      <c r="AE96" s="44"/>
+      <c r="P96" s="52"/>
+      <c r="Q96" s="52"/>
+      <c r="R96" s="52"/>
+      <c r="S96" s="52"/>
+      <c r="T96" s="52"/>
+      <c r="U96" s="52"/>
+      <c r="V96" s="52"/>
+      <c r="W96" s="52"/>
+      <c r="X96" s="52"/>
+      <c r="Y96" s="52"/>
+      <c r="Z96" s="52"/>
+      <c r="AA96" s="52"/>
+      <c r="AB96" s="52"/>
+      <c r="AC96" s="52"/>
+      <c r="AE96" s="52"/>
       <c r="AH96" s="1">
         <v>87296</v>
       </c>
@@ -6937,37 +6937,37 @@
       </c>
     </row>
     <row r="97" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B97" s="35"/>
-      <c r="C97" s="41"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="70"/>
       <c r="D97" s="1">
         <v>11275725</v>
       </c>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
       <c r="G97" s="28"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="71"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="71"/>
-      <c r="N97" s="53"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="52"/>
+      <c r="J97" s="52"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="76"/>
       <c r="O97" s="17"/>
-      <c r="P97" s="44"/>
-      <c r="Q97" s="44"/>
-      <c r="R97" s="44"/>
-      <c r="S97" s="44"/>
-      <c r="T97" s="44"/>
-      <c r="U97" s="44"/>
-      <c r="V97" s="44"/>
-      <c r="W97" s="44"/>
-      <c r="X97" s="44"/>
-      <c r="Y97" s="44"/>
-      <c r="Z97" s="44"/>
-      <c r="AA97" s="44"/>
-      <c r="AB97" s="44"/>
-      <c r="AC97" s="44"/>
-      <c r="AE97" s="44"/>
+      <c r="P97" s="52"/>
+      <c r="Q97" s="52"/>
+      <c r="R97" s="52"/>
+      <c r="S97" s="52"/>
+      <c r="T97" s="52"/>
+      <c r="U97" s="52"/>
+      <c r="V97" s="52"/>
+      <c r="W97" s="52"/>
+      <c r="X97" s="52"/>
+      <c r="Y97" s="52"/>
+      <c r="Z97" s="52"/>
+      <c r="AA97" s="52"/>
+      <c r="AB97" s="52"/>
+      <c r="AC97" s="52"/>
+      <c r="AE97" s="52"/>
       <c r="AH97" s="1">
         <v>80128</v>
       </c>
@@ -6976,37 +6976,37 @@
       </c>
     </row>
     <row r="98" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B98" s="35"/>
-      <c r="C98" s="41"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="70"/>
       <c r="D98" s="1">
         <v>11275729</v>
       </c>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
       <c r="G98" s="28"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="71"/>
-      <c r="L98" s="71"/>
-      <c r="M98" s="71"/>
-      <c r="N98" s="53"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="76"/>
       <c r="O98" s="17"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="44"/>
-      <c r="S98" s="44"/>
-      <c r="T98" s="44"/>
-      <c r="U98" s="44"/>
-      <c r="V98" s="44"/>
-      <c r="W98" s="44"/>
-      <c r="X98" s="44"/>
-      <c r="Y98" s="44"/>
-      <c r="Z98" s="44"/>
-      <c r="AA98" s="44"/>
-      <c r="AB98" s="44"/>
-      <c r="AC98" s="44"/>
-      <c r="AE98" s="44"/>
+      <c r="P98" s="52"/>
+      <c r="Q98" s="52"/>
+      <c r="R98" s="52"/>
+      <c r="S98" s="52"/>
+      <c r="T98" s="52"/>
+      <c r="U98" s="52"/>
+      <c r="V98" s="52"/>
+      <c r="W98" s="52"/>
+      <c r="X98" s="52"/>
+      <c r="Y98" s="52"/>
+      <c r="Z98" s="52"/>
+      <c r="AA98" s="52"/>
+      <c r="AB98" s="52"/>
+      <c r="AC98" s="52"/>
+      <c r="AE98" s="52"/>
       <c r="AH98" s="1">
         <v>77312</v>
       </c>
@@ -7015,37 +7015,37 @@
       </c>
     </row>
     <row r="99" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B99" s="36"/>
-      <c r="C99" s="42"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="71"/>
       <c r="D99" s="1">
         <v>11275731</v>
       </c>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
       <c r="G99" s="29"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="72"/>
-      <c r="M99" s="72"/>
-      <c r="N99" s="54"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="77"/>
       <c r="O99" s="18"/>
-      <c r="P99" s="45"/>
-      <c r="Q99" s="45"/>
-      <c r="R99" s="45"/>
-      <c r="S99" s="45"/>
-      <c r="T99" s="45"/>
-      <c r="U99" s="45"/>
-      <c r="V99" s="45"/>
-      <c r="W99" s="45"/>
-      <c r="X99" s="45"/>
-      <c r="Y99" s="45"/>
-      <c r="Z99" s="45"/>
-      <c r="AA99" s="45"/>
-      <c r="AB99" s="45"/>
-      <c r="AC99" s="45"/>
-      <c r="AE99" s="45"/>
+      <c r="P99" s="53"/>
+      <c r="Q99" s="53"/>
+      <c r="R99" s="53"/>
+      <c r="S99" s="53"/>
+      <c r="T99" s="53"/>
+      <c r="U99" s="53"/>
+      <c r="V99" s="53"/>
+      <c r="W99" s="53"/>
+      <c r="X99" s="53"/>
+      <c r="Y99" s="53"/>
+      <c r="Z99" s="53"/>
+      <c r="AA99" s="53"/>
+      <c r="AB99" s="53"/>
+      <c r="AC99" s="53"/>
+      <c r="AE99" s="53"/>
       <c r="AH99" s="1">
         <v>78848</v>
       </c>
@@ -7163,7 +7163,7 @@
       </c>
     </row>
     <row r="105" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C105" s="43">
+      <c r="C105" s="51">
         <v>7062</v>
       </c>
       <c r="D105" s="1">
@@ -7183,7 +7183,7 @@
       </c>
     </row>
     <row r="106" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C106" s="45"/>
+      <c r="C106" s="53"/>
       <c r="D106" s="1">
         <v>11313957</v>
       </c>
@@ -7198,16 +7198,16 @@
       <c r="E107" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K107" s="49">
-        <v>1</v>
-      </c>
-      <c r="L107" s="49">
+      <c r="K107" s="34">
+        <v>1</v>
+      </c>
+      <c r="L107" s="34">
         <v>2</v>
       </c>
-      <c r="M107" s="49">
+      <c r="M107" s="34">
         <v>128</v>
       </c>
-      <c r="N107" s="73">
+      <c r="N107" s="42">
         <v>1.0416666666666667</v>
       </c>
       <c r="O107" s="21"/>
@@ -7220,10 +7220,10 @@
       <c r="E108" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K108" s="51"/>
-      <c r="L108" s="51"/>
-      <c r="M108" s="51"/>
-      <c r="N108" s="74"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="43"/>
       <c r="O108" s="22"/>
       <c r="AE108" s="19" t="s">
         <v>267</v>
@@ -7302,7 +7302,7 @@
       </c>
     </row>
     <row r="110" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C110" s="46">
+      <c r="C110" s="72">
         <v>7065</v>
       </c>
       <c r="D110" s="1">
@@ -7373,7 +7373,7 @@
       <c r="AC110" s="32">
         <v>290</v>
       </c>
-      <c r="AE110" s="34" t="s">
+      <c r="AE110" s="36" t="s">
         <v>266</v>
       </c>
       <c r="AF110" s="1">
@@ -7384,7 +7384,7 @@
       </c>
     </row>
     <row r="111" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C111" s="47"/>
+      <c r="C111" s="73"/>
       <c r="D111" s="1">
         <v>11316015</v>
       </c>
@@ -7393,13 +7393,13 @@
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
       <c r="AC111" s="32"/>
-      <c r="AE111" s="35"/>
+      <c r="AE111" s="37"/>
       <c r="AH111" s="1">
         <v>102656</v>
       </c>
     </row>
     <row r="112" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C112" s="47"/>
+      <c r="C112" s="73"/>
       <c r="D112" s="1">
         <v>11316019</v>
       </c>
@@ -7408,13 +7408,13 @@
       <c r="I112" s="32"/>
       <c r="J112" s="32"/>
       <c r="AC112" s="32"/>
-      <c r="AE112" s="35"/>
+      <c r="AE112" s="37"/>
       <c r="AH112" s="1">
         <v>98048</v>
       </c>
     </row>
     <row r="113" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C113" s="47"/>
+      <c r="C113" s="73"/>
       <c r="D113" s="1">
         <v>11316020</v>
       </c>
@@ -7423,13 +7423,13 @@
       <c r="I113" s="32"/>
       <c r="J113" s="32"/>
       <c r="AC113" s="32"/>
-      <c r="AE113" s="35"/>
+      <c r="AE113" s="37"/>
       <c r="AH113" s="1">
         <v>98048</v>
       </c>
     </row>
     <row r="114" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C114" s="48"/>
+      <c r="C114" s="74"/>
       <c r="D114" s="1">
         <v>11316021</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="I114" s="33"/>
       <c r="J114" s="33"/>
       <c r="AC114" s="33"/>
-      <c r="AE114" s="36"/>
+      <c r="AE114" s="38"/>
       <c r="AH114" s="1">
         <v>97536</v>
       </c>
@@ -7450,7 +7450,7 @@
       </c>
     </row>
     <row r="115" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C115" s="46">
+      <c r="C115" s="72">
         <v>7066</v>
       </c>
       <c r="D115" s="1">
@@ -7470,19 +7470,19 @@
       <c r="J115" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="K115" s="49">
-        <v>1</v>
-      </c>
-      <c r="L115" s="49">
-        <v>1</v>
-      </c>
-      <c r="M115" s="49">
+      <c r="K115" s="34">
+        <v>1</v>
+      </c>
+      <c r="L115" s="34">
+        <v>1</v>
+      </c>
+      <c r="M115" s="34">
         <v>256</v>
       </c>
-      <c r="N115" s="37">
+      <c r="N115" s="47">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="O115" s="49">
+      <c r="O115" s="34">
         <v>256</v>
       </c>
       <c r="P115" s="31">
@@ -7528,7 +7528,7 @@
         <v>290</v>
       </c>
       <c r="AD115" s="31"/>
-      <c r="AE115" s="75" t="s">
+      <c r="AE115" s="44" t="s">
         <v>262</v>
       </c>
       <c r="AH115" s="1">
@@ -7539,7 +7539,7 @@
       </c>
     </row>
     <row r="116" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C116" s="47"/>
+      <c r="C116" s="73"/>
       <c r="D116" s="1">
         <v>11317979</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="K116" s="50"/>
       <c r="L116" s="50"/>
       <c r="M116" s="50"/>
-      <c r="N116" s="38"/>
+      <c r="N116" s="48"/>
       <c r="O116" s="50"/>
       <c r="P116" s="32"/>
       <c r="Q116" s="32"/>
@@ -7569,7 +7569,7 @@
       <c r="AB116" s="32"/>
       <c r="AC116" s="32"/>
       <c r="AD116" s="32"/>
-      <c r="AE116" s="76"/>
+      <c r="AE116" s="45"/>
       <c r="AH116" s="1">
         <v>101632</v>
       </c>
@@ -7578,7 +7578,7 @@
       </c>
     </row>
     <row r="117" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C117" s="47"/>
+      <c r="C117" s="73"/>
       <c r="D117" s="1">
         <v>11317981</v>
       </c>
@@ -7591,7 +7591,7 @@
       <c r="K117" s="50"/>
       <c r="L117" s="50"/>
       <c r="M117" s="50"/>
-      <c r="N117" s="38"/>
+      <c r="N117" s="48"/>
       <c r="O117" s="50"/>
       <c r="P117" s="32"/>
       <c r="Q117" s="32"/>
@@ -7608,7 +7608,7 @@
       <c r="AB117" s="32"/>
       <c r="AC117" s="32"/>
       <c r="AD117" s="32"/>
-      <c r="AE117" s="76"/>
+      <c r="AE117" s="45"/>
       <c r="AH117" s="1">
         <v>103680</v>
       </c>
@@ -7617,7 +7617,7 @@
       </c>
     </row>
     <row r="118" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C118" s="47"/>
+      <c r="C118" s="73"/>
       <c r="D118" s="1">
         <v>11317982</v>
       </c>
@@ -7630,7 +7630,7 @@
       <c r="K118" s="50"/>
       <c r="L118" s="50"/>
       <c r="M118" s="50"/>
-      <c r="N118" s="38"/>
+      <c r="N118" s="48"/>
       <c r="O118" s="50"/>
       <c r="P118" s="32"/>
       <c r="Q118" s="32"/>
@@ -7647,7 +7647,7 @@
       <c r="AB118" s="32"/>
       <c r="AC118" s="32"/>
       <c r="AD118" s="32"/>
-      <c r="AE118" s="76"/>
+      <c r="AE118" s="45"/>
       <c r="AH118" s="1">
         <v>105472</v>
       </c>
@@ -7656,7 +7656,7 @@
       </c>
     </row>
     <row r="119" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C119" s="47"/>
+      <c r="C119" s="73"/>
       <c r="D119" s="1">
         <v>11317983</v>
       </c>
@@ -7669,7 +7669,7 @@
       <c r="K119" s="50"/>
       <c r="L119" s="50"/>
       <c r="M119" s="50"/>
-      <c r="N119" s="38"/>
+      <c r="N119" s="48"/>
       <c r="O119" s="50"/>
       <c r="P119" s="32"/>
       <c r="Q119" s="32"/>
@@ -7686,7 +7686,7 @@
       <c r="AB119" s="32"/>
       <c r="AC119" s="32"/>
       <c r="AD119" s="32"/>
-      <c r="AE119" s="76"/>
+      <c r="AE119" s="45"/>
       <c r="AH119" s="1">
         <v>98560</v>
       </c>
@@ -7695,7 +7695,7 @@
       </c>
     </row>
     <row r="120" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C120" s="48"/>
+      <c r="C120" s="74"/>
       <c r="D120" s="1">
         <v>11317984</v>
       </c>
@@ -7705,11 +7705,11 @@
       <c r="H120" s="33"/>
       <c r="I120" s="33"/>
       <c r="J120" s="33"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="39"/>
-      <c r="O120" s="51"/>
+      <c r="K120" s="35"/>
+      <c r="L120" s="35"/>
+      <c r="M120" s="35"/>
+      <c r="N120" s="49"/>
+      <c r="O120" s="35"/>
       <c r="P120" s="33"/>
       <c r="Q120" s="33"/>
       <c r="R120" s="33"/>
@@ -7725,7 +7725,7 @@
       <c r="AB120" s="33"/>
       <c r="AC120" s="33"/>
       <c r="AD120" s="33"/>
-      <c r="AE120" s="77"/>
+      <c r="AE120" s="46"/>
       <c r="AH120" s="1">
         <v>112640</v>
       </c>
@@ -7816,9 +7816,9 @@
       <c r="J124" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="K124" s="49"/>
-      <c r="L124" s="49"/>
-      <c r="AE124" s="34" t="s">
+      <c r="K124" s="34"/>
+      <c r="L124" s="34"/>
+      <c r="AE124" s="36" t="s">
         <v>260</v>
       </c>
       <c r="AH124" s="1">
@@ -7834,9 +7834,9 @@
       <c r="H125" s="33"/>
       <c r="I125" s="33"/>
       <c r="J125" s="33"/>
-      <c r="K125" s="51"/>
-      <c r="L125" s="51"/>
-      <c r="AE125" s="36"/>
+      <c r="K125" s="35"/>
+      <c r="L125" s="35"/>
+      <c r="AE125" s="38"/>
       <c r="AH125" s="1">
         <v>100608</v>
       </c>
@@ -7853,7 +7853,7 @@
       </c>
     </row>
     <row r="127" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="36" t="s">
         <v>295</v>
       </c>
       <c r="C127" s="1">
@@ -7881,7 +7881,7 @@
       <c r="M127" s="6">
         <v>256</v>
       </c>
-      <c r="N127" s="37">
+      <c r="N127" s="47">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="O127" s="6">
@@ -7943,7 +7943,7 @@
       </c>
     </row>
     <row r="128" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B128" s="35"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="1">
         <v>7072</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="M128" s="6">
         <v>256</v>
       </c>
-      <c r="N128" s="38"/>
+      <c r="N128" s="48"/>
       <c r="O128" s="6">
         <v>1000</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="AC128" s="32"/>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B129" s="35"/>
+      <c r="B129" s="37"/>
       <c r="C129" s="1">
         <v>7073</v>
       </c>
@@ -8013,7 +8013,7 @@
       <c r="M129" s="6">
         <v>128</v>
       </c>
-      <c r="N129" s="38"/>
+      <c r="N129" s="48"/>
       <c r="O129" s="6">
         <v>1000</v>
       </c>
@@ -8048,7 +8048,7 @@
       </c>
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B130" s="35"/>
+      <c r="B130" s="37"/>
       <c r="C130" s="1">
         <v>7074</v>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="M130" s="6">
         <v>64</v>
       </c>
-      <c r="N130" s="38"/>
+      <c r="N130" s="48"/>
       <c r="O130" s="6">
         <v>1000</v>
       </c>
@@ -8105,7 +8105,7 @@
       </c>
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B131" s="35"/>
+      <c r="B131" s="37"/>
       <c r="C131" s="1">
         <v>7079</v>
       </c>
@@ -8130,7 +8130,7 @@
       <c r="M131" s="6">
         <v>32</v>
       </c>
-      <c r="N131" s="38"/>
+      <c r="N131" s="48"/>
       <c r="O131" s="6">
         <v>1000</v>
       </c>
@@ -8162,7 +8162,7 @@
       </c>
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B132" s="35"/>
+      <c r="B132" s="37"/>
       <c r="C132" s="1">
         <v>7077</v>
       </c>
@@ -8187,7 +8187,7 @@
       <c r="M132" s="6">
         <v>32</v>
       </c>
-      <c r="N132" s="38"/>
+      <c r="N132" s="48"/>
       <c r="O132" s="6">
         <v>1000</v>
       </c>
@@ -8219,7 +8219,7 @@
       </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B133" s="36"/>
+      <c r="B133" s="38"/>
       <c r="C133" s="1">
         <v>7080</v>
       </c>
@@ -8244,7 +8244,7 @@
       <c r="M133" s="6">
         <v>16</v>
       </c>
-      <c r="N133" s="39"/>
+      <c r="N133" s="49"/>
       <c r="O133" s="6">
         <v>1000</v>
       </c>
@@ -8694,7 +8694,7 @@
       </c>
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="36" t="s">
         <v>300</v>
       </c>
       <c r="C140" s="1">
@@ -8780,7 +8780,7 @@
       </c>
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B141" s="35"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="1">
         <v>7085</v>
       </c>
@@ -8865,7 +8865,7 @@
       </c>
     </row>
     <row r="142" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B142" s="35"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="1">
         <v>7086</v>
       </c>
@@ -8948,7 +8948,7 @@
       <c r="AR142" s="20"/>
     </row>
     <row r="143" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B143" s="36"/>
+      <c r="B143" s="38"/>
       <c r="C143" s="1">
         <v>7087</v>
       </c>
@@ -9346,13 +9346,13 @@
       <c r="J148" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="K148" s="49">
+      <c r="K148" s="34">
         <v>4</v>
       </c>
-      <c r="L148" s="49">
+      <c r="L148" s="34">
         <v>8</v>
       </c>
-      <c r="M148" s="49">
+      <c r="M148" s="34">
         <v>128</v>
       </c>
       <c r="N148" s="7">
@@ -9398,9 +9398,9 @@
       <c r="H149" s="33"/>
       <c r="I149" s="33"/>
       <c r="J149" s="33"/>
-      <c r="K149" s="51"/>
-      <c r="L149" s="51"/>
-      <c r="M149" s="51"/>
+      <c r="K149" s="35"/>
+      <c r="L149" s="35"/>
+      <c r="M149" s="35"/>
       <c r="AG149" s="1">
         <v>385</v>
       </c>
@@ -10371,6 +10371,9 @@
       <c r="D166" s="1">
         <v>11840316</v>
       </c>
+      <c r="E166" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F166" s="14"/>
       <c r="H166" s="30" t="s">
         <v>349</v>
@@ -10883,43 +10886,80 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="B155:B166"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="M148:M149"/>
-    <mergeCell ref="L148:L149"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="M92:M99"/>
-    <mergeCell ref="AE110:AE114"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="AC110:AC114"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:L125"/>
-    <mergeCell ref="AE124:AE125"/>
-    <mergeCell ref="AE115:AE120"/>
-    <mergeCell ref="N115:N120"/>
-    <mergeCell ref="M115:M120"/>
-    <mergeCell ref="L115:L120"/>
-    <mergeCell ref="K115:K120"/>
-    <mergeCell ref="J115:J120"/>
-    <mergeCell ref="V115:V120"/>
-    <mergeCell ref="U115:U120"/>
-    <mergeCell ref="T115:T120"/>
-    <mergeCell ref="S115:S120"/>
-    <mergeCell ref="AD115:AD120"/>
-    <mergeCell ref="AC115:AC120"/>
+    <mergeCell ref="Z127:Z132"/>
+    <mergeCell ref="AA127:AA132"/>
+    <mergeCell ref="AB127:AB132"/>
+    <mergeCell ref="AC127:AC132"/>
+    <mergeCell ref="U127:U132"/>
+    <mergeCell ref="V127:V132"/>
+    <mergeCell ref="W127:W132"/>
+    <mergeCell ref="X127:X132"/>
+    <mergeCell ref="Y127:Y132"/>
+    <mergeCell ref="P127:P132"/>
+    <mergeCell ref="Q127:Q132"/>
+    <mergeCell ref="R127:R132"/>
+    <mergeCell ref="S127:S132"/>
+    <mergeCell ref="T127:T132"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="H127:H133"/>
+    <mergeCell ref="I127:I133"/>
+    <mergeCell ref="N127:N133"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="W115:W120"/>
+    <mergeCell ref="C115:C120"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="H110:H114"/>
+    <mergeCell ref="I110:I114"/>
+    <mergeCell ref="J110:J114"/>
+    <mergeCell ref="AB115:AB120"/>
+    <mergeCell ref="AA115:AA120"/>
+    <mergeCell ref="Z115:Z120"/>
+    <mergeCell ref="Y115:Y120"/>
+    <mergeCell ref="X115:X120"/>
+    <mergeCell ref="I115:I120"/>
+    <mergeCell ref="H115:H120"/>
+    <mergeCell ref="E115:E120"/>
+    <mergeCell ref="R115:R120"/>
+    <mergeCell ref="Q115:Q120"/>
+    <mergeCell ref="P115:P120"/>
+    <mergeCell ref="F115:F120"/>
+    <mergeCell ref="O115:O120"/>
+    <mergeCell ref="N92:N99"/>
+    <mergeCell ref="K92:K99"/>
+    <mergeCell ref="L92:L99"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="AE68:AE71"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="J81:J85"/>
+    <mergeCell ref="I81:I85"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="H81:H85"/>
     <mergeCell ref="B92:B99"/>
     <mergeCell ref="H89:H91"/>
     <mergeCell ref="I89:I91"/>
@@ -10944,80 +10984,43 @@
     <mergeCell ref="T92:T99"/>
     <mergeCell ref="I92:I99"/>
     <mergeCell ref="J92:J99"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AE68:AE71"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="J81:J85"/>
-    <mergeCell ref="I81:I85"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="H81:H85"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="W115:W120"/>
-    <mergeCell ref="C115:C120"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="H110:H114"/>
-    <mergeCell ref="I110:I114"/>
-    <mergeCell ref="J110:J114"/>
-    <mergeCell ref="AB115:AB120"/>
-    <mergeCell ref="AA115:AA120"/>
-    <mergeCell ref="Z115:Z120"/>
-    <mergeCell ref="Y115:Y120"/>
-    <mergeCell ref="X115:X120"/>
-    <mergeCell ref="I115:I120"/>
-    <mergeCell ref="H115:H120"/>
-    <mergeCell ref="E115:E120"/>
-    <mergeCell ref="R115:R120"/>
-    <mergeCell ref="Q115:Q120"/>
-    <mergeCell ref="P115:P120"/>
-    <mergeCell ref="F115:F120"/>
-    <mergeCell ref="O115:O120"/>
-    <mergeCell ref="N92:N99"/>
-    <mergeCell ref="K92:K99"/>
-    <mergeCell ref="L92:L99"/>
-    <mergeCell ref="P127:P132"/>
-    <mergeCell ref="Q127:Q132"/>
-    <mergeCell ref="R127:R132"/>
-    <mergeCell ref="S127:S132"/>
-    <mergeCell ref="T127:T132"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="H127:H133"/>
-    <mergeCell ref="I127:I133"/>
-    <mergeCell ref="N127:N133"/>
-    <mergeCell ref="Z127:Z132"/>
-    <mergeCell ref="AA127:AA132"/>
-    <mergeCell ref="AB127:AB132"/>
-    <mergeCell ref="AC127:AC132"/>
-    <mergeCell ref="U127:U132"/>
-    <mergeCell ref="V127:V132"/>
-    <mergeCell ref="W127:W132"/>
-    <mergeCell ref="X127:X132"/>
-    <mergeCell ref="Y127:Y132"/>
+    <mergeCell ref="M92:M99"/>
+    <mergeCell ref="AE110:AE114"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="AC110:AC114"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:L125"/>
+    <mergeCell ref="AE124:AE125"/>
+    <mergeCell ref="AE115:AE120"/>
+    <mergeCell ref="N115:N120"/>
+    <mergeCell ref="M115:M120"/>
+    <mergeCell ref="L115:L120"/>
+    <mergeCell ref="K115:K120"/>
+    <mergeCell ref="J115:J120"/>
+    <mergeCell ref="V115:V120"/>
+    <mergeCell ref="U115:U120"/>
+    <mergeCell ref="T115:T120"/>
+    <mergeCell ref="S115:S120"/>
+    <mergeCell ref="AD115:AD120"/>
+    <mergeCell ref="AC115:AC120"/>
+    <mergeCell ref="B155:B166"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="M148:M149"/>
+    <mergeCell ref="L148:L149"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
